--- a/input_data/admin_data/SLV/_clean/wages-SLV.xlsx
+++ b/input_data/admin_data/SLV/_clean/wages-SLV.xlsx
@@ -28,7 +28,754 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="996">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -2317,22 +3064,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>498</v>
+        <v>747</v>
       </c>
       <c r="B1" t="s">
-        <v>499</v>
+        <v>748</v>
       </c>
       <c r="C1" t="s">
-        <v>510</v>
+        <v>759</v>
       </c>
       <c r="D1" t="s">
-        <v>511</v>
+        <v>760</v>
       </c>
       <c r="E1" t="s">
-        <v>512</v>
+        <v>761</v>
       </c>
       <c r="F1" t="s">
-        <v>513</v>
+        <v>762</v>
       </c>
     </row>
     <row r="2">
@@ -2340,7 +3087,7 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>500</v>
+        <v>749</v>
       </c>
       <c r="C2">
         <v>6272353</v>
@@ -2358,7 +3105,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>501</v>
+        <v>750</v>
       </c>
       <c r="C3">
         <v>6272353</v>
@@ -2376,7 +3123,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>502</v>
+        <v>751</v>
       </c>
       <c r="C4">
         <v>6272353</v>
@@ -2394,7 +3141,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>503</v>
+        <v>752</v>
       </c>
       <c r="C5">
         <v>6272353</v>
@@ -2412,7 +3159,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>504</v>
+        <v>753</v>
       </c>
       <c r="C6">
         <v>6272353</v>
@@ -2430,7 +3177,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>505</v>
+        <v>754</v>
       </c>
       <c r="C7">
         <v>6272353</v>
@@ -2448,7 +3195,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>506</v>
+        <v>755</v>
       </c>
       <c r="C8">
         <v>6272353</v>
@@ -2466,7 +3213,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>507</v>
+        <v>756</v>
       </c>
       <c r="C9">
         <v>6272353</v>
@@ -2484,7 +3231,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>508</v>
+        <v>757</v>
       </c>
       <c r="C10">
         <v>6272353</v>
@@ -2502,7 +3249,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>509</v>
+        <v>758</v>
       </c>
       <c r="C11">
         <v>6272353</v>
@@ -2528,22 +3275,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>638</v>
+        <v>887</v>
       </c>
       <c r="B1" t="s">
-        <v>639</v>
+        <v>888</v>
       </c>
       <c r="C1" t="s">
-        <v>650</v>
+        <v>899</v>
       </c>
       <c r="D1" t="s">
-        <v>651</v>
+        <v>900</v>
       </c>
       <c r="E1" t="s">
-        <v>652</v>
+        <v>901</v>
       </c>
       <c r="F1" t="s">
-        <v>653</v>
+        <v>902</v>
       </c>
     </row>
     <row r="2">
@@ -2551,7 +3298,7 @@
         <v>2010</v>
       </c>
       <c r="B2" t="s">
-        <v>640</v>
+        <v>889</v>
       </c>
       <c r="C2">
         <v>6181405</v>
@@ -2569,7 +3316,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>641</v>
+        <v>890</v>
       </c>
       <c r="C3">
         <v>6181405</v>
@@ -2587,7 +3334,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>642</v>
+        <v>891</v>
       </c>
       <c r="C4">
         <v>6181405</v>
@@ -2605,7 +3352,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>643</v>
+        <v>892</v>
       </c>
       <c r="C5">
         <v>6181405</v>
@@ -2623,7 +3370,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>644</v>
+        <v>893</v>
       </c>
       <c r="C6">
         <v>6181405</v>
@@ -2641,7 +3388,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>645</v>
+        <v>894</v>
       </c>
       <c r="C7">
         <v>6181405</v>
@@ -2659,7 +3406,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>646</v>
+        <v>895</v>
       </c>
       <c r="C8">
         <v>6181405</v>
@@ -2677,7 +3424,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>647</v>
+        <v>896</v>
       </c>
       <c r="C9">
         <v>6181405</v>
@@ -2695,7 +3442,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>648</v>
+        <v>897</v>
       </c>
       <c r="C10">
         <v>6181405</v>
@@ -2713,7 +3460,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>649</v>
+        <v>898</v>
       </c>
       <c r="C11">
         <v>6181405</v>
@@ -2739,22 +3486,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>654</v>
+        <v>903</v>
       </c>
       <c r="B1" t="s">
-        <v>655</v>
+        <v>904</v>
       </c>
       <c r="C1" t="s">
-        <v>665</v>
+        <v>914</v>
       </c>
       <c r="D1" t="s">
-        <v>666</v>
+        <v>915</v>
       </c>
       <c r="E1" t="s">
-        <v>667</v>
+        <v>916</v>
       </c>
       <c r="F1" t="s">
-        <v>668</v>
+        <v>917</v>
       </c>
     </row>
     <row r="2">
@@ -2762,7 +3509,7 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>656</v>
+        <v>905</v>
       </c>
       <c r="C2">
         <v>6249262</v>
@@ -2780,7 +3527,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>657</v>
+        <v>906</v>
       </c>
       <c r="C3">
         <v>6249262</v>
@@ -2798,7 +3545,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>658</v>
+        <v>907</v>
       </c>
       <c r="C4">
         <v>6249262</v>
@@ -2816,7 +3563,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>659</v>
+        <v>908</v>
       </c>
       <c r="C5">
         <v>6249262</v>
@@ -2834,7 +3581,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>660</v>
+        <v>909</v>
       </c>
       <c r="C6">
         <v>6249262</v>
@@ -2852,7 +3599,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>661</v>
+        <v>910</v>
       </c>
       <c r="C7">
         <v>6249262</v>
@@ -2870,7 +3617,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>662</v>
+        <v>911</v>
       </c>
       <c r="C8">
         <v>6249262</v>
@@ -2888,7 +3635,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>663</v>
+        <v>912</v>
       </c>
       <c r="C9">
         <v>6249262</v>
@@ -2906,7 +3653,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>664</v>
+        <v>913</v>
       </c>
       <c r="C10">
         <v>6249262</v>
@@ -2932,22 +3679,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>669</v>
+        <v>918</v>
       </c>
       <c r="B1" t="s">
-        <v>670</v>
+        <v>919</v>
       </c>
       <c r="C1" t="s">
-        <v>680</v>
+        <v>929</v>
       </c>
       <c r="D1" t="s">
-        <v>681</v>
+        <v>930</v>
       </c>
       <c r="E1" t="s">
-        <v>682</v>
+        <v>931</v>
       </c>
       <c r="F1" t="s">
-        <v>683</v>
+        <v>932</v>
       </c>
     </row>
     <row r="2">
@@ -2955,7 +3702,7 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>671</v>
+        <v>920</v>
       </c>
       <c r="C2">
         <v>6290383</v>
@@ -2973,7 +3720,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>672</v>
+        <v>921</v>
       </c>
       <c r="C3">
         <v>6290383</v>
@@ -2991,7 +3738,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>673</v>
+        <v>922</v>
       </c>
       <c r="C4">
         <v>6290383</v>
@@ -3009,7 +3756,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>674</v>
+        <v>923</v>
       </c>
       <c r="C5">
         <v>6290383</v>
@@ -3027,7 +3774,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>675</v>
+        <v>924</v>
       </c>
       <c r="C6">
         <v>6290383</v>
@@ -3045,7 +3792,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>676</v>
+        <v>925</v>
       </c>
       <c r="C7">
         <v>6290383</v>
@@ -3063,7 +3810,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>677</v>
+        <v>926</v>
       </c>
       <c r="C8">
         <v>6290383</v>
@@ -3081,7 +3828,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>678</v>
+        <v>927</v>
       </c>
       <c r="C9">
         <v>6290383</v>
@@ -3099,7 +3846,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>679</v>
+        <v>928</v>
       </c>
       <c r="C10">
         <v>6290383</v>
@@ -3125,22 +3872,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>684</v>
+        <v>933</v>
       </c>
       <c r="B1" t="s">
-        <v>685</v>
+        <v>934</v>
       </c>
       <c r="C1" t="s">
-        <v>695</v>
+        <v>944</v>
       </c>
       <c r="D1" t="s">
-        <v>696</v>
+        <v>945</v>
       </c>
       <c r="E1" t="s">
-        <v>697</v>
+        <v>946</v>
       </c>
       <c r="F1" t="s">
-        <v>698</v>
+        <v>947</v>
       </c>
     </row>
     <row r="2">
@@ -3148,7 +3895,7 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>686</v>
+        <v>935</v>
       </c>
       <c r="C2">
         <v>6401415</v>
@@ -3166,7 +3913,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>687</v>
+        <v>936</v>
       </c>
       <c r="C3">
         <v>6401415</v>
@@ -3184,7 +3931,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>688</v>
+        <v>937</v>
       </c>
       <c r="C4">
         <v>6401415</v>
@@ -3202,7 +3949,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>689</v>
+        <v>938</v>
       </c>
       <c r="C5">
         <v>6401415</v>
@@ -3220,7 +3967,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>690</v>
+        <v>939</v>
       </c>
       <c r="C6">
         <v>6401415</v>
@@ -3238,7 +3985,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>691</v>
+        <v>940</v>
       </c>
       <c r="C7">
         <v>6401415</v>
@@ -3256,7 +4003,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>692</v>
+        <v>941</v>
       </c>
       <c r="C8">
         <v>6401415</v>
@@ -3274,7 +4021,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>693</v>
+        <v>942</v>
       </c>
       <c r="C9">
         <v>6401415</v>
@@ -3292,7 +4039,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>694</v>
+        <v>943</v>
       </c>
       <c r="C10">
         <v>6401415</v>
@@ -3318,22 +4065,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>699</v>
+        <v>948</v>
       </c>
       <c r="B1" t="s">
-        <v>700</v>
+        <v>949</v>
       </c>
       <c r="C1" t="s">
-        <v>711</v>
+        <v>960</v>
       </c>
       <c r="D1" t="s">
-        <v>712</v>
+        <v>961</v>
       </c>
       <c r="E1" t="s">
-        <v>713</v>
+        <v>962</v>
       </c>
       <c r="F1" t="s">
-        <v>714</v>
+        <v>963</v>
       </c>
     </row>
     <row r="2">
@@ -3341,7 +4088,7 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>701</v>
+        <v>950</v>
       </c>
       <c r="C2">
         <v>6459911</v>
@@ -3359,7 +4106,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>702</v>
+        <v>951</v>
       </c>
       <c r="C3">
         <v>6459911</v>
@@ -3377,7 +4124,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>703</v>
+        <v>952</v>
       </c>
       <c r="C4">
         <v>6459911</v>
@@ -3395,7 +4142,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>704</v>
+        <v>953</v>
       </c>
       <c r="C5">
         <v>6459911</v>
@@ -3413,7 +4160,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>705</v>
+        <v>954</v>
       </c>
       <c r="C6">
         <v>6459911</v>
@@ -3431,7 +4178,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>706</v>
+        <v>955</v>
       </c>
       <c r="C7">
         <v>6459911</v>
@@ -3449,7 +4196,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>707</v>
+        <v>956</v>
       </c>
       <c r="C8">
         <v>6459911</v>
@@ -3467,7 +4214,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>708</v>
+        <v>957</v>
       </c>
       <c r="C9">
         <v>6459911</v>
@@ -3485,7 +4232,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>709</v>
+        <v>958</v>
       </c>
       <c r="C10">
         <v>6459911</v>
@@ -3503,7 +4250,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>710</v>
+        <v>959</v>
       </c>
       <c r="C11">
         <v>6459911</v>
@@ -3529,22 +4276,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>715</v>
+        <v>964</v>
       </c>
       <c r="B1" t="s">
-        <v>716</v>
+        <v>965</v>
       </c>
       <c r="C1" t="s">
-        <v>727</v>
+        <v>976</v>
       </c>
       <c r="D1" t="s">
-        <v>728</v>
+        <v>977</v>
       </c>
       <c r="E1" t="s">
-        <v>729</v>
+        <v>978</v>
       </c>
       <c r="F1" t="s">
-        <v>730</v>
+        <v>979</v>
       </c>
     </row>
     <row r="2">
@@ -3552,7 +4299,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>717</v>
+        <v>966</v>
       </c>
       <c r="C2">
         <v>6522419</v>
@@ -3570,7 +4317,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>718</v>
+        <v>967</v>
       </c>
       <c r="C3">
         <v>6522419</v>
@@ -3588,7 +4335,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>719</v>
+        <v>968</v>
       </c>
       <c r="C4">
         <v>6522419</v>
@@ -3606,7 +4353,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>720</v>
+        <v>969</v>
       </c>
       <c r="C5">
         <v>6522419</v>
@@ -3624,7 +4371,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>721</v>
+        <v>970</v>
       </c>
       <c r="C6">
         <v>6522419</v>
@@ -3642,7 +4389,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>722</v>
+        <v>971</v>
       </c>
       <c r="C7">
         <v>6522419</v>
@@ -3660,7 +4407,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>723</v>
+        <v>972</v>
       </c>
       <c r="C8">
         <v>6522419</v>
@@ -3678,7 +4425,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>724</v>
+        <v>973</v>
       </c>
       <c r="C9">
         <v>6522419</v>
@@ -3696,7 +4443,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>725</v>
+        <v>974</v>
       </c>
       <c r="C10">
         <v>6522419</v>
@@ -3714,7 +4461,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>726</v>
+        <v>975</v>
       </c>
       <c r="C11">
         <v>6522419</v>
@@ -3740,22 +4487,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>731</v>
+        <v>980</v>
       </c>
       <c r="B1" t="s">
-        <v>732</v>
+        <v>981</v>
       </c>
       <c r="C1" t="s">
-        <v>743</v>
+        <v>992</v>
       </c>
       <c r="D1" t="s">
-        <v>744</v>
+        <v>993</v>
       </c>
       <c r="E1" t="s">
-        <v>745</v>
+        <v>994</v>
       </c>
       <c r="F1" t="s">
-        <v>746</v>
+        <v>995</v>
       </c>
     </row>
     <row r="2">
@@ -3763,7 +4510,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>733</v>
+        <v>982</v>
       </c>
       <c r="C2">
         <v>6581860</v>
@@ -3781,7 +4528,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>734</v>
+        <v>983</v>
       </c>
       <c r="C3">
         <v>6581860</v>
@@ -3799,7 +4546,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>735</v>
+        <v>984</v>
       </c>
       <c r="C4">
         <v>6581860</v>
@@ -3817,7 +4564,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>736</v>
+        <v>985</v>
       </c>
       <c r="C5">
         <v>6581860</v>
@@ -3835,7 +4582,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>737</v>
+        <v>986</v>
       </c>
       <c r="C6">
         <v>6581860</v>
@@ -3853,7 +4600,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>738</v>
+        <v>987</v>
       </c>
       <c r="C7">
         <v>6581860</v>
@@ -3871,7 +4618,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>739</v>
+        <v>988</v>
       </c>
       <c r="C8">
         <v>6581860</v>
@@ -3889,7 +4636,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>740</v>
+        <v>989</v>
       </c>
       <c r="C9">
         <v>6581860</v>
@@ -3907,7 +4654,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>741</v>
+        <v>990</v>
       </c>
       <c r="C10">
         <v>6581860</v>
@@ -3925,7 +4672,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>742</v>
+        <v>991</v>
       </c>
       <c r="C11">
         <v>6581860</v>
@@ -3951,22 +4698,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>514</v>
+        <v>763</v>
       </c>
       <c r="B1" t="s">
-        <v>515</v>
+        <v>764</v>
       </c>
       <c r="C1" t="s">
-        <v>526</v>
+        <v>775</v>
       </c>
       <c r="D1" t="s">
-        <v>527</v>
+        <v>776</v>
       </c>
       <c r="E1" t="s">
-        <v>528</v>
+        <v>777</v>
       </c>
       <c r="F1" t="s">
-        <v>529</v>
+        <v>778</v>
       </c>
     </row>
     <row r="2">
@@ -3974,7 +4721,7 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>516</v>
+        <v>765</v>
       </c>
       <c r="C2">
         <v>6428672</v>
@@ -3992,7 +4739,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>517</v>
+        <v>766</v>
       </c>
       <c r="C3">
         <v>6428672</v>
@@ -4010,7 +4757,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>518</v>
+        <v>767</v>
       </c>
       <c r="C4">
         <v>6428672</v>
@@ -4028,7 +4775,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>519</v>
+        <v>768</v>
       </c>
       <c r="C5">
         <v>6428672</v>
@@ -4046,7 +4793,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>520</v>
+        <v>769</v>
       </c>
       <c r="C6">
         <v>6428672</v>
@@ -4064,7 +4811,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>521</v>
+        <v>770</v>
       </c>
       <c r="C7">
         <v>6428672</v>
@@ -4082,7 +4829,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>522</v>
+        <v>771</v>
       </c>
       <c r="C8">
         <v>6428672</v>
@@ -4100,7 +4847,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>523</v>
+        <v>772</v>
       </c>
       <c r="C9">
         <v>6428672</v>
@@ -4118,7 +4865,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>524</v>
+        <v>773</v>
       </c>
       <c r="C10">
         <v>6428672</v>
@@ -4136,7 +4883,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>525</v>
+        <v>774</v>
       </c>
       <c r="C11">
         <v>6428672</v>
@@ -4162,22 +4909,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>530</v>
+        <v>779</v>
       </c>
       <c r="B1" t="s">
-        <v>531</v>
+        <v>780</v>
       </c>
       <c r="C1" t="s">
-        <v>541</v>
+        <v>790</v>
       </c>
       <c r="D1" t="s">
-        <v>542</v>
+        <v>791</v>
       </c>
       <c r="E1" t="s">
-        <v>543</v>
+        <v>792</v>
       </c>
       <c r="F1" t="s">
-        <v>544</v>
+        <v>793</v>
       </c>
     </row>
     <row r="2">
@@ -4185,7 +4932,7 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>532</v>
+        <v>781</v>
       </c>
       <c r="C2">
         <v>6510348</v>
@@ -4203,7 +4950,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>533</v>
+        <v>782</v>
       </c>
       <c r="C3">
         <v>6510348</v>
@@ -4221,7 +4968,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>534</v>
+        <v>783</v>
       </c>
       <c r="C4">
         <v>6510348</v>
@@ -4239,7 +4986,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>535</v>
+        <v>784</v>
       </c>
       <c r="C5">
         <v>6510348</v>
@@ -4257,7 +5004,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>536</v>
+        <v>785</v>
       </c>
       <c r="C6">
         <v>6510348</v>
@@ -4275,7 +5022,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>537</v>
+        <v>786</v>
       </c>
       <c r="C7">
         <v>6510348</v>
@@ -4293,7 +5040,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>538</v>
+        <v>787</v>
       </c>
       <c r="C8">
         <v>6510348</v>
@@ -4311,7 +5058,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>539</v>
+        <v>788</v>
       </c>
       <c r="C9">
         <v>6510348</v>
@@ -4329,7 +5076,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>540</v>
+        <v>789</v>
       </c>
       <c r="C10">
         <v>6510348</v>
@@ -4355,22 +5102,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>545</v>
+        <v>794</v>
       </c>
       <c r="B1" t="s">
-        <v>546</v>
+        <v>795</v>
       </c>
       <c r="C1" t="s">
-        <v>556</v>
+        <v>805</v>
       </c>
       <c r="D1" t="s">
-        <v>557</v>
+        <v>806</v>
       </c>
       <c r="E1" t="s">
-        <v>558</v>
+        <v>807</v>
       </c>
       <c r="F1" t="s">
-        <v>559</v>
+        <v>808</v>
       </c>
     </row>
     <row r="2">
@@ -4378,7 +5125,7 @@
         <v>2003</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
+        <v>796</v>
       </c>
       <c r="C2">
         <v>6639010</v>
@@ -4396,7 +5143,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>548</v>
+        <v>797</v>
       </c>
       <c r="C3">
         <v>6639010</v>
@@ -4414,7 +5161,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>549</v>
+        <v>798</v>
       </c>
       <c r="C4">
         <v>6639010</v>
@@ -4432,7 +5179,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>550</v>
+        <v>799</v>
       </c>
       <c r="C5">
         <v>6639010</v>
@@ -4450,7 +5197,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>551</v>
+        <v>800</v>
       </c>
       <c r="C6">
         <v>6639010</v>
@@ -4468,7 +5215,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>552</v>
+        <v>801</v>
       </c>
       <c r="C7">
         <v>6639010</v>
@@ -4486,7 +5233,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>553</v>
+        <v>802</v>
       </c>
       <c r="C8">
         <v>6639010</v>
@@ -4504,7 +5251,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>554</v>
+        <v>803</v>
       </c>
       <c r="C9">
         <v>6639010</v>
@@ -4522,7 +5269,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>555</v>
+        <v>804</v>
       </c>
       <c r="C10">
         <v>6639010</v>
@@ -4548,22 +5295,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>560</v>
+        <v>809</v>
       </c>
       <c r="B1" t="s">
-        <v>561</v>
+        <v>810</v>
       </c>
       <c r="C1" t="s">
-        <v>571</v>
+        <v>820</v>
       </c>
       <c r="D1" t="s">
-        <v>572</v>
+        <v>821</v>
       </c>
       <c r="E1" t="s">
-        <v>573</v>
+        <v>822</v>
       </c>
       <c r="F1" t="s">
-        <v>574</v>
+        <v>823</v>
       </c>
     </row>
     <row r="2">
@@ -4571,7 +5318,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="s">
-        <v>562</v>
+        <v>811</v>
       </c>
       <c r="C2">
         <v>6756786</v>
@@ -4589,7 +5336,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>563</v>
+        <v>812</v>
       </c>
       <c r="C3">
         <v>6756786</v>
@@ -4607,7 +5354,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>564</v>
+        <v>813</v>
       </c>
       <c r="C4">
         <v>6756786</v>
@@ -4625,7 +5372,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>565</v>
+        <v>814</v>
       </c>
       <c r="C5">
         <v>6756786</v>
@@ -4643,7 +5390,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>566</v>
+        <v>815</v>
       </c>
       <c r="C6">
         <v>6756786</v>
@@ -4661,7 +5408,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>567</v>
+        <v>816</v>
       </c>
       <c r="C7">
         <v>6756786</v>
@@ -4679,7 +5426,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>568</v>
+        <v>817</v>
       </c>
       <c r="C8">
         <v>6756786</v>
@@ -4697,7 +5444,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>569</v>
+        <v>818</v>
       </c>
       <c r="C9">
         <v>6756786</v>
@@ -4715,7 +5462,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>570</v>
+        <v>819</v>
       </c>
       <c r="C10">
         <v>6756786</v>
@@ -4741,22 +5488,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>575</v>
+        <v>824</v>
       </c>
       <c r="B1" t="s">
-        <v>576</v>
+        <v>825</v>
       </c>
       <c r="C1" t="s">
-        <v>587</v>
+        <v>836</v>
       </c>
       <c r="D1" t="s">
-        <v>588</v>
+        <v>837</v>
       </c>
       <c r="E1" t="s">
-        <v>589</v>
+        <v>838</v>
       </c>
       <c r="F1" t="s">
-        <v>590</v>
+        <v>839</v>
       </c>
     </row>
     <row r="2">
@@ -4764,7 +5511,7 @@
         <v>2005</v>
       </c>
       <c r="B2" t="s">
-        <v>577</v>
+        <v>826</v>
       </c>
       <c r="C2">
         <v>6864080</v>
@@ -4782,7 +5529,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>578</v>
+        <v>827</v>
       </c>
       <c r="C3">
         <v>6864080</v>
@@ -4800,7 +5547,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>579</v>
+        <v>828</v>
       </c>
       <c r="C4">
         <v>6864080</v>
@@ -4818,7 +5565,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>580</v>
+        <v>829</v>
       </c>
       <c r="C5">
         <v>6864080</v>
@@ -4836,7 +5583,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>581</v>
+        <v>830</v>
       </c>
       <c r="C6">
         <v>6864080</v>
@@ -4854,7 +5601,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>582</v>
+        <v>831</v>
       </c>
       <c r="C7">
         <v>6864080</v>
@@ -4872,7 +5619,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>583</v>
+        <v>832</v>
       </c>
       <c r="C8">
         <v>6864080</v>
@@ -4890,7 +5637,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>584</v>
+        <v>833</v>
       </c>
       <c r="C9">
         <v>6864080</v>
@@ -4908,7 +5655,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>585</v>
+        <v>834</v>
       </c>
       <c r="C10">
         <v>6864080</v>
@@ -4926,7 +5673,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>586</v>
+        <v>835</v>
       </c>
       <c r="C11">
         <v>6864080</v>
@@ -4952,22 +5699,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>591</v>
+        <v>840</v>
       </c>
       <c r="B1" t="s">
-        <v>592</v>
+        <v>841</v>
       </c>
       <c r="C1" t="s">
-        <v>603</v>
+        <v>852</v>
       </c>
       <c r="D1" t="s">
-        <v>604</v>
+        <v>853</v>
       </c>
       <c r="E1" t="s">
-        <v>605</v>
+        <v>854</v>
       </c>
       <c r="F1" t="s">
-        <v>606</v>
+        <v>855</v>
       </c>
     </row>
     <row r="2">
@@ -4975,7 +5722,7 @@
         <v>2006</v>
       </c>
       <c r="B2" t="s">
-        <v>593</v>
+        <v>842</v>
       </c>
       <c r="C2">
         <v>6980279</v>
@@ -4993,7 +5740,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>594</v>
+        <v>843</v>
       </c>
       <c r="C3">
         <v>6980279</v>
@@ -5011,7 +5758,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>595</v>
+        <v>844</v>
       </c>
       <c r="C4">
         <v>6980279</v>
@@ -5029,7 +5776,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>596</v>
+        <v>845</v>
       </c>
       <c r="C5">
         <v>6980279</v>
@@ -5047,7 +5794,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>597</v>
+        <v>846</v>
       </c>
       <c r="C6">
         <v>6980279</v>
@@ -5065,7 +5812,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>598</v>
+        <v>847</v>
       </c>
       <c r="C7">
         <v>6980279</v>
@@ -5083,7 +5830,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>599</v>
+        <v>848</v>
       </c>
       <c r="C8">
         <v>6980279</v>
@@ -5101,7 +5848,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>600</v>
+        <v>849</v>
       </c>
       <c r="C9">
         <v>6980279</v>
@@ -5119,7 +5866,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>601</v>
+        <v>850</v>
       </c>
       <c r="C10">
         <v>6980279</v>
@@ -5137,7 +5884,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>602</v>
+        <v>851</v>
       </c>
       <c r="C11">
         <v>6980279</v>
@@ -5163,22 +5910,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>607</v>
+        <v>856</v>
       </c>
       <c r="B1" t="s">
-        <v>608</v>
+        <v>857</v>
       </c>
       <c r="C1" t="s">
-        <v>619</v>
+        <v>868</v>
       </c>
       <c r="D1" t="s">
-        <v>620</v>
+        <v>869</v>
       </c>
       <c r="E1" t="s">
-        <v>621</v>
+        <v>870</v>
       </c>
       <c r="F1" t="s">
-        <v>622</v>
+        <v>871</v>
       </c>
     </row>
     <row r="2">
@@ -5186,7 +5933,7 @@
         <v>2007</v>
       </c>
       <c r="B2" t="s">
-        <v>609</v>
+        <v>858</v>
       </c>
       <c r="C2">
         <v>5744575</v>
@@ -5204,7 +5951,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>610</v>
+        <v>859</v>
       </c>
       <c r="C3">
         <v>5744575</v>
@@ -5222,7 +5969,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>611</v>
+        <v>860</v>
       </c>
       <c r="C4">
         <v>5744575</v>
@@ -5240,7 +5987,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>612</v>
+        <v>861</v>
       </c>
       <c r="C5">
         <v>5744575</v>
@@ -5258,7 +6005,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>613</v>
+        <v>862</v>
       </c>
       <c r="C6">
         <v>5744575</v>
@@ -5276,7 +6023,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>614</v>
+        <v>863</v>
       </c>
       <c r="C7">
         <v>5744575</v>
@@ -5294,7 +6041,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>615</v>
+        <v>864</v>
       </c>
       <c r="C8">
         <v>5744575</v>
@@ -5312,7 +6059,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>616</v>
+        <v>865</v>
       </c>
       <c r="C9">
         <v>5744575</v>
@@ -5330,7 +6077,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>617</v>
+        <v>866</v>
       </c>
       <c r="C10">
         <v>5744575</v>
@@ -5348,7 +6095,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>618</v>
+        <v>867</v>
       </c>
       <c r="C11">
         <v>5744575</v>
@@ -5374,22 +6121,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>623</v>
+        <v>872</v>
       </c>
       <c r="B1" t="s">
-        <v>624</v>
+        <v>873</v>
       </c>
       <c r="C1" t="s">
-        <v>634</v>
+        <v>883</v>
       </c>
       <c r="D1" t="s">
-        <v>635</v>
+        <v>884</v>
       </c>
       <c r="E1" t="s">
-        <v>636</v>
+        <v>885</v>
       </c>
       <c r="F1" t="s">
-        <v>637</v>
+        <v>886</v>
       </c>
     </row>
     <row r="2">
@@ -5397,7 +6144,7 @@
         <v>2009</v>
       </c>
       <c r="B2" t="s">
-        <v>625</v>
+        <v>874</v>
       </c>
       <c r="C2">
         <v>6150953</v>
@@ -5415,7 +6162,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>626</v>
+        <v>875</v>
       </c>
       <c r="C3">
         <v>6150953</v>
@@ -5433,7 +6180,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>627</v>
+        <v>876</v>
       </c>
       <c r="C4">
         <v>6150953</v>
@@ -5451,7 +6198,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>628</v>
+        <v>877</v>
       </c>
       <c r="C5">
         <v>6150953</v>
@@ -5469,7 +6216,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>629</v>
+        <v>878</v>
       </c>
       <c r="C6">
         <v>6150953</v>
@@ -5487,7 +6234,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>630</v>
+        <v>879</v>
       </c>
       <c r="C7">
         <v>6150953</v>
@@ -5505,7 +6252,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>631</v>
+        <v>880</v>
       </c>
       <c r="C8">
         <v>6150953</v>
@@ -5523,7 +6270,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>632</v>
+        <v>881</v>
       </c>
       <c r="C9">
         <v>6150953</v>
@@ -5541,7 +6288,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>633</v>
+        <v>882</v>
       </c>
       <c r="C10">
         <v>6150953</v>

--- a/input_data/admin_data/SLV/_clean/wages-SLV.xlsx
+++ b/input_data/admin_data/SLV/_clean/wages-SLV.xlsx
@@ -28,7 +28,1501 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="1494">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -3064,22 +4558,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>747</v>
+        <v>1245</v>
       </c>
       <c r="B1" t="s">
-        <v>748</v>
+        <v>1246</v>
       </c>
       <c r="C1" t="s">
-        <v>759</v>
+        <v>1257</v>
       </c>
       <c r="D1" t="s">
-        <v>760</v>
+        <v>1258</v>
       </c>
       <c r="E1" t="s">
-        <v>761</v>
+        <v>1259</v>
       </c>
       <c r="F1" t="s">
-        <v>762</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="2">
@@ -3087,7 +4581,7 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>749</v>
+        <v>1247</v>
       </c>
       <c r="C2">
         <v>6272353</v>
@@ -3105,7 +4599,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>750</v>
+        <v>1248</v>
       </c>
       <c r="C3">
         <v>6272353</v>
@@ -3123,7 +4617,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>751</v>
+        <v>1249</v>
       </c>
       <c r="C4">
         <v>6272353</v>
@@ -3141,7 +4635,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>752</v>
+        <v>1250</v>
       </c>
       <c r="C5">
         <v>6272353</v>
@@ -3159,7 +4653,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>753</v>
+        <v>1251</v>
       </c>
       <c r="C6">
         <v>6272353</v>
@@ -3177,7 +4671,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>754</v>
+        <v>1252</v>
       </c>
       <c r="C7">
         <v>6272353</v>
@@ -3195,7 +4689,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>755</v>
+        <v>1253</v>
       </c>
       <c r="C8">
         <v>6272353</v>
@@ -3213,7 +4707,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>756</v>
+        <v>1254</v>
       </c>
       <c r="C9">
         <v>6272353</v>
@@ -3231,7 +4725,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>757</v>
+        <v>1255</v>
       </c>
       <c r="C10">
         <v>6272353</v>
@@ -3249,7 +4743,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>758</v>
+        <v>1256</v>
       </c>
       <c r="C11">
         <v>6272353</v>
@@ -3275,22 +4769,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>887</v>
+        <v>1385</v>
       </c>
       <c r="B1" t="s">
-        <v>888</v>
+        <v>1386</v>
       </c>
       <c r="C1" t="s">
-        <v>899</v>
+        <v>1397</v>
       </c>
       <c r="D1" t="s">
-        <v>900</v>
+        <v>1398</v>
       </c>
       <c r="E1" t="s">
-        <v>901</v>
+        <v>1399</v>
       </c>
       <c r="F1" t="s">
-        <v>902</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="2">
@@ -3298,7 +4792,7 @@
         <v>2010</v>
       </c>
       <c r="B2" t="s">
-        <v>889</v>
+        <v>1387</v>
       </c>
       <c r="C2">
         <v>6181405</v>
@@ -3316,7 +4810,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>890</v>
+        <v>1388</v>
       </c>
       <c r="C3">
         <v>6181405</v>
@@ -3334,7 +4828,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>891</v>
+        <v>1389</v>
       </c>
       <c r="C4">
         <v>6181405</v>
@@ -3352,7 +4846,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>892</v>
+        <v>1390</v>
       </c>
       <c r="C5">
         <v>6181405</v>
@@ -3370,7 +4864,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>893</v>
+        <v>1391</v>
       </c>
       <c r="C6">
         <v>6181405</v>
@@ -3388,7 +4882,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>894</v>
+        <v>1392</v>
       </c>
       <c r="C7">
         <v>6181405</v>
@@ -3406,7 +4900,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>895</v>
+        <v>1393</v>
       </c>
       <c r="C8">
         <v>6181405</v>
@@ -3424,7 +4918,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>896</v>
+        <v>1394</v>
       </c>
       <c r="C9">
         <v>6181405</v>
@@ -3442,7 +4936,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>897</v>
+        <v>1395</v>
       </c>
       <c r="C10">
         <v>6181405</v>
@@ -3460,7 +4954,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>898</v>
+        <v>1396</v>
       </c>
       <c r="C11">
         <v>6181405</v>
@@ -3486,22 +4980,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>903</v>
+        <v>1401</v>
       </c>
       <c r="B1" t="s">
-        <v>904</v>
+        <v>1402</v>
       </c>
       <c r="C1" t="s">
-        <v>914</v>
+        <v>1412</v>
       </c>
       <c r="D1" t="s">
-        <v>915</v>
+        <v>1413</v>
       </c>
       <c r="E1" t="s">
-        <v>916</v>
+        <v>1414</v>
       </c>
       <c r="F1" t="s">
-        <v>917</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="2">
@@ -3509,7 +5003,7 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>905</v>
+        <v>1403</v>
       </c>
       <c r="C2">
         <v>6249262</v>
@@ -3527,7 +5021,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>906</v>
+        <v>1404</v>
       </c>
       <c r="C3">
         <v>6249262</v>
@@ -3545,7 +5039,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>907</v>
+        <v>1405</v>
       </c>
       <c r="C4">
         <v>6249262</v>
@@ -3563,7 +5057,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>908</v>
+        <v>1406</v>
       </c>
       <c r="C5">
         <v>6249262</v>
@@ -3581,7 +5075,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>909</v>
+        <v>1407</v>
       </c>
       <c r="C6">
         <v>6249262</v>
@@ -3599,7 +5093,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>910</v>
+        <v>1408</v>
       </c>
       <c r="C7">
         <v>6249262</v>
@@ -3617,7 +5111,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>911</v>
+        <v>1409</v>
       </c>
       <c r="C8">
         <v>6249262</v>
@@ -3635,7 +5129,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>912</v>
+        <v>1410</v>
       </c>
       <c r="C9">
         <v>6249262</v>
@@ -3653,7 +5147,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>913</v>
+        <v>1411</v>
       </c>
       <c r="C10">
         <v>6249262</v>
@@ -3679,22 +5173,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>918</v>
+        <v>1416</v>
       </c>
       <c r="B1" t="s">
-        <v>919</v>
+        <v>1417</v>
       </c>
       <c r="C1" t="s">
-        <v>929</v>
+        <v>1427</v>
       </c>
       <c r="D1" t="s">
-        <v>930</v>
+        <v>1428</v>
       </c>
       <c r="E1" t="s">
-        <v>931</v>
+        <v>1429</v>
       </c>
       <c r="F1" t="s">
-        <v>932</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="2">
@@ -3702,7 +5196,7 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>920</v>
+        <v>1418</v>
       </c>
       <c r="C2">
         <v>6290383</v>
@@ -3720,7 +5214,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>921</v>
+        <v>1419</v>
       </c>
       <c r="C3">
         <v>6290383</v>
@@ -3738,7 +5232,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>922</v>
+        <v>1420</v>
       </c>
       <c r="C4">
         <v>6290383</v>
@@ -3756,7 +5250,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>923</v>
+        <v>1421</v>
       </c>
       <c r="C5">
         <v>6290383</v>
@@ -3774,7 +5268,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>924</v>
+        <v>1422</v>
       </c>
       <c r="C6">
         <v>6290383</v>
@@ -3792,7 +5286,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>925</v>
+        <v>1423</v>
       </c>
       <c r="C7">
         <v>6290383</v>
@@ -3810,7 +5304,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>926</v>
+        <v>1424</v>
       </c>
       <c r="C8">
         <v>6290383</v>
@@ -3828,7 +5322,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>927</v>
+        <v>1425</v>
       </c>
       <c r="C9">
         <v>6290383</v>
@@ -3846,7 +5340,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>928</v>
+        <v>1426</v>
       </c>
       <c r="C10">
         <v>6290383</v>
@@ -3872,22 +5366,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>933</v>
+        <v>1431</v>
       </c>
       <c r="B1" t="s">
-        <v>934</v>
+        <v>1432</v>
       </c>
       <c r="C1" t="s">
-        <v>944</v>
+        <v>1442</v>
       </c>
       <c r="D1" t="s">
-        <v>945</v>
+        <v>1443</v>
       </c>
       <c r="E1" t="s">
-        <v>946</v>
+        <v>1444</v>
       </c>
       <c r="F1" t="s">
-        <v>947</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="2">
@@ -3895,7 +5389,7 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>935</v>
+        <v>1433</v>
       </c>
       <c r="C2">
         <v>6401415</v>
@@ -3913,7 +5407,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>936</v>
+        <v>1434</v>
       </c>
       <c r="C3">
         <v>6401415</v>
@@ -3931,7 +5425,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>937</v>
+        <v>1435</v>
       </c>
       <c r="C4">
         <v>6401415</v>
@@ -3949,7 +5443,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>938</v>
+        <v>1436</v>
       </c>
       <c r="C5">
         <v>6401415</v>
@@ -3967,7 +5461,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>939</v>
+        <v>1437</v>
       </c>
       <c r="C6">
         <v>6401415</v>
@@ -3985,7 +5479,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>940</v>
+        <v>1438</v>
       </c>
       <c r="C7">
         <v>6401415</v>
@@ -4003,7 +5497,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>941</v>
+        <v>1439</v>
       </c>
       <c r="C8">
         <v>6401415</v>
@@ -4021,7 +5515,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>942</v>
+        <v>1440</v>
       </c>
       <c r="C9">
         <v>6401415</v>
@@ -4039,7 +5533,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>943</v>
+        <v>1441</v>
       </c>
       <c r="C10">
         <v>6401415</v>
@@ -4065,22 +5559,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>948</v>
+        <v>1446</v>
       </c>
       <c r="B1" t="s">
-        <v>949</v>
+        <v>1447</v>
       </c>
       <c r="C1" t="s">
-        <v>960</v>
+        <v>1458</v>
       </c>
       <c r="D1" t="s">
-        <v>961</v>
+        <v>1459</v>
       </c>
       <c r="E1" t="s">
-        <v>962</v>
+        <v>1460</v>
       </c>
       <c r="F1" t="s">
-        <v>963</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="2">
@@ -4088,7 +5582,7 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>950</v>
+        <v>1448</v>
       </c>
       <c r="C2">
         <v>6459911</v>
@@ -4106,7 +5600,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>951</v>
+        <v>1449</v>
       </c>
       <c r="C3">
         <v>6459911</v>
@@ -4124,7 +5618,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>952</v>
+        <v>1450</v>
       </c>
       <c r="C4">
         <v>6459911</v>
@@ -4142,7 +5636,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>953</v>
+        <v>1451</v>
       </c>
       <c r="C5">
         <v>6459911</v>
@@ -4160,7 +5654,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>954</v>
+        <v>1452</v>
       </c>
       <c r="C6">
         <v>6459911</v>
@@ -4178,7 +5672,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>955</v>
+        <v>1453</v>
       </c>
       <c r="C7">
         <v>6459911</v>
@@ -4196,7 +5690,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>956</v>
+        <v>1454</v>
       </c>
       <c r="C8">
         <v>6459911</v>
@@ -4214,7 +5708,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>957</v>
+        <v>1455</v>
       </c>
       <c r="C9">
         <v>6459911</v>
@@ -4232,7 +5726,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>958</v>
+        <v>1456</v>
       </c>
       <c r="C10">
         <v>6459911</v>
@@ -4250,7 +5744,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>959</v>
+        <v>1457</v>
       </c>
       <c r="C11">
         <v>6459911</v>
@@ -4276,22 +5770,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>964</v>
+        <v>1462</v>
       </c>
       <c r="B1" t="s">
-        <v>965</v>
+        <v>1463</v>
       </c>
       <c r="C1" t="s">
-        <v>976</v>
+        <v>1474</v>
       </c>
       <c r="D1" t="s">
-        <v>977</v>
+        <v>1475</v>
       </c>
       <c r="E1" t="s">
-        <v>978</v>
+        <v>1476</v>
       </c>
       <c r="F1" t="s">
-        <v>979</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="2">
@@ -4299,7 +5793,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>966</v>
+        <v>1464</v>
       </c>
       <c r="C2">
         <v>6522419</v>
@@ -4317,7 +5811,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>967</v>
+        <v>1465</v>
       </c>
       <c r="C3">
         <v>6522419</v>
@@ -4335,7 +5829,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>968</v>
+        <v>1466</v>
       </c>
       <c r="C4">
         <v>6522419</v>
@@ -4353,7 +5847,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>969</v>
+        <v>1467</v>
       </c>
       <c r="C5">
         <v>6522419</v>
@@ -4371,7 +5865,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>970</v>
+        <v>1468</v>
       </c>
       <c r="C6">
         <v>6522419</v>
@@ -4389,7 +5883,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>971</v>
+        <v>1469</v>
       </c>
       <c r="C7">
         <v>6522419</v>
@@ -4407,7 +5901,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>972</v>
+        <v>1470</v>
       </c>
       <c r="C8">
         <v>6522419</v>
@@ -4425,7 +5919,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>973</v>
+        <v>1471</v>
       </c>
       <c r="C9">
         <v>6522419</v>
@@ -4443,7 +5937,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>974</v>
+        <v>1472</v>
       </c>
       <c r="C10">
         <v>6522419</v>
@@ -4461,7 +5955,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>975</v>
+        <v>1473</v>
       </c>
       <c r="C11">
         <v>6522419</v>
@@ -4487,22 +5981,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>980</v>
+        <v>1478</v>
       </c>
       <c r="B1" t="s">
-        <v>981</v>
+        <v>1479</v>
       </c>
       <c r="C1" t="s">
-        <v>992</v>
+        <v>1490</v>
       </c>
       <c r="D1" t="s">
-        <v>993</v>
+        <v>1491</v>
       </c>
       <c r="E1" t="s">
-        <v>994</v>
+        <v>1492</v>
       </c>
       <c r="F1" t="s">
-        <v>995</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="2">
@@ -4510,7 +6004,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>982</v>
+        <v>1480</v>
       </c>
       <c r="C2">
         <v>6581860</v>
@@ -4528,7 +6022,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>983</v>
+        <v>1481</v>
       </c>
       <c r="C3">
         <v>6581860</v>
@@ -4546,7 +6040,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>984</v>
+        <v>1482</v>
       </c>
       <c r="C4">
         <v>6581860</v>
@@ -4564,7 +6058,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>985</v>
+        <v>1483</v>
       </c>
       <c r="C5">
         <v>6581860</v>
@@ -4582,7 +6076,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>986</v>
+        <v>1484</v>
       </c>
       <c r="C6">
         <v>6581860</v>
@@ -4600,7 +6094,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>987</v>
+        <v>1485</v>
       </c>
       <c r="C7">
         <v>6581860</v>
@@ -4618,7 +6112,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>988</v>
+        <v>1486</v>
       </c>
       <c r="C8">
         <v>6581860</v>
@@ -4636,7 +6130,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>989</v>
+        <v>1487</v>
       </c>
       <c r="C9">
         <v>6581860</v>
@@ -4654,7 +6148,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>990</v>
+        <v>1488</v>
       </c>
       <c r="C10">
         <v>6581860</v>
@@ -4672,7 +6166,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>991</v>
+        <v>1489</v>
       </c>
       <c r="C11">
         <v>6581860</v>
@@ -4698,22 +6192,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>763</v>
+        <v>1261</v>
       </c>
       <c r="B1" t="s">
-        <v>764</v>
+        <v>1262</v>
       </c>
       <c r="C1" t="s">
-        <v>775</v>
+        <v>1273</v>
       </c>
       <c r="D1" t="s">
-        <v>776</v>
+        <v>1274</v>
       </c>
       <c r="E1" t="s">
-        <v>777</v>
+        <v>1275</v>
       </c>
       <c r="F1" t="s">
-        <v>778</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="2">
@@ -4721,7 +6215,7 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>765</v>
+        <v>1263</v>
       </c>
       <c r="C2">
         <v>6428672</v>
@@ -4739,7 +6233,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>766</v>
+        <v>1264</v>
       </c>
       <c r="C3">
         <v>6428672</v>
@@ -4757,7 +6251,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>767</v>
+        <v>1265</v>
       </c>
       <c r="C4">
         <v>6428672</v>
@@ -4775,7 +6269,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>768</v>
+        <v>1266</v>
       </c>
       <c r="C5">
         <v>6428672</v>
@@ -4793,7 +6287,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>769</v>
+        <v>1267</v>
       </c>
       <c r="C6">
         <v>6428672</v>
@@ -4811,7 +6305,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>770</v>
+        <v>1268</v>
       </c>
       <c r="C7">
         <v>6428672</v>
@@ -4829,7 +6323,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>771</v>
+        <v>1269</v>
       </c>
       <c r="C8">
         <v>6428672</v>
@@ -4847,7 +6341,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>772</v>
+        <v>1270</v>
       </c>
       <c r="C9">
         <v>6428672</v>
@@ -4865,7 +6359,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>773</v>
+        <v>1271</v>
       </c>
       <c r="C10">
         <v>6428672</v>
@@ -4883,7 +6377,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>774</v>
+        <v>1272</v>
       </c>
       <c r="C11">
         <v>6428672</v>
@@ -4909,22 +6403,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>779</v>
+        <v>1277</v>
       </c>
       <c r="B1" t="s">
-        <v>780</v>
+        <v>1278</v>
       </c>
       <c r="C1" t="s">
-        <v>790</v>
+        <v>1288</v>
       </c>
       <c r="D1" t="s">
-        <v>791</v>
+        <v>1289</v>
       </c>
       <c r="E1" t="s">
-        <v>792</v>
+        <v>1290</v>
       </c>
       <c r="F1" t="s">
-        <v>793</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="2">
@@ -4932,7 +6426,7 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>781</v>
+        <v>1279</v>
       </c>
       <c r="C2">
         <v>6510348</v>
@@ -4950,7 +6444,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>782</v>
+        <v>1280</v>
       </c>
       <c r="C3">
         <v>6510348</v>
@@ -4968,7 +6462,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>783</v>
+        <v>1281</v>
       </c>
       <c r="C4">
         <v>6510348</v>
@@ -4986,7 +6480,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>784</v>
+        <v>1282</v>
       </c>
       <c r="C5">
         <v>6510348</v>
@@ -5004,7 +6498,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>785</v>
+        <v>1283</v>
       </c>
       <c r="C6">
         <v>6510348</v>
@@ -5022,7 +6516,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>786</v>
+        <v>1284</v>
       </c>
       <c r="C7">
         <v>6510348</v>
@@ -5040,7 +6534,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>787</v>
+        <v>1285</v>
       </c>
       <c r="C8">
         <v>6510348</v>
@@ -5058,7 +6552,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>788</v>
+        <v>1286</v>
       </c>
       <c r="C9">
         <v>6510348</v>
@@ -5076,7 +6570,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>789</v>
+        <v>1287</v>
       </c>
       <c r="C10">
         <v>6510348</v>
@@ -5102,22 +6596,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>794</v>
+        <v>1292</v>
       </c>
       <c r="B1" t="s">
-        <v>795</v>
+        <v>1293</v>
       </c>
       <c r="C1" t="s">
-        <v>805</v>
+        <v>1303</v>
       </c>
       <c r="D1" t="s">
-        <v>806</v>
+        <v>1304</v>
       </c>
       <c r="E1" t="s">
-        <v>807</v>
+        <v>1305</v>
       </c>
       <c r="F1" t="s">
-        <v>808</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="2">
@@ -5125,7 +6619,7 @@
         <v>2003</v>
       </c>
       <c r="B2" t="s">
-        <v>796</v>
+        <v>1294</v>
       </c>
       <c r="C2">
         <v>6639010</v>
@@ -5143,7 +6637,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>797</v>
+        <v>1295</v>
       </c>
       <c r="C3">
         <v>6639010</v>
@@ -5161,7 +6655,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>798</v>
+        <v>1296</v>
       </c>
       <c r="C4">
         <v>6639010</v>
@@ -5179,7 +6673,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>799</v>
+        <v>1297</v>
       </c>
       <c r="C5">
         <v>6639010</v>
@@ -5197,7 +6691,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>800</v>
+        <v>1298</v>
       </c>
       <c r="C6">
         <v>6639010</v>
@@ -5215,7 +6709,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>801</v>
+        <v>1299</v>
       </c>
       <c r="C7">
         <v>6639010</v>
@@ -5233,7 +6727,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>802</v>
+        <v>1300</v>
       </c>
       <c r="C8">
         <v>6639010</v>
@@ -5251,7 +6745,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>803</v>
+        <v>1301</v>
       </c>
       <c r="C9">
         <v>6639010</v>
@@ -5269,7 +6763,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>804</v>
+        <v>1302</v>
       </c>
       <c r="C10">
         <v>6639010</v>
@@ -5295,22 +6789,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>809</v>
+        <v>1307</v>
       </c>
       <c r="B1" t="s">
-        <v>810</v>
+        <v>1308</v>
       </c>
       <c r="C1" t="s">
-        <v>820</v>
+        <v>1318</v>
       </c>
       <c r="D1" t="s">
-        <v>821</v>
+        <v>1319</v>
       </c>
       <c r="E1" t="s">
-        <v>822</v>
+        <v>1320</v>
       </c>
       <c r="F1" t="s">
-        <v>823</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="2">
@@ -5318,7 +6812,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="s">
-        <v>811</v>
+        <v>1309</v>
       </c>
       <c r="C2">
         <v>6756786</v>
@@ -5336,7 +6830,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>812</v>
+        <v>1310</v>
       </c>
       <c r="C3">
         <v>6756786</v>
@@ -5354,7 +6848,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>813</v>
+        <v>1311</v>
       </c>
       <c r="C4">
         <v>6756786</v>
@@ -5372,7 +6866,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>814</v>
+        <v>1312</v>
       </c>
       <c r="C5">
         <v>6756786</v>
@@ -5390,7 +6884,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>815</v>
+        <v>1313</v>
       </c>
       <c r="C6">
         <v>6756786</v>
@@ -5408,7 +6902,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>816</v>
+        <v>1314</v>
       </c>
       <c r="C7">
         <v>6756786</v>
@@ -5426,7 +6920,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>817</v>
+        <v>1315</v>
       </c>
       <c r="C8">
         <v>6756786</v>
@@ -5444,7 +6938,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>818</v>
+        <v>1316</v>
       </c>
       <c r="C9">
         <v>6756786</v>
@@ -5462,7 +6956,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>819</v>
+        <v>1317</v>
       </c>
       <c r="C10">
         <v>6756786</v>
@@ -5488,22 +6982,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>824</v>
+        <v>1322</v>
       </c>
       <c r="B1" t="s">
-        <v>825</v>
+        <v>1323</v>
       </c>
       <c r="C1" t="s">
-        <v>836</v>
+        <v>1334</v>
       </c>
       <c r="D1" t="s">
-        <v>837</v>
+        <v>1335</v>
       </c>
       <c r="E1" t="s">
-        <v>838</v>
+        <v>1336</v>
       </c>
       <c r="F1" t="s">
-        <v>839</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="2">
@@ -5511,7 +7005,7 @@
         <v>2005</v>
       </c>
       <c r="B2" t="s">
-        <v>826</v>
+        <v>1324</v>
       </c>
       <c r="C2">
         <v>6864080</v>
@@ -5529,7 +7023,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>827</v>
+        <v>1325</v>
       </c>
       <c r="C3">
         <v>6864080</v>
@@ -5547,7 +7041,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>828</v>
+        <v>1326</v>
       </c>
       <c r="C4">
         <v>6864080</v>
@@ -5565,7 +7059,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>829</v>
+        <v>1327</v>
       </c>
       <c r="C5">
         <v>6864080</v>
@@ -5583,7 +7077,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>830</v>
+        <v>1328</v>
       </c>
       <c r="C6">
         <v>6864080</v>
@@ -5601,7 +7095,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>831</v>
+        <v>1329</v>
       </c>
       <c r="C7">
         <v>6864080</v>
@@ -5619,7 +7113,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>832</v>
+        <v>1330</v>
       </c>
       <c r="C8">
         <v>6864080</v>
@@ -5637,7 +7131,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>833</v>
+        <v>1331</v>
       </c>
       <c r="C9">
         <v>6864080</v>
@@ -5655,7 +7149,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>834</v>
+        <v>1332</v>
       </c>
       <c r="C10">
         <v>6864080</v>
@@ -5673,7 +7167,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>835</v>
+        <v>1333</v>
       </c>
       <c r="C11">
         <v>6864080</v>
@@ -5699,22 +7193,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>840</v>
+        <v>1338</v>
       </c>
       <c r="B1" t="s">
-        <v>841</v>
+        <v>1339</v>
       </c>
       <c r="C1" t="s">
-        <v>852</v>
+        <v>1350</v>
       </c>
       <c r="D1" t="s">
-        <v>853</v>
+        <v>1351</v>
       </c>
       <c r="E1" t="s">
-        <v>854</v>
+        <v>1352</v>
       </c>
       <c r="F1" t="s">
-        <v>855</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="2">
@@ -5722,7 +7216,7 @@
         <v>2006</v>
       </c>
       <c r="B2" t="s">
-        <v>842</v>
+        <v>1340</v>
       </c>
       <c r="C2">
         <v>6980279</v>
@@ -5740,7 +7234,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>843</v>
+        <v>1341</v>
       </c>
       <c r="C3">
         <v>6980279</v>
@@ -5758,7 +7252,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>844</v>
+        <v>1342</v>
       </c>
       <c r="C4">
         <v>6980279</v>
@@ -5776,7 +7270,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>845</v>
+        <v>1343</v>
       </c>
       <c r="C5">
         <v>6980279</v>
@@ -5794,7 +7288,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>846</v>
+        <v>1344</v>
       </c>
       <c r="C6">
         <v>6980279</v>
@@ -5812,7 +7306,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>847</v>
+        <v>1345</v>
       </c>
       <c r="C7">
         <v>6980279</v>
@@ -5830,7 +7324,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>848</v>
+        <v>1346</v>
       </c>
       <c r="C8">
         <v>6980279</v>
@@ -5848,7 +7342,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>849</v>
+        <v>1347</v>
       </c>
       <c r="C9">
         <v>6980279</v>
@@ -5866,7 +7360,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>850</v>
+        <v>1348</v>
       </c>
       <c r="C10">
         <v>6980279</v>
@@ -5884,7 +7378,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>851</v>
+        <v>1349</v>
       </c>
       <c r="C11">
         <v>6980279</v>
@@ -5910,22 +7404,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>856</v>
+        <v>1354</v>
       </c>
       <c r="B1" t="s">
-        <v>857</v>
+        <v>1355</v>
       </c>
       <c r="C1" t="s">
-        <v>868</v>
+        <v>1366</v>
       </c>
       <c r="D1" t="s">
-        <v>869</v>
+        <v>1367</v>
       </c>
       <c r="E1" t="s">
-        <v>870</v>
+        <v>1368</v>
       </c>
       <c r="F1" t="s">
-        <v>871</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="2">
@@ -5933,7 +7427,7 @@
         <v>2007</v>
       </c>
       <c r="B2" t="s">
-        <v>858</v>
+        <v>1356</v>
       </c>
       <c r="C2">
         <v>5744575</v>
@@ -5951,7 +7445,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>859</v>
+        <v>1357</v>
       </c>
       <c r="C3">
         <v>5744575</v>
@@ -5969,7 +7463,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>860</v>
+        <v>1358</v>
       </c>
       <c r="C4">
         <v>5744575</v>
@@ -5987,7 +7481,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>861</v>
+        <v>1359</v>
       </c>
       <c r="C5">
         <v>5744575</v>
@@ -6005,7 +7499,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>862</v>
+        <v>1360</v>
       </c>
       <c r="C6">
         <v>5744575</v>
@@ -6023,7 +7517,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>863</v>
+        <v>1361</v>
       </c>
       <c r="C7">
         <v>5744575</v>
@@ -6041,7 +7535,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>864</v>
+        <v>1362</v>
       </c>
       <c r="C8">
         <v>5744575</v>
@@ -6059,7 +7553,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>865</v>
+        <v>1363</v>
       </c>
       <c r="C9">
         <v>5744575</v>
@@ -6077,7 +7571,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>866</v>
+        <v>1364</v>
       </c>
       <c r="C10">
         <v>5744575</v>
@@ -6095,7 +7589,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>867</v>
+        <v>1365</v>
       </c>
       <c r="C11">
         <v>5744575</v>
@@ -6121,22 +7615,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>872</v>
+        <v>1370</v>
       </c>
       <c r="B1" t="s">
-        <v>873</v>
+        <v>1371</v>
       </c>
       <c r="C1" t="s">
-        <v>883</v>
+        <v>1381</v>
       </c>
       <c r="D1" t="s">
-        <v>884</v>
+        <v>1382</v>
       </c>
       <c r="E1" t="s">
-        <v>885</v>
+        <v>1383</v>
       </c>
       <c r="F1" t="s">
-        <v>886</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="2">
@@ -6144,7 +7638,7 @@
         <v>2009</v>
       </c>
       <c r="B2" t="s">
-        <v>874</v>
+        <v>1372</v>
       </c>
       <c r="C2">
         <v>6150953</v>
@@ -6162,7 +7656,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>875</v>
+        <v>1373</v>
       </c>
       <c r="C3">
         <v>6150953</v>
@@ -6180,7 +7674,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>876</v>
+        <v>1374</v>
       </c>
       <c r="C4">
         <v>6150953</v>
@@ -6198,7 +7692,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>877</v>
+        <v>1375</v>
       </c>
       <c r="C5">
         <v>6150953</v>
@@ -6216,7 +7710,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>878</v>
+        <v>1376</v>
       </c>
       <c r="C6">
         <v>6150953</v>
@@ -6234,7 +7728,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>879</v>
+        <v>1377</v>
       </c>
       <c r="C7">
         <v>6150953</v>
@@ -6252,7 +7746,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>880</v>
+        <v>1378</v>
       </c>
       <c r="C8">
         <v>6150953</v>
@@ -6270,7 +7764,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>881</v>
+        <v>1379</v>
       </c>
       <c r="C9">
         <v>6150953</v>
@@ -6288,7 +7782,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>882</v>
+        <v>1380</v>
       </c>
       <c r="C10">
         <v>6150953</v>

--- a/input_data/admin_data/SLV/_clean/wages-SLV.xlsx
+++ b/input_data/admin_data/SLV/_clean/wages-SLV.xlsx
@@ -28,7 +28,754 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="1494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="1743">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -4558,22 +5305,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1245</v>
+        <v>1494</v>
       </c>
       <c r="B1" t="s">
-        <v>1246</v>
+        <v>1495</v>
       </c>
       <c r="C1" t="s">
-        <v>1257</v>
+        <v>1506</v>
       </c>
       <c r="D1" t="s">
-        <v>1258</v>
+        <v>1507</v>
       </c>
       <c r="E1" t="s">
-        <v>1259</v>
+        <v>1508</v>
       </c>
       <c r="F1" t="s">
-        <v>1260</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="2">
@@ -4581,7 +5328,7 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>1247</v>
+        <v>1496</v>
       </c>
       <c r="C2">
         <v>6272353</v>
@@ -4599,7 +5346,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1248</v>
+        <v>1497</v>
       </c>
       <c r="C3">
         <v>6272353</v>
@@ -4617,7 +5364,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1249</v>
+        <v>1498</v>
       </c>
       <c r="C4">
         <v>6272353</v>
@@ -4635,7 +5382,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1250</v>
+        <v>1499</v>
       </c>
       <c r="C5">
         <v>6272353</v>
@@ -4653,7 +5400,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1251</v>
+        <v>1500</v>
       </c>
       <c r="C6">
         <v>6272353</v>
@@ -4671,7 +5418,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1252</v>
+        <v>1501</v>
       </c>
       <c r="C7">
         <v>6272353</v>
@@ -4689,7 +5436,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1253</v>
+        <v>1502</v>
       </c>
       <c r="C8">
         <v>6272353</v>
@@ -4707,7 +5454,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1254</v>
+        <v>1503</v>
       </c>
       <c r="C9">
         <v>6272353</v>
@@ -4725,7 +5472,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1255</v>
+        <v>1504</v>
       </c>
       <c r="C10">
         <v>6272353</v>
@@ -4743,7 +5490,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1256</v>
+        <v>1505</v>
       </c>
       <c r="C11">
         <v>6272353</v>
@@ -4769,22 +5516,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1385</v>
+        <v>1634</v>
       </c>
       <c r="B1" t="s">
-        <v>1386</v>
+        <v>1635</v>
       </c>
       <c r="C1" t="s">
-        <v>1397</v>
+        <v>1646</v>
       </c>
       <c r="D1" t="s">
-        <v>1398</v>
+        <v>1647</v>
       </c>
       <c r="E1" t="s">
-        <v>1399</v>
+        <v>1648</v>
       </c>
       <c r="F1" t="s">
-        <v>1400</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="2">
@@ -4792,7 +5539,7 @@
         <v>2010</v>
       </c>
       <c r="B2" t="s">
-        <v>1387</v>
+        <v>1636</v>
       </c>
       <c r="C2">
         <v>6181405</v>
@@ -4810,7 +5557,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1388</v>
+        <v>1637</v>
       </c>
       <c r="C3">
         <v>6181405</v>
@@ -4828,7 +5575,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1389</v>
+        <v>1638</v>
       </c>
       <c r="C4">
         <v>6181405</v>
@@ -4846,7 +5593,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1390</v>
+        <v>1639</v>
       </c>
       <c r="C5">
         <v>6181405</v>
@@ -4864,7 +5611,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1391</v>
+        <v>1640</v>
       </c>
       <c r="C6">
         <v>6181405</v>
@@ -4882,7 +5629,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1392</v>
+        <v>1641</v>
       </c>
       <c r="C7">
         <v>6181405</v>
@@ -4900,7 +5647,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1393</v>
+        <v>1642</v>
       </c>
       <c r="C8">
         <v>6181405</v>
@@ -4918,7 +5665,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1394</v>
+        <v>1643</v>
       </c>
       <c r="C9">
         <v>6181405</v>
@@ -4936,7 +5683,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1395</v>
+        <v>1644</v>
       </c>
       <c r="C10">
         <v>6181405</v>
@@ -4954,7 +5701,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1396</v>
+        <v>1645</v>
       </c>
       <c r="C11">
         <v>6181405</v>
@@ -4980,22 +5727,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1401</v>
+        <v>1650</v>
       </c>
       <c r="B1" t="s">
-        <v>1402</v>
+        <v>1651</v>
       </c>
       <c r="C1" t="s">
-        <v>1412</v>
+        <v>1661</v>
       </c>
       <c r="D1" t="s">
-        <v>1413</v>
+        <v>1662</v>
       </c>
       <c r="E1" t="s">
-        <v>1414</v>
+        <v>1663</v>
       </c>
       <c r="F1" t="s">
-        <v>1415</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="2">
@@ -5003,7 +5750,7 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>1403</v>
+        <v>1652</v>
       </c>
       <c r="C2">
         <v>6249262</v>
@@ -5021,7 +5768,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1404</v>
+        <v>1653</v>
       </c>
       <c r="C3">
         <v>6249262</v>
@@ -5039,7 +5786,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1405</v>
+        <v>1654</v>
       </c>
       <c r="C4">
         <v>6249262</v>
@@ -5057,7 +5804,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1406</v>
+        <v>1655</v>
       </c>
       <c r="C5">
         <v>6249262</v>
@@ -5075,7 +5822,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1407</v>
+        <v>1656</v>
       </c>
       <c r="C6">
         <v>6249262</v>
@@ -5093,7 +5840,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1408</v>
+        <v>1657</v>
       </c>
       <c r="C7">
         <v>6249262</v>
@@ -5111,7 +5858,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1409</v>
+        <v>1658</v>
       </c>
       <c r="C8">
         <v>6249262</v>
@@ -5129,7 +5876,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1410</v>
+        <v>1659</v>
       </c>
       <c r="C9">
         <v>6249262</v>
@@ -5147,7 +5894,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1411</v>
+        <v>1660</v>
       </c>
       <c r="C10">
         <v>6249262</v>
@@ -5173,22 +5920,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1416</v>
+        <v>1665</v>
       </c>
       <c r="B1" t="s">
-        <v>1417</v>
+        <v>1666</v>
       </c>
       <c r="C1" t="s">
-        <v>1427</v>
+        <v>1676</v>
       </c>
       <c r="D1" t="s">
-        <v>1428</v>
+        <v>1677</v>
       </c>
       <c r="E1" t="s">
-        <v>1429</v>
+        <v>1678</v>
       </c>
       <c r="F1" t="s">
-        <v>1430</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="2">
@@ -5196,7 +5943,7 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>1418</v>
+        <v>1667</v>
       </c>
       <c r="C2">
         <v>6290383</v>
@@ -5214,7 +5961,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1419</v>
+        <v>1668</v>
       </c>
       <c r="C3">
         <v>6290383</v>
@@ -5232,7 +5979,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1420</v>
+        <v>1669</v>
       </c>
       <c r="C4">
         <v>6290383</v>
@@ -5250,7 +5997,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1421</v>
+        <v>1670</v>
       </c>
       <c r="C5">
         <v>6290383</v>
@@ -5268,7 +6015,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1422</v>
+        <v>1671</v>
       </c>
       <c r="C6">
         <v>6290383</v>
@@ -5286,7 +6033,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1423</v>
+        <v>1672</v>
       </c>
       <c r="C7">
         <v>6290383</v>
@@ -5304,7 +6051,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1424</v>
+        <v>1673</v>
       </c>
       <c r="C8">
         <v>6290383</v>
@@ -5322,7 +6069,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1425</v>
+        <v>1674</v>
       </c>
       <c r="C9">
         <v>6290383</v>
@@ -5340,7 +6087,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1426</v>
+        <v>1675</v>
       </c>
       <c r="C10">
         <v>6290383</v>
@@ -5366,22 +6113,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1431</v>
+        <v>1680</v>
       </c>
       <c r="B1" t="s">
-        <v>1432</v>
+        <v>1681</v>
       </c>
       <c r="C1" t="s">
-        <v>1442</v>
+        <v>1691</v>
       </c>
       <c r="D1" t="s">
-        <v>1443</v>
+        <v>1692</v>
       </c>
       <c r="E1" t="s">
-        <v>1444</v>
+        <v>1693</v>
       </c>
       <c r="F1" t="s">
-        <v>1445</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="2">
@@ -5389,7 +6136,7 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>1433</v>
+        <v>1682</v>
       </c>
       <c r="C2">
         <v>6401415</v>
@@ -5407,7 +6154,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1434</v>
+        <v>1683</v>
       </c>
       <c r="C3">
         <v>6401415</v>
@@ -5425,7 +6172,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1435</v>
+        <v>1684</v>
       </c>
       <c r="C4">
         <v>6401415</v>
@@ -5443,7 +6190,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1436</v>
+        <v>1685</v>
       </c>
       <c r="C5">
         <v>6401415</v>
@@ -5461,7 +6208,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1437</v>
+        <v>1686</v>
       </c>
       <c r="C6">
         <v>6401415</v>
@@ -5479,7 +6226,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1438</v>
+        <v>1687</v>
       </c>
       <c r="C7">
         <v>6401415</v>
@@ -5497,7 +6244,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1439</v>
+        <v>1688</v>
       </c>
       <c r="C8">
         <v>6401415</v>
@@ -5515,7 +6262,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1440</v>
+        <v>1689</v>
       </c>
       <c r="C9">
         <v>6401415</v>
@@ -5533,7 +6280,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1441</v>
+        <v>1690</v>
       </c>
       <c r="C10">
         <v>6401415</v>
@@ -5559,22 +6306,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1446</v>
+        <v>1695</v>
       </c>
       <c r="B1" t="s">
-        <v>1447</v>
+        <v>1696</v>
       </c>
       <c r="C1" t="s">
-        <v>1458</v>
+        <v>1707</v>
       </c>
       <c r="D1" t="s">
-        <v>1459</v>
+        <v>1708</v>
       </c>
       <c r="E1" t="s">
-        <v>1460</v>
+        <v>1709</v>
       </c>
       <c r="F1" t="s">
-        <v>1461</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="2">
@@ -5582,7 +6329,7 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>1448</v>
+        <v>1697</v>
       </c>
       <c r="C2">
         <v>6459911</v>
@@ -5600,7 +6347,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1449</v>
+        <v>1698</v>
       </c>
       <c r="C3">
         <v>6459911</v>
@@ -5618,7 +6365,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1450</v>
+        <v>1699</v>
       </c>
       <c r="C4">
         <v>6459911</v>
@@ -5636,7 +6383,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1451</v>
+        <v>1700</v>
       </c>
       <c r="C5">
         <v>6459911</v>
@@ -5654,7 +6401,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1452</v>
+        <v>1701</v>
       </c>
       <c r="C6">
         <v>6459911</v>
@@ -5672,7 +6419,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1453</v>
+        <v>1702</v>
       </c>
       <c r="C7">
         <v>6459911</v>
@@ -5690,7 +6437,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1454</v>
+        <v>1703</v>
       </c>
       <c r="C8">
         <v>6459911</v>
@@ -5708,7 +6455,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1455</v>
+        <v>1704</v>
       </c>
       <c r="C9">
         <v>6459911</v>
@@ -5726,7 +6473,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1456</v>
+        <v>1705</v>
       </c>
       <c r="C10">
         <v>6459911</v>
@@ -5744,7 +6491,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1457</v>
+        <v>1706</v>
       </c>
       <c r="C11">
         <v>6459911</v>
@@ -5770,22 +6517,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1462</v>
+        <v>1711</v>
       </c>
       <c r="B1" t="s">
-        <v>1463</v>
+        <v>1712</v>
       </c>
       <c r="C1" t="s">
-        <v>1474</v>
+        <v>1723</v>
       </c>
       <c r="D1" t="s">
-        <v>1475</v>
+        <v>1724</v>
       </c>
       <c r="E1" t="s">
-        <v>1476</v>
+        <v>1725</v>
       </c>
       <c r="F1" t="s">
-        <v>1477</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="2">
@@ -5793,7 +6540,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>1464</v>
+        <v>1713</v>
       </c>
       <c r="C2">
         <v>6522419</v>
@@ -5811,7 +6558,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1465</v>
+        <v>1714</v>
       </c>
       <c r="C3">
         <v>6522419</v>
@@ -5829,7 +6576,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1466</v>
+        <v>1715</v>
       </c>
       <c r="C4">
         <v>6522419</v>
@@ -5847,7 +6594,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1467</v>
+        <v>1716</v>
       </c>
       <c r="C5">
         <v>6522419</v>
@@ -5865,7 +6612,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1468</v>
+        <v>1717</v>
       </c>
       <c r="C6">
         <v>6522419</v>
@@ -5883,7 +6630,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1469</v>
+        <v>1718</v>
       </c>
       <c r="C7">
         <v>6522419</v>
@@ -5901,7 +6648,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1470</v>
+        <v>1719</v>
       </c>
       <c r="C8">
         <v>6522419</v>
@@ -5919,7 +6666,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1471</v>
+        <v>1720</v>
       </c>
       <c r="C9">
         <v>6522419</v>
@@ -5937,7 +6684,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1472</v>
+        <v>1721</v>
       </c>
       <c r="C10">
         <v>6522419</v>
@@ -5955,7 +6702,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1473</v>
+        <v>1722</v>
       </c>
       <c r="C11">
         <v>6522419</v>
@@ -5981,22 +6728,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1478</v>
+        <v>1727</v>
       </c>
       <c r="B1" t="s">
-        <v>1479</v>
+        <v>1728</v>
       </c>
       <c r="C1" t="s">
-        <v>1490</v>
+        <v>1739</v>
       </c>
       <c r="D1" t="s">
-        <v>1491</v>
+        <v>1740</v>
       </c>
       <c r="E1" t="s">
-        <v>1492</v>
+        <v>1741</v>
       </c>
       <c r="F1" t="s">
-        <v>1493</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="2">
@@ -6004,7 +6751,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>1480</v>
+        <v>1729</v>
       </c>
       <c r="C2">
         <v>6581860</v>
@@ -6022,7 +6769,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1481</v>
+        <v>1730</v>
       </c>
       <c r="C3">
         <v>6581860</v>
@@ -6040,7 +6787,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1482</v>
+        <v>1731</v>
       </c>
       <c r="C4">
         <v>6581860</v>
@@ -6058,7 +6805,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1483</v>
+        <v>1732</v>
       </c>
       <c r="C5">
         <v>6581860</v>
@@ -6076,7 +6823,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1484</v>
+        <v>1733</v>
       </c>
       <c r="C6">
         <v>6581860</v>
@@ -6094,7 +6841,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1485</v>
+        <v>1734</v>
       </c>
       <c r="C7">
         <v>6581860</v>
@@ -6112,7 +6859,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1486</v>
+        <v>1735</v>
       </c>
       <c r="C8">
         <v>6581860</v>
@@ -6130,7 +6877,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1487</v>
+        <v>1736</v>
       </c>
       <c r="C9">
         <v>6581860</v>
@@ -6148,7 +6895,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1488</v>
+        <v>1737</v>
       </c>
       <c r="C10">
         <v>6581860</v>
@@ -6166,7 +6913,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1489</v>
+        <v>1738</v>
       </c>
       <c r="C11">
         <v>6581860</v>
@@ -6192,22 +6939,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1261</v>
+        <v>1510</v>
       </c>
       <c r="B1" t="s">
-        <v>1262</v>
+        <v>1511</v>
       </c>
       <c r="C1" t="s">
-        <v>1273</v>
+        <v>1522</v>
       </c>
       <c r="D1" t="s">
-        <v>1274</v>
+        <v>1523</v>
       </c>
       <c r="E1" t="s">
-        <v>1275</v>
+        <v>1524</v>
       </c>
       <c r="F1" t="s">
-        <v>1276</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="2">
@@ -6215,7 +6962,7 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>1263</v>
+        <v>1512</v>
       </c>
       <c r="C2">
         <v>6428672</v>
@@ -6233,7 +6980,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1264</v>
+        <v>1513</v>
       </c>
       <c r="C3">
         <v>6428672</v>
@@ -6251,7 +6998,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1265</v>
+        <v>1514</v>
       </c>
       <c r="C4">
         <v>6428672</v>
@@ -6269,7 +7016,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1266</v>
+        <v>1515</v>
       </c>
       <c r="C5">
         <v>6428672</v>
@@ -6287,7 +7034,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1267</v>
+        <v>1516</v>
       </c>
       <c r="C6">
         <v>6428672</v>
@@ -6305,7 +7052,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1268</v>
+        <v>1517</v>
       </c>
       <c r="C7">
         <v>6428672</v>
@@ -6323,7 +7070,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1269</v>
+        <v>1518</v>
       </c>
       <c r="C8">
         <v>6428672</v>
@@ -6341,7 +7088,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1270</v>
+        <v>1519</v>
       </c>
       <c r="C9">
         <v>6428672</v>
@@ -6359,7 +7106,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1271</v>
+        <v>1520</v>
       </c>
       <c r="C10">
         <v>6428672</v>
@@ -6377,7 +7124,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1272</v>
+        <v>1521</v>
       </c>
       <c r="C11">
         <v>6428672</v>
@@ -6403,22 +7150,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1277</v>
+        <v>1526</v>
       </c>
       <c r="B1" t="s">
-        <v>1278</v>
+        <v>1527</v>
       </c>
       <c r="C1" t="s">
-        <v>1288</v>
+        <v>1537</v>
       </c>
       <c r="D1" t="s">
-        <v>1289</v>
+        <v>1538</v>
       </c>
       <c r="E1" t="s">
-        <v>1290</v>
+        <v>1539</v>
       </c>
       <c r="F1" t="s">
-        <v>1291</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="2">
@@ -6426,7 +7173,7 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>1279</v>
+        <v>1528</v>
       </c>
       <c r="C2">
         <v>6510348</v>
@@ -6444,7 +7191,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1280</v>
+        <v>1529</v>
       </c>
       <c r="C3">
         <v>6510348</v>
@@ -6462,7 +7209,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1281</v>
+        <v>1530</v>
       </c>
       <c r="C4">
         <v>6510348</v>
@@ -6480,7 +7227,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1282</v>
+        <v>1531</v>
       </c>
       <c r="C5">
         <v>6510348</v>
@@ -6498,7 +7245,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1283</v>
+        <v>1532</v>
       </c>
       <c r="C6">
         <v>6510348</v>
@@ -6516,7 +7263,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1284</v>
+        <v>1533</v>
       </c>
       <c r="C7">
         <v>6510348</v>
@@ -6534,7 +7281,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1285</v>
+        <v>1534</v>
       </c>
       <c r="C8">
         <v>6510348</v>
@@ -6552,7 +7299,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1286</v>
+        <v>1535</v>
       </c>
       <c r="C9">
         <v>6510348</v>
@@ -6570,7 +7317,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1287</v>
+        <v>1536</v>
       </c>
       <c r="C10">
         <v>6510348</v>
@@ -6596,22 +7343,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1292</v>
+        <v>1541</v>
       </c>
       <c r="B1" t="s">
-        <v>1293</v>
+        <v>1542</v>
       </c>
       <c r="C1" t="s">
-        <v>1303</v>
+        <v>1552</v>
       </c>
       <c r="D1" t="s">
-        <v>1304</v>
+        <v>1553</v>
       </c>
       <c r="E1" t="s">
-        <v>1305</v>
+        <v>1554</v>
       </c>
       <c r="F1" t="s">
-        <v>1306</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="2">
@@ -6619,7 +7366,7 @@
         <v>2003</v>
       </c>
       <c r="B2" t="s">
-        <v>1294</v>
+        <v>1543</v>
       </c>
       <c r="C2">
         <v>6639010</v>
@@ -6637,7 +7384,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1295</v>
+        <v>1544</v>
       </c>
       <c r="C3">
         <v>6639010</v>
@@ -6655,7 +7402,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1296</v>
+        <v>1545</v>
       </c>
       <c r="C4">
         <v>6639010</v>
@@ -6673,7 +7420,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1297</v>
+        <v>1546</v>
       </c>
       <c r="C5">
         <v>6639010</v>
@@ -6691,7 +7438,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1298</v>
+        <v>1547</v>
       </c>
       <c r="C6">
         <v>6639010</v>
@@ -6709,7 +7456,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1299</v>
+        <v>1548</v>
       </c>
       <c r="C7">
         <v>6639010</v>
@@ -6727,7 +7474,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1300</v>
+        <v>1549</v>
       </c>
       <c r="C8">
         <v>6639010</v>
@@ -6745,7 +7492,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1301</v>
+        <v>1550</v>
       </c>
       <c r="C9">
         <v>6639010</v>
@@ -6763,7 +7510,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1302</v>
+        <v>1551</v>
       </c>
       <c r="C10">
         <v>6639010</v>
@@ -6789,22 +7536,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1307</v>
+        <v>1556</v>
       </c>
       <c r="B1" t="s">
-        <v>1308</v>
+        <v>1557</v>
       </c>
       <c r="C1" t="s">
-        <v>1318</v>
+        <v>1567</v>
       </c>
       <c r="D1" t="s">
-        <v>1319</v>
+        <v>1568</v>
       </c>
       <c r="E1" t="s">
-        <v>1320</v>
+        <v>1569</v>
       </c>
       <c r="F1" t="s">
-        <v>1321</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="2">
@@ -6812,7 +7559,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="s">
-        <v>1309</v>
+        <v>1558</v>
       </c>
       <c r="C2">
         <v>6756786</v>
@@ -6830,7 +7577,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1310</v>
+        <v>1559</v>
       </c>
       <c r="C3">
         <v>6756786</v>
@@ -6848,7 +7595,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1311</v>
+        <v>1560</v>
       </c>
       <c r="C4">
         <v>6756786</v>
@@ -6866,7 +7613,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1312</v>
+        <v>1561</v>
       </c>
       <c r="C5">
         <v>6756786</v>
@@ -6884,7 +7631,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1313</v>
+        <v>1562</v>
       </c>
       <c r="C6">
         <v>6756786</v>
@@ -6902,7 +7649,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1314</v>
+        <v>1563</v>
       </c>
       <c r="C7">
         <v>6756786</v>
@@ -6920,7 +7667,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1315</v>
+        <v>1564</v>
       </c>
       <c r="C8">
         <v>6756786</v>
@@ -6938,7 +7685,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1316</v>
+        <v>1565</v>
       </c>
       <c r="C9">
         <v>6756786</v>
@@ -6956,7 +7703,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1317</v>
+        <v>1566</v>
       </c>
       <c r="C10">
         <v>6756786</v>
@@ -6982,22 +7729,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1322</v>
+        <v>1571</v>
       </c>
       <c r="B1" t="s">
-        <v>1323</v>
+        <v>1572</v>
       </c>
       <c r="C1" t="s">
-        <v>1334</v>
+        <v>1583</v>
       </c>
       <c r="D1" t="s">
-        <v>1335</v>
+        <v>1584</v>
       </c>
       <c r="E1" t="s">
-        <v>1336</v>
+        <v>1585</v>
       </c>
       <c r="F1" t="s">
-        <v>1337</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="2">
@@ -7005,7 +7752,7 @@
         <v>2005</v>
       </c>
       <c r="B2" t="s">
-        <v>1324</v>
+        <v>1573</v>
       </c>
       <c r="C2">
         <v>6864080</v>
@@ -7023,7 +7770,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1325</v>
+        <v>1574</v>
       </c>
       <c r="C3">
         <v>6864080</v>
@@ -7041,7 +7788,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1326</v>
+        <v>1575</v>
       </c>
       <c r="C4">
         <v>6864080</v>
@@ -7059,7 +7806,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1327</v>
+        <v>1576</v>
       </c>
       <c r="C5">
         <v>6864080</v>
@@ -7077,7 +7824,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1328</v>
+        <v>1577</v>
       </c>
       <c r="C6">
         <v>6864080</v>
@@ -7095,7 +7842,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1329</v>
+        <v>1578</v>
       </c>
       <c r="C7">
         <v>6864080</v>
@@ -7113,7 +7860,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1330</v>
+        <v>1579</v>
       </c>
       <c r="C8">
         <v>6864080</v>
@@ -7131,7 +7878,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1331</v>
+        <v>1580</v>
       </c>
       <c r="C9">
         <v>6864080</v>
@@ -7149,7 +7896,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1332</v>
+        <v>1581</v>
       </c>
       <c r="C10">
         <v>6864080</v>
@@ -7167,7 +7914,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1333</v>
+        <v>1582</v>
       </c>
       <c r="C11">
         <v>6864080</v>
@@ -7193,22 +7940,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1338</v>
+        <v>1587</v>
       </c>
       <c r="B1" t="s">
-        <v>1339</v>
+        <v>1588</v>
       </c>
       <c r="C1" t="s">
-        <v>1350</v>
+        <v>1599</v>
       </c>
       <c r="D1" t="s">
-        <v>1351</v>
+        <v>1600</v>
       </c>
       <c r="E1" t="s">
-        <v>1352</v>
+        <v>1601</v>
       </c>
       <c r="F1" t="s">
-        <v>1353</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="2">
@@ -7216,7 +7963,7 @@
         <v>2006</v>
       </c>
       <c r="B2" t="s">
-        <v>1340</v>
+        <v>1589</v>
       </c>
       <c r="C2">
         <v>6980279</v>
@@ -7234,7 +7981,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1341</v>
+        <v>1590</v>
       </c>
       <c r="C3">
         <v>6980279</v>
@@ -7252,7 +7999,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1342</v>
+        <v>1591</v>
       </c>
       <c r="C4">
         <v>6980279</v>
@@ -7270,7 +8017,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1343</v>
+        <v>1592</v>
       </c>
       <c r="C5">
         <v>6980279</v>
@@ -7288,7 +8035,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1344</v>
+        <v>1593</v>
       </c>
       <c r="C6">
         <v>6980279</v>
@@ -7306,7 +8053,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1345</v>
+        <v>1594</v>
       </c>
       <c r="C7">
         <v>6980279</v>
@@ -7324,7 +8071,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1346</v>
+        <v>1595</v>
       </c>
       <c r="C8">
         <v>6980279</v>
@@ -7342,7 +8089,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1347</v>
+        <v>1596</v>
       </c>
       <c r="C9">
         <v>6980279</v>
@@ -7360,7 +8107,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1348</v>
+        <v>1597</v>
       </c>
       <c r="C10">
         <v>6980279</v>
@@ -7378,7 +8125,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1349</v>
+        <v>1598</v>
       </c>
       <c r="C11">
         <v>6980279</v>
@@ -7404,22 +8151,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1354</v>
+        <v>1603</v>
       </c>
       <c r="B1" t="s">
-        <v>1355</v>
+        <v>1604</v>
       </c>
       <c r="C1" t="s">
-        <v>1366</v>
+        <v>1615</v>
       </c>
       <c r="D1" t="s">
-        <v>1367</v>
+        <v>1616</v>
       </c>
       <c r="E1" t="s">
-        <v>1368</v>
+        <v>1617</v>
       </c>
       <c r="F1" t="s">
-        <v>1369</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="2">
@@ -7427,7 +8174,7 @@
         <v>2007</v>
       </c>
       <c r="B2" t="s">
-        <v>1356</v>
+        <v>1605</v>
       </c>
       <c r="C2">
         <v>5744575</v>
@@ -7445,7 +8192,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1357</v>
+        <v>1606</v>
       </c>
       <c r="C3">
         <v>5744575</v>
@@ -7463,7 +8210,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1358</v>
+        <v>1607</v>
       </c>
       <c r="C4">
         <v>5744575</v>
@@ -7481,7 +8228,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1359</v>
+        <v>1608</v>
       </c>
       <c r="C5">
         <v>5744575</v>
@@ -7499,7 +8246,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1360</v>
+        <v>1609</v>
       </c>
       <c r="C6">
         <v>5744575</v>
@@ -7517,7 +8264,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1361</v>
+        <v>1610</v>
       </c>
       <c r="C7">
         <v>5744575</v>
@@ -7535,7 +8282,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1362</v>
+        <v>1611</v>
       </c>
       <c r="C8">
         <v>5744575</v>
@@ -7553,7 +8300,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1363</v>
+        <v>1612</v>
       </c>
       <c r="C9">
         <v>5744575</v>
@@ -7571,7 +8318,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1364</v>
+        <v>1613</v>
       </c>
       <c r="C10">
         <v>5744575</v>
@@ -7589,7 +8336,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1365</v>
+        <v>1614</v>
       </c>
       <c r="C11">
         <v>5744575</v>
@@ -7615,22 +8362,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1370</v>
+        <v>1619</v>
       </c>
       <c r="B1" t="s">
-        <v>1371</v>
+        <v>1620</v>
       </c>
       <c r="C1" t="s">
-        <v>1381</v>
+        <v>1630</v>
       </c>
       <c r="D1" t="s">
-        <v>1382</v>
+        <v>1631</v>
       </c>
       <c r="E1" t="s">
-        <v>1383</v>
+        <v>1632</v>
       </c>
       <c r="F1" t="s">
-        <v>1384</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="2">
@@ -7638,7 +8385,7 @@
         <v>2009</v>
       </c>
       <c r="B2" t="s">
-        <v>1372</v>
+        <v>1621</v>
       </c>
       <c r="C2">
         <v>6150953</v>
@@ -7656,7 +8403,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1373</v>
+        <v>1622</v>
       </c>
       <c r="C3">
         <v>6150953</v>
@@ -7674,7 +8421,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1374</v>
+        <v>1623</v>
       </c>
       <c r="C4">
         <v>6150953</v>
@@ -7692,7 +8439,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1375</v>
+        <v>1624</v>
       </c>
       <c r="C5">
         <v>6150953</v>
@@ -7710,7 +8457,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1376</v>
+        <v>1625</v>
       </c>
       <c r="C6">
         <v>6150953</v>
@@ -7728,7 +8475,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1377</v>
+        <v>1626</v>
       </c>
       <c r="C7">
         <v>6150953</v>
@@ -7746,7 +8493,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1378</v>
+        <v>1627</v>
       </c>
       <c r="C8">
         <v>6150953</v>
@@ -7764,7 +8511,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1379</v>
+        <v>1628</v>
       </c>
       <c r="C9">
         <v>6150953</v>
@@ -7782,7 +8529,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1380</v>
+        <v>1629</v>
       </c>
       <c r="C10">
         <v>6150953</v>

--- a/input_data/admin_data/SLV/_clean/wages-SLV.xlsx
+++ b/input_data/admin_data/SLV/_clean/wages-SLV.xlsx
@@ -28,7 +28,754 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="1743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="1992">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -5305,22 +6052,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1494</v>
+        <v>1743</v>
       </c>
       <c r="B1" t="s">
-        <v>1495</v>
+        <v>1744</v>
       </c>
       <c r="C1" t="s">
-        <v>1506</v>
+        <v>1755</v>
       </c>
       <c r="D1" t="s">
-        <v>1507</v>
+        <v>1756</v>
       </c>
       <c r="E1" t="s">
-        <v>1508</v>
+        <v>1757</v>
       </c>
       <c r="F1" t="s">
-        <v>1509</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="2">
@@ -5328,7 +6075,7 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>1496</v>
+        <v>1745</v>
       </c>
       <c r="C2">
         <v>6272353</v>
@@ -5346,7 +6093,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1497</v>
+        <v>1746</v>
       </c>
       <c r="C3">
         <v>6272353</v>
@@ -5364,7 +6111,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1498</v>
+        <v>1747</v>
       </c>
       <c r="C4">
         <v>6272353</v>
@@ -5382,7 +6129,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1499</v>
+        <v>1748</v>
       </c>
       <c r="C5">
         <v>6272353</v>
@@ -5400,7 +6147,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1500</v>
+        <v>1749</v>
       </c>
       <c r="C6">
         <v>6272353</v>
@@ -5418,7 +6165,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1501</v>
+        <v>1750</v>
       </c>
       <c r="C7">
         <v>6272353</v>
@@ -5436,7 +6183,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1502</v>
+        <v>1751</v>
       </c>
       <c r="C8">
         <v>6272353</v>
@@ -5454,7 +6201,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1503</v>
+        <v>1752</v>
       </c>
       <c r="C9">
         <v>6272353</v>
@@ -5472,7 +6219,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1504</v>
+        <v>1753</v>
       </c>
       <c r="C10">
         <v>6272353</v>
@@ -5490,7 +6237,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1505</v>
+        <v>1754</v>
       </c>
       <c r="C11">
         <v>6272353</v>
@@ -5516,22 +6263,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1634</v>
+        <v>1883</v>
       </c>
       <c r="B1" t="s">
-        <v>1635</v>
+        <v>1884</v>
       </c>
       <c r="C1" t="s">
-        <v>1646</v>
+        <v>1895</v>
       </c>
       <c r="D1" t="s">
-        <v>1647</v>
+        <v>1896</v>
       </c>
       <c r="E1" t="s">
-        <v>1648</v>
+        <v>1897</v>
       </c>
       <c r="F1" t="s">
-        <v>1649</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="2">
@@ -5539,7 +6286,7 @@
         <v>2010</v>
       </c>
       <c r="B2" t="s">
-        <v>1636</v>
+        <v>1885</v>
       </c>
       <c r="C2">
         <v>6181405</v>
@@ -5557,7 +6304,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1637</v>
+        <v>1886</v>
       </c>
       <c r="C3">
         <v>6181405</v>
@@ -5575,7 +6322,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1638</v>
+        <v>1887</v>
       </c>
       <c r="C4">
         <v>6181405</v>
@@ -5593,7 +6340,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1639</v>
+        <v>1888</v>
       </c>
       <c r="C5">
         <v>6181405</v>
@@ -5611,7 +6358,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1640</v>
+        <v>1889</v>
       </c>
       <c r="C6">
         <v>6181405</v>
@@ -5629,7 +6376,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1641</v>
+        <v>1890</v>
       </c>
       <c r="C7">
         <v>6181405</v>
@@ -5647,7 +6394,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1642</v>
+        <v>1891</v>
       </c>
       <c r="C8">
         <v>6181405</v>
@@ -5665,7 +6412,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1643</v>
+        <v>1892</v>
       </c>
       <c r="C9">
         <v>6181405</v>
@@ -5683,7 +6430,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1644</v>
+        <v>1893</v>
       </c>
       <c r="C10">
         <v>6181405</v>
@@ -5701,7 +6448,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1645</v>
+        <v>1894</v>
       </c>
       <c r="C11">
         <v>6181405</v>
@@ -5727,22 +6474,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1650</v>
+        <v>1899</v>
       </c>
       <c r="B1" t="s">
-        <v>1651</v>
+        <v>1900</v>
       </c>
       <c r="C1" t="s">
-        <v>1661</v>
+        <v>1910</v>
       </c>
       <c r="D1" t="s">
-        <v>1662</v>
+        <v>1911</v>
       </c>
       <c r="E1" t="s">
-        <v>1663</v>
+        <v>1912</v>
       </c>
       <c r="F1" t="s">
-        <v>1664</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="2">
@@ -5750,7 +6497,7 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>1652</v>
+        <v>1901</v>
       </c>
       <c r="C2">
         <v>6249262</v>
@@ -5768,7 +6515,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1653</v>
+        <v>1902</v>
       </c>
       <c r="C3">
         <v>6249262</v>
@@ -5786,7 +6533,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1654</v>
+        <v>1903</v>
       </c>
       <c r="C4">
         <v>6249262</v>
@@ -5804,7 +6551,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1655</v>
+        <v>1904</v>
       </c>
       <c r="C5">
         <v>6249262</v>
@@ -5822,7 +6569,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1656</v>
+        <v>1905</v>
       </c>
       <c r="C6">
         <v>6249262</v>
@@ -5840,7 +6587,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1657</v>
+        <v>1906</v>
       </c>
       <c r="C7">
         <v>6249262</v>
@@ -5858,7 +6605,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1658</v>
+        <v>1907</v>
       </c>
       <c r="C8">
         <v>6249262</v>
@@ -5876,7 +6623,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1659</v>
+        <v>1908</v>
       </c>
       <c r="C9">
         <v>6249262</v>
@@ -5894,7 +6641,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1660</v>
+        <v>1909</v>
       </c>
       <c r="C10">
         <v>6249262</v>
@@ -5920,22 +6667,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1665</v>
+        <v>1914</v>
       </c>
       <c r="B1" t="s">
-        <v>1666</v>
+        <v>1915</v>
       </c>
       <c r="C1" t="s">
-        <v>1676</v>
+        <v>1925</v>
       </c>
       <c r="D1" t="s">
-        <v>1677</v>
+        <v>1926</v>
       </c>
       <c r="E1" t="s">
-        <v>1678</v>
+        <v>1927</v>
       </c>
       <c r="F1" t="s">
-        <v>1679</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="2">
@@ -5943,7 +6690,7 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>1667</v>
+        <v>1916</v>
       </c>
       <c r="C2">
         <v>6290383</v>
@@ -5961,7 +6708,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1668</v>
+        <v>1917</v>
       </c>
       <c r="C3">
         <v>6290383</v>
@@ -5979,7 +6726,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1669</v>
+        <v>1918</v>
       </c>
       <c r="C4">
         <v>6290383</v>
@@ -5997,7 +6744,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1670</v>
+        <v>1919</v>
       </c>
       <c r="C5">
         <v>6290383</v>
@@ -6015,7 +6762,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1671</v>
+        <v>1920</v>
       </c>
       <c r="C6">
         <v>6290383</v>
@@ -6033,7 +6780,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1672</v>
+        <v>1921</v>
       </c>
       <c r="C7">
         <v>6290383</v>
@@ -6051,7 +6798,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1673</v>
+        <v>1922</v>
       </c>
       <c r="C8">
         <v>6290383</v>
@@ -6069,7 +6816,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1674</v>
+        <v>1923</v>
       </c>
       <c r="C9">
         <v>6290383</v>
@@ -6087,7 +6834,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1675</v>
+        <v>1924</v>
       </c>
       <c r="C10">
         <v>6290383</v>
@@ -6113,22 +6860,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1680</v>
+        <v>1929</v>
       </c>
       <c r="B1" t="s">
-        <v>1681</v>
+        <v>1930</v>
       </c>
       <c r="C1" t="s">
-        <v>1691</v>
+        <v>1940</v>
       </c>
       <c r="D1" t="s">
-        <v>1692</v>
+        <v>1941</v>
       </c>
       <c r="E1" t="s">
-        <v>1693</v>
+        <v>1942</v>
       </c>
       <c r="F1" t="s">
-        <v>1694</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="2">
@@ -6136,7 +6883,7 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>1682</v>
+        <v>1931</v>
       </c>
       <c r="C2">
         <v>6401415</v>
@@ -6154,7 +6901,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1683</v>
+        <v>1932</v>
       </c>
       <c r="C3">
         <v>6401415</v>
@@ -6172,7 +6919,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1684</v>
+        <v>1933</v>
       </c>
       <c r="C4">
         <v>6401415</v>
@@ -6190,7 +6937,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1685</v>
+        <v>1934</v>
       </c>
       <c r="C5">
         <v>6401415</v>
@@ -6208,7 +6955,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1686</v>
+        <v>1935</v>
       </c>
       <c r="C6">
         <v>6401415</v>
@@ -6226,7 +6973,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1687</v>
+        <v>1936</v>
       </c>
       <c r="C7">
         <v>6401415</v>
@@ -6244,7 +6991,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1688</v>
+        <v>1937</v>
       </c>
       <c r="C8">
         <v>6401415</v>
@@ -6262,7 +7009,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1689</v>
+        <v>1938</v>
       </c>
       <c r="C9">
         <v>6401415</v>
@@ -6280,7 +7027,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1690</v>
+        <v>1939</v>
       </c>
       <c r="C10">
         <v>6401415</v>
@@ -6306,22 +7053,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1695</v>
+        <v>1944</v>
       </c>
       <c r="B1" t="s">
-        <v>1696</v>
+        <v>1945</v>
       </c>
       <c r="C1" t="s">
-        <v>1707</v>
+        <v>1956</v>
       </c>
       <c r="D1" t="s">
-        <v>1708</v>
+        <v>1957</v>
       </c>
       <c r="E1" t="s">
-        <v>1709</v>
+        <v>1958</v>
       </c>
       <c r="F1" t="s">
-        <v>1710</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="2">
@@ -6329,7 +7076,7 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>1697</v>
+        <v>1946</v>
       </c>
       <c r="C2">
         <v>6459911</v>
@@ -6347,7 +7094,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1698</v>
+        <v>1947</v>
       </c>
       <c r="C3">
         <v>6459911</v>
@@ -6365,7 +7112,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1699</v>
+        <v>1948</v>
       </c>
       <c r="C4">
         <v>6459911</v>
@@ -6383,7 +7130,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1700</v>
+        <v>1949</v>
       </c>
       <c r="C5">
         <v>6459911</v>
@@ -6401,7 +7148,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1701</v>
+        <v>1950</v>
       </c>
       <c r="C6">
         <v>6459911</v>
@@ -6419,7 +7166,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1702</v>
+        <v>1951</v>
       </c>
       <c r="C7">
         <v>6459911</v>
@@ -6437,7 +7184,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1703</v>
+        <v>1952</v>
       </c>
       <c r="C8">
         <v>6459911</v>
@@ -6455,7 +7202,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1704</v>
+        <v>1953</v>
       </c>
       <c r="C9">
         <v>6459911</v>
@@ -6473,7 +7220,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1705</v>
+        <v>1954</v>
       </c>
       <c r="C10">
         <v>6459911</v>
@@ -6491,7 +7238,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1706</v>
+        <v>1955</v>
       </c>
       <c r="C11">
         <v>6459911</v>
@@ -6517,22 +7264,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1711</v>
+        <v>1960</v>
       </c>
       <c r="B1" t="s">
-        <v>1712</v>
+        <v>1961</v>
       </c>
       <c r="C1" t="s">
-        <v>1723</v>
+        <v>1972</v>
       </c>
       <c r="D1" t="s">
-        <v>1724</v>
+        <v>1973</v>
       </c>
       <c r="E1" t="s">
-        <v>1725</v>
+        <v>1974</v>
       </c>
       <c r="F1" t="s">
-        <v>1726</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="2">
@@ -6540,7 +7287,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>1713</v>
+        <v>1962</v>
       </c>
       <c r="C2">
         <v>6522419</v>
@@ -6558,7 +7305,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1714</v>
+        <v>1963</v>
       </c>
       <c r="C3">
         <v>6522419</v>
@@ -6576,7 +7323,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1715</v>
+        <v>1964</v>
       </c>
       <c r="C4">
         <v>6522419</v>
@@ -6594,7 +7341,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1716</v>
+        <v>1965</v>
       </c>
       <c r="C5">
         <v>6522419</v>
@@ -6612,7 +7359,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1717</v>
+        <v>1966</v>
       </c>
       <c r="C6">
         <v>6522419</v>
@@ -6630,7 +7377,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1718</v>
+        <v>1967</v>
       </c>
       <c r="C7">
         <v>6522419</v>
@@ -6648,7 +7395,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1719</v>
+        <v>1968</v>
       </c>
       <c r="C8">
         <v>6522419</v>
@@ -6666,7 +7413,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1720</v>
+        <v>1969</v>
       </c>
       <c r="C9">
         <v>6522419</v>
@@ -6684,7 +7431,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1721</v>
+        <v>1970</v>
       </c>
       <c r="C10">
         <v>6522419</v>
@@ -6702,7 +7449,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1722</v>
+        <v>1971</v>
       </c>
       <c r="C11">
         <v>6522419</v>
@@ -6728,22 +7475,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1727</v>
+        <v>1976</v>
       </c>
       <c r="B1" t="s">
-        <v>1728</v>
+        <v>1977</v>
       </c>
       <c r="C1" t="s">
-        <v>1739</v>
+        <v>1988</v>
       </c>
       <c r="D1" t="s">
-        <v>1740</v>
+        <v>1989</v>
       </c>
       <c r="E1" t="s">
-        <v>1741</v>
+        <v>1990</v>
       </c>
       <c r="F1" t="s">
-        <v>1742</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="2">
@@ -6751,7 +7498,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>1729</v>
+        <v>1978</v>
       </c>
       <c r="C2">
         <v>6581860</v>
@@ -6769,7 +7516,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1730</v>
+        <v>1979</v>
       </c>
       <c r="C3">
         <v>6581860</v>
@@ -6787,7 +7534,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1731</v>
+        <v>1980</v>
       </c>
       <c r="C4">
         <v>6581860</v>
@@ -6805,7 +7552,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1732</v>
+        <v>1981</v>
       </c>
       <c r="C5">
         <v>6581860</v>
@@ -6823,7 +7570,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1733</v>
+        <v>1982</v>
       </c>
       <c r="C6">
         <v>6581860</v>
@@ -6841,7 +7588,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1734</v>
+        <v>1983</v>
       </c>
       <c r="C7">
         <v>6581860</v>
@@ -6859,7 +7606,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1735</v>
+        <v>1984</v>
       </c>
       <c r="C8">
         <v>6581860</v>
@@ -6877,7 +7624,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1736</v>
+        <v>1985</v>
       </c>
       <c r="C9">
         <v>6581860</v>
@@ -6895,7 +7642,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1737</v>
+        <v>1986</v>
       </c>
       <c r="C10">
         <v>6581860</v>
@@ -6913,7 +7660,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1738</v>
+        <v>1987</v>
       </c>
       <c r="C11">
         <v>6581860</v>
@@ -6939,22 +7686,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1510</v>
+        <v>1759</v>
       </c>
       <c r="B1" t="s">
-        <v>1511</v>
+        <v>1760</v>
       </c>
       <c r="C1" t="s">
-        <v>1522</v>
+        <v>1771</v>
       </c>
       <c r="D1" t="s">
-        <v>1523</v>
+        <v>1772</v>
       </c>
       <c r="E1" t="s">
-        <v>1524</v>
+        <v>1773</v>
       </c>
       <c r="F1" t="s">
-        <v>1525</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="2">
@@ -6962,7 +7709,7 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>1512</v>
+        <v>1761</v>
       </c>
       <c r="C2">
         <v>6428672</v>
@@ -6980,7 +7727,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1513</v>
+        <v>1762</v>
       </c>
       <c r="C3">
         <v>6428672</v>
@@ -6998,7 +7745,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1514</v>
+        <v>1763</v>
       </c>
       <c r="C4">
         <v>6428672</v>
@@ -7016,7 +7763,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1515</v>
+        <v>1764</v>
       </c>
       <c r="C5">
         <v>6428672</v>
@@ -7034,7 +7781,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1516</v>
+        <v>1765</v>
       </c>
       <c r="C6">
         <v>6428672</v>
@@ -7052,7 +7799,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1517</v>
+        <v>1766</v>
       </c>
       <c r="C7">
         <v>6428672</v>
@@ -7070,7 +7817,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1518</v>
+        <v>1767</v>
       </c>
       <c r="C8">
         <v>6428672</v>
@@ -7088,7 +7835,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1519</v>
+        <v>1768</v>
       </c>
       <c r="C9">
         <v>6428672</v>
@@ -7106,7 +7853,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1520</v>
+        <v>1769</v>
       </c>
       <c r="C10">
         <v>6428672</v>
@@ -7124,7 +7871,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1521</v>
+        <v>1770</v>
       </c>
       <c r="C11">
         <v>6428672</v>
@@ -7150,22 +7897,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1526</v>
+        <v>1775</v>
       </c>
       <c r="B1" t="s">
-        <v>1527</v>
+        <v>1776</v>
       </c>
       <c r="C1" t="s">
-        <v>1537</v>
+        <v>1786</v>
       </c>
       <c r="D1" t="s">
-        <v>1538</v>
+        <v>1787</v>
       </c>
       <c r="E1" t="s">
-        <v>1539</v>
+        <v>1788</v>
       </c>
       <c r="F1" t="s">
-        <v>1540</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="2">
@@ -7173,7 +7920,7 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>1528</v>
+        <v>1777</v>
       </c>
       <c r="C2">
         <v>6510348</v>
@@ -7191,7 +7938,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1529</v>
+        <v>1778</v>
       </c>
       <c r="C3">
         <v>6510348</v>
@@ -7209,7 +7956,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1530</v>
+        <v>1779</v>
       </c>
       <c r="C4">
         <v>6510348</v>
@@ -7227,7 +7974,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1531</v>
+        <v>1780</v>
       </c>
       <c r="C5">
         <v>6510348</v>
@@ -7245,7 +7992,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1532</v>
+        <v>1781</v>
       </c>
       <c r="C6">
         <v>6510348</v>
@@ -7263,7 +8010,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1533</v>
+        <v>1782</v>
       </c>
       <c r="C7">
         <v>6510348</v>
@@ -7281,7 +8028,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1534</v>
+        <v>1783</v>
       </c>
       <c r="C8">
         <v>6510348</v>
@@ -7299,7 +8046,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1535</v>
+        <v>1784</v>
       </c>
       <c r="C9">
         <v>6510348</v>
@@ -7317,7 +8064,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1536</v>
+        <v>1785</v>
       </c>
       <c r="C10">
         <v>6510348</v>
@@ -7343,22 +8090,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1541</v>
+        <v>1790</v>
       </c>
       <c r="B1" t="s">
-        <v>1542</v>
+        <v>1791</v>
       </c>
       <c r="C1" t="s">
-        <v>1552</v>
+        <v>1801</v>
       </c>
       <c r="D1" t="s">
-        <v>1553</v>
+        <v>1802</v>
       </c>
       <c r="E1" t="s">
-        <v>1554</v>
+        <v>1803</v>
       </c>
       <c r="F1" t="s">
-        <v>1555</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="2">
@@ -7366,7 +8113,7 @@
         <v>2003</v>
       </c>
       <c r="B2" t="s">
-        <v>1543</v>
+        <v>1792</v>
       </c>
       <c r="C2">
         <v>6639010</v>
@@ -7384,7 +8131,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1544</v>
+        <v>1793</v>
       </c>
       <c r="C3">
         <v>6639010</v>
@@ -7402,7 +8149,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1545</v>
+        <v>1794</v>
       </c>
       <c r="C4">
         <v>6639010</v>
@@ -7420,7 +8167,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1546</v>
+        <v>1795</v>
       </c>
       <c r="C5">
         <v>6639010</v>
@@ -7438,7 +8185,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1547</v>
+        <v>1796</v>
       </c>
       <c r="C6">
         <v>6639010</v>
@@ -7456,7 +8203,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1548</v>
+        <v>1797</v>
       </c>
       <c r="C7">
         <v>6639010</v>
@@ -7474,7 +8221,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1549</v>
+        <v>1798</v>
       </c>
       <c r="C8">
         <v>6639010</v>
@@ -7492,7 +8239,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1550</v>
+        <v>1799</v>
       </c>
       <c r="C9">
         <v>6639010</v>
@@ -7510,7 +8257,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1551</v>
+        <v>1800</v>
       </c>
       <c r="C10">
         <v>6639010</v>
@@ -7536,22 +8283,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1556</v>
+        <v>1805</v>
       </c>
       <c r="B1" t="s">
-        <v>1557</v>
+        <v>1806</v>
       </c>
       <c r="C1" t="s">
-        <v>1567</v>
+        <v>1816</v>
       </c>
       <c r="D1" t="s">
-        <v>1568</v>
+        <v>1817</v>
       </c>
       <c r="E1" t="s">
-        <v>1569</v>
+        <v>1818</v>
       </c>
       <c r="F1" t="s">
-        <v>1570</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="2">
@@ -7559,7 +8306,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="s">
-        <v>1558</v>
+        <v>1807</v>
       </c>
       <c r="C2">
         <v>6756786</v>
@@ -7577,7 +8324,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1559</v>
+        <v>1808</v>
       </c>
       <c r="C3">
         <v>6756786</v>
@@ -7595,7 +8342,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1560</v>
+        <v>1809</v>
       </c>
       <c r="C4">
         <v>6756786</v>
@@ -7613,7 +8360,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1561</v>
+        <v>1810</v>
       </c>
       <c r="C5">
         <v>6756786</v>
@@ -7631,7 +8378,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1562</v>
+        <v>1811</v>
       </c>
       <c r="C6">
         <v>6756786</v>
@@ -7649,7 +8396,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1563</v>
+        <v>1812</v>
       </c>
       <c r="C7">
         <v>6756786</v>
@@ -7667,7 +8414,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1564</v>
+        <v>1813</v>
       </c>
       <c r="C8">
         <v>6756786</v>
@@ -7685,7 +8432,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1565</v>
+        <v>1814</v>
       </c>
       <c r="C9">
         <v>6756786</v>
@@ -7703,7 +8450,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1566</v>
+        <v>1815</v>
       </c>
       <c r="C10">
         <v>6756786</v>
@@ -7729,22 +8476,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1571</v>
+        <v>1820</v>
       </c>
       <c r="B1" t="s">
-        <v>1572</v>
+        <v>1821</v>
       </c>
       <c r="C1" t="s">
-        <v>1583</v>
+        <v>1832</v>
       </c>
       <c r="D1" t="s">
-        <v>1584</v>
+        <v>1833</v>
       </c>
       <c r="E1" t="s">
-        <v>1585</v>
+        <v>1834</v>
       </c>
       <c r="F1" t="s">
-        <v>1586</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="2">
@@ -7752,7 +8499,7 @@
         <v>2005</v>
       </c>
       <c r="B2" t="s">
-        <v>1573</v>
+        <v>1822</v>
       </c>
       <c r="C2">
         <v>6864080</v>
@@ -7770,7 +8517,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1574</v>
+        <v>1823</v>
       </c>
       <c r="C3">
         <v>6864080</v>
@@ -7788,7 +8535,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1575</v>
+        <v>1824</v>
       </c>
       <c r="C4">
         <v>6864080</v>
@@ -7806,7 +8553,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1576</v>
+        <v>1825</v>
       </c>
       <c r="C5">
         <v>6864080</v>
@@ -7824,7 +8571,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1577</v>
+        <v>1826</v>
       </c>
       <c r="C6">
         <v>6864080</v>
@@ -7842,7 +8589,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1578</v>
+        <v>1827</v>
       </c>
       <c r="C7">
         <v>6864080</v>
@@ -7860,7 +8607,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1579</v>
+        <v>1828</v>
       </c>
       <c r="C8">
         <v>6864080</v>
@@ -7878,7 +8625,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1580</v>
+        <v>1829</v>
       </c>
       <c r="C9">
         <v>6864080</v>
@@ -7896,7 +8643,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1581</v>
+        <v>1830</v>
       </c>
       <c r="C10">
         <v>6864080</v>
@@ -7914,7 +8661,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1582</v>
+        <v>1831</v>
       </c>
       <c r="C11">
         <v>6864080</v>
@@ -7940,22 +8687,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1587</v>
+        <v>1836</v>
       </c>
       <c r="B1" t="s">
-        <v>1588</v>
+        <v>1837</v>
       </c>
       <c r="C1" t="s">
-        <v>1599</v>
+        <v>1848</v>
       </c>
       <c r="D1" t="s">
-        <v>1600</v>
+        <v>1849</v>
       </c>
       <c r="E1" t="s">
-        <v>1601</v>
+        <v>1850</v>
       </c>
       <c r="F1" t="s">
-        <v>1602</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="2">
@@ -7963,7 +8710,7 @@
         <v>2006</v>
       </c>
       <c r="B2" t="s">
-        <v>1589</v>
+        <v>1838</v>
       </c>
       <c r="C2">
         <v>6980279</v>
@@ -7981,7 +8728,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1590</v>
+        <v>1839</v>
       </c>
       <c r="C3">
         <v>6980279</v>
@@ -7999,7 +8746,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1591</v>
+        <v>1840</v>
       </c>
       <c r="C4">
         <v>6980279</v>
@@ -8017,7 +8764,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1592</v>
+        <v>1841</v>
       </c>
       <c r="C5">
         <v>6980279</v>
@@ -8035,7 +8782,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1593</v>
+        <v>1842</v>
       </c>
       <c r="C6">
         <v>6980279</v>
@@ -8053,7 +8800,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1594</v>
+        <v>1843</v>
       </c>
       <c r="C7">
         <v>6980279</v>
@@ -8071,7 +8818,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1595</v>
+        <v>1844</v>
       </c>
       <c r="C8">
         <v>6980279</v>
@@ -8089,7 +8836,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1596</v>
+        <v>1845</v>
       </c>
       <c r="C9">
         <v>6980279</v>
@@ -8107,7 +8854,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1597</v>
+        <v>1846</v>
       </c>
       <c r="C10">
         <v>6980279</v>
@@ -8125,7 +8872,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1598</v>
+        <v>1847</v>
       </c>
       <c r="C11">
         <v>6980279</v>
@@ -8151,22 +8898,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1603</v>
+        <v>1852</v>
       </c>
       <c r="B1" t="s">
-        <v>1604</v>
+        <v>1853</v>
       </c>
       <c r="C1" t="s">
-        <v>1615</v>
+        <v>1864</v>
       </c>
       <c r="D1" t="s">
-        <v>1616</v>
+        <v>1865</v>
       </c>
       <c r="E1" t="s">
-        <v>1617</v>
+        <v>1866</v>
       </c>
       <c r="F1" t="s">
-        <v>1618</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="2">
@@ -8174,7 +8921,7 @@
         <v>2007</v>
       </c>
       <c r="B2" t="s">
-        <v>1605</v>
+        <v>1854</v>
       </c>
       <c r="C2">
         <v>5744575</v>
@@ -8192,7 +8939,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1606</v>
+        <v>1855</v>
       </c>
       <c r="C3">
         <v>5744575</v>
@@ -8210,7 +8957,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1607</v>
+        <v>1856</v>
       </c>
       <c r="C4">
         <v>5744575</v>
@@ -8228,7 +8975,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1608</v>
+        <v>1857</v>
       </c>
       <c r="C5">
         <v>5744575</v>
@@ -8246,7 +8993,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1609</v>
+        <v>1858</v>
       </c>
       <c r="C6">
         <v>5744575</v>
@@ -8264,7 +9011,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1610</v>
+        <v>1859</v>
       </c>
       <c r="C7">
         <v>5744575</v>
@@ -8282,7 +9029,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1611</v>
+        <v>1860</v>
       </c>
       <c r="C8">
         <v>5744575</v>
@@ -8300,7 +9047,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1612</v>
+        <v>1861</v>
       </c>
       <c r="C9">
         <v>5744575</v>
@@ -8318,7 +9065,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1613</v>
+        <v>1862</v>
       </c>
       <c r="C10">
         <v>5744575</v>
@@ -8336,7 +9083,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1614</v>
+        <v>1863</v>
       </c>
       <c r="C11">
         <v>5744575</v>
@@ -8362,22 +9109,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1619</v>
+        <v>1868</v>
       </c>
       <c r="B1" t="s">
-        <v>1620</v>
+        <v>1869</v>
       </c>
       <c r="C1" t="s">
-        <v>1630</v>
+        <v>1879</v>
       </c>
       <c r="D1" t="s">
-        <v>1631</v>
+        <v>1880</v>
       </c>
       <c r="E1" t="s">
-        <v>1632</v>
+        <v>1881</v>
       </c>
       <c r="F1" t="s">
-        <v>1633</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="2">
@@ -8385,7 +9132,7 @@
         <v>2009</v>
       </c>
       <c r="B2" t="s">
-        <v>1621</v>
+        <v>1870</v>
       </c>
       <c r="C2">
         <v>6150953</v>
@@ -8403,7 +9150,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1622</v>
+        <v>1871</v>
       </c>
       <c r="C3">
         <v>6150953</v>
@@ -8421,7 +9168,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1623</v>
+        <v>1872</v>
       </c>
       <c r="C4">
         <v>6150953</v>
@@ -8439,7 +9186,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1624</v>
+        <v>1873</v>
       </c>
       <c r="C5">
         <v>6150953</v>
@@ -8457,7 +9204,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1625</v>
+        <v>1874</v>
       </c>
       <c r="C6">
         <v>6150953</v>
@@ -8475,7 +9222,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1626</v>
+        <v>1875</v>
       </c>
       <c r="C7">
         <v>6150953</v>
@@ -8493,7 +9240,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1627</v>
+        <v>1876</v>
       </c>
       <c r="C8">
         <v>6150953</v>
@@ -8511,7 +9258,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1628</v>
+        <v>1877</v>
       </c>
       <c r="C9">
         <v>6150953</v>
@@ -8529,7 +9276,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1629</v>
+        <v>1878</v>
       </c>
       <c r="C10">
         <v>6150953</v>

--- a/input_data/admin_data/SLV/_clean/wages-SLV.xlsx
+++ b/input_data/admin_data/SLV/_clean/wages-SLV.xlsx
@@ -28,7 +28,5236 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="1992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3735" uniqueCount="3735">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -6052,22 +11281,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1743</v>
+        <v>3486</v>
       </c>
       <c r="B1" t="s">
-        <v>1744</v>
+        <v>3487</v>
       </c>
       <c r="C1" t="s">
-        <v>1755</v>
+        <v>3498</v>
       </c>
       <c r="D1" t="s">
-        <v>1756</v>
+        <v>3499</v>
       </c>
       <c r="E1" t="s">
-        <v>1757</v>
+        <v>3500</v>
       </c>
       <c r="F1" t="s">
-        <v>1758</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="2">
@@ -6075,7 +11304,7 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>1745</v>
+        <v>3488</v>
       </c>
       <c r="C2">
         <v>6272353</v>
@@ -6093,7 +11322,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1746</v>
+        <v>3489</v>
       </c>
       <c r="C3">
         <v>6272353</v>
@@ -6111,7 +11340,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1747</v>
+        <v>3490</v>
       </c>
       <c r="C4">
         <v>6272353</v>
@@ -6129,7 +11358,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1748</v>
+        <v>3491</v>
       </c>
       <c r="C5">
         <v>6272353</v>
@@ -6147,7 +11376,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1749</v>
+        <v>3492</v>
       </c>
       <c r="C6">
         <v>6272353</v>
@@ -6165,7 +11394,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1750</v>
+        <v>3493</v>
       </c>
       <c r="C7">
         <v>6272353</v>
@@ -6183,7 +11412,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1751</v>
+        <v>3494</v>
       </c>
       <c r="C8">
         <v>6272353</v>
@@ -6201,7 +11430,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1752</v>
+        <v>3495</v>
       </c>
       <c r="C9">
         <v>6272353</v>
@@ -6219,7 +11448,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1753</v>
+        <v>3496</v>
       </c>
       <c r="C10">
         <v>6272353</v>
@@ -6237,7 +11466,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1754</v>
+        <v>3497</v>
       </c>
       <c r="C11">
         <v>6272353</v>
@@ -6263,22 +11492,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1883</v>
+        <v>3626</v>
       </c>
       <c r="B1" t="s">
-        <v>1884</v>
+        <v>3627</v>
       </c>
       <c r="C1" t="s">
-        <v>1895</v>
+        <v>3638</v>
       </c>
       <c r="D1" t="s">
-        <v>1896</v>
+        <v>3639</v>
       </c>
       <c r="E1" t="s">
-        <v>1897</v>
+        <v>3640</v>
       </c>
       <c r="F1" t="s">
-        <v>1898</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="2">
@@ -6286,7 +11515,7 @@
         <v>2010</v>
       </c>
       <c r="B2" t="s">
-        <v>1885</v>
+        <v>3628</v>
       </c>
       <c r="C2">
         <v>6181405</v>
@@ -6304,7 +11533,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1886</v>
+        <v>3629</v>
       </c>
       <c r="C3">
         <v>6181405</v>
@@ -6322,7 +11551,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1887</v>
+        <v>3630</v>
       </c>
       <c r="C4">
         <v>6181405</v>
@@ -6340,7 +11569,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1888</v>
+        <v>3631</v>
       </c>
       <c r="C5">
         <v>6181405</v>
@@ -6358,7 +11587,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1889</v>
+        <v>3632</v>
       </c>
       <c r="C6">
         <v>6181405</v>
@@ -6376,7 +11605,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1890</v>
+        <v>3633</v>
       </c>
       <c r="C7">
         <v>6181405</v>
@@ -6394,7 +11623,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1891</v>
+        <v>3634</v>
       </c>
       <c r="C8">
         <v>6181405</v>
@@ -6412,7 +11641,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1892</v>
+        <v>3635</v>
       </c>
       <c r="C9">
         <v>6181405</v>
@@ -6430,7 +11659,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1893</v>
+        <v>3636</v>
       </c>
       <c r="C10">
         <v>6181405</v>
@@ -6448,7 +11677,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1894</v>
+        <v>3637</v>
       </c>
       <c r="C11">
         <v>6181405</v>
@@ -6474,22 +11703,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1899</v>
+        <v>3642</v>
       </c>
       <c r="B1" t="s">
-        <v>1900</v>
+        <v>3643</v>
       </c>
       <c r="C1" t="s">
-        <v>1910</v>
+        <v>3653</v>
       </c>
       <c r="D1" t="s">
-        <v>1911</v>
+        <v>3654</v>
       </c>
       <c r="E1" t="s">
-        <v>1912</v>
+        <v>3655</v>
       </c>
       <c r="F1" t="s">
-        <v>1913</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="2">
@@ -6497,7 +11726,7 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>1901</v>
+        <v>3644</v>
       </c>
       <c r="C2">
         <v>6249262</v>
@@ -6515,7 +11744,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1902</v>
+        <v>3645</v>
       </c>
       <c r="C3">
         <v>6249262</v>
@@ -6533,7 +11762,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1903</v>
+        <v>3646</v>
       </c>
       <c r="C4">
         <v>6249262</v>
@@ -6551,7 +11780,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1904</v>
+        <v>3647</v>
       </c>
       <c r="C5">
         <v>6249262</v>
@@ -6569,7 +11798,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1905</v>
+        <v>3648</v>
       </c>
       <c r="C6">
         <v>6249262</v>
@@ -6587,7 +11816,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1906</v>
+        <v>3649</v>
       </c>
       <c r="C7">
         <v>6249262</v>
@@ -6605,7 +11834,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1907</v>
+        <v>3650</v>
       </c>
       <c r="C8">
         <v>6249262</v>
@@ -6623,7 +11852,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1908</v>
+        <v>3651</v>
       </c>
       <c r="C9">
         <v>6249262</v>
@@ -6641,7 +11870,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1909</v>
+        <v>3652</v>
       </c>
       <c r="C10">
         <v>6249262</v>
@@ -6667,22 +11896,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1914</v>
+        <v>3657</v>
       </c>
       <c r="B1" t="s">
-        <v>1915</v>
+        <v>3658</v>
       </c>
       <c r="C1" t="s">
-        <v>1925</v>
+        <v>3668</v>
       </c>
       <c r="D1" t="s">
-        <v>1926</v>
+        <v>3669</v>
       </c>
       <c r="E1" t="s">
-        <v>1927</v>
+        <v>3670</v>
       </c>
       <c r="F1" t="s">
-        <v>1928</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="2">
@@ -6690,7 +11919,7 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>1916</v>
+        <v>3659</v>
       </c>
       <c r="C2">
         <v>6290383</v>
@@ -6708,7 +11937,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1917</v>
+        <v>3660</v>
       </c>
       <c r="C3">
         <v>6290383</v>
@@ -6726,7 +11955,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1918</v>
+        <v>3661</v>
       </c>
       <c r="C4">
         <v>6290383</v>
@@ -6744,7 +11973,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1919</v>
+        <v>3662</v>
       </c>
       <c r="C5">
         <v>6290383</v>
@@ -6762,7 +11991,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1920</v>
+        <v>3663</v>
       </c>
       <c r="C6">
         <v>6290383</v>
@@ -6780,7 +12009,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1921</v>
+        <v>3664</v>
       </c>
       <c r="C7">
         <v>6290383</v>
@@ -6798,7 +12027,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1922</v>
+        <v>3665</v>
       </c>
       <c r="C8">
         <v>6290383</v>
@@ -6816,7 +12045,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1923</v>
+        <v>3666</v>
       </c>
       <c r="C9">
         <v>6290383</v>
@@ -6834,7 +12063,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1924</v>
+        <v>3667</v>
       </c>
       <c r="C10">
         <v>6290383</v>
@@ -6860,22 +12089,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1929</v>
+        <v>3672</v>
       </c>
       <c r="B1" t="s">
-        <v>1930</v>
+        <v>3673</v>
       </c>
       <c r="C1" t="s">
-        <v>1940</v>
+        <v>3683</v>
       </c>
       <c r="D1" t="s">
-        <v>1941</v>
+        <v>3684</v>
       </c>
       <c r="E1" t="s">
-        <v>1942</v>
+        <v>3685</v>
       </c>
       <c r="F1" t="s">
-        <v>1943</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="2">
@@ -6883,7 +12112,7 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>1931</v>
+        <v>3674</v>
       </c>
       <c r="C2">
         <v>6401415</v>
@@ -6901,7 +12130,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1932</v>
+        <v>3675</v>
       </c>
       <c r="C3">
         <v>6401415</v>
@@ -6919,7 +12148,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1933</v>
+        <v>3676</v>
       </c>
       <c r="C4">
         <v>6401415</v>
@@ -6937,7 +12166,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1934</v>
+        <v>3677</v>
       </c>
       <c r="C5">
         <v>6401415</v>
@@ -6955,7 +12184,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1935</v>
+        <v>3678</v>
       </c>
       <c r="C6">
         <v>6401415</v>
@@ -6973,7 +12202,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1936</v>
+        <v>3679</v>
       </c>
       <c r="C7">
         <v>6401415</v>
@@ -6991,7 +12220,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1937</v>
+        <v>3680</v>
       </c>
       <c r="C8">
         <v>6401415</v>
@@ -7009,7 +12238,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1938</v>
+        <v>3681</v>
       </c>
       <c r="C9">
         <v>6401415</v>
@@ -7027,7 +12256,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1939</v>
+        <v>3682</v>
       </c>
       <c r="C10">
         <v>6401415</v>
@@ -7053,22 +12282,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1944</v>
+        <v>3687</v>
       </c>
       <c r="B1" t="s">
-        <v>1945</v>
+        <v>3688</v>
       </c>
       <c r="C1" t="s">
-        <v>1956</v>
+        <v>3699</v>
       </c>
       <c r="D1" t="s">
-        <v>1957</v>
+        <v>3700</v>
       </c>
       <c r="E1" t="s">
-        <v>1958</v>
+        <v>3701</v>
       </c>
       <c r="F1" t="s">
-        <v>1959</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="2">
@@ -7076,7 +12305,7 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>1946</v>
+        <v>3689</v>
       </c>
       <c r="C2">
         <v>6459911</v>
@@ -7094,7 +12323,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1947</v>
+        <v>3690</v>
       </c>
       <c r="C3">
         <v>6459911</v>
@@ -7112,7 +12341,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1948</v>
+        <v>3691</v>
       </c>
       <c r="C4">
         <v>6459911</v>
@@ -7130,7 +12359,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1949</v>
+        <v>3692</v>
       </c>
       <c r="C5">
         <v>6459911</v>
@@ -7148,7 +12377,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1950</v>
+        <v>3693</v>
       </c>
       <c r="C6">
         <v>6459911</v>
@@ -7166,7 +12395,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1951</v>
+        <v>3694</v>
       </c>
       <c r="C7">
         <v>6459911</v>
@@ -7184,7 +12413,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1952</v>
+        <v>3695</v>
       </c>
       <c r="C8">
         <v>6459911</v>
@@ -7202,7 +12431,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1953</v>
+        <v>3696</v>
       </c>
       <c r="C9">
         <v>6459911</v>
@@ -7220,7 +12449,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1954</v>
+        <v>3697</v>
       </c>
       <c r="C10">
         <v>6459911</v>
@@ -7238,7 +12467,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1955</v>
+        <v>3698</v>
       </c>
       <c r="C11">
         <v>6459911</v>
@@ -7264,22 +12493,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1960</v>
+        <v>3703</v>
       </c>
       <c r="B1" t="s">
-        <v>1961</v>
+        <v>3704</v>
       </c>
       <c r="C1" t="s">
-        <v>1972</v>
+        <v>3715</v>
       </c>
       <c r="D1" t="s">
-        <v>1973</v>
+        <v>3716</v>
       </c>
       <c r="E1" t="s">
-        <v>1974</v>
+        <v>3717</v>
       </c>
       <c r="F1" t="s">
-        <v>1975</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="2">
@@ -7287,7 +12516,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>1962</v>
+        <v>3705</v>
       </c>
       <c r="C2">
         <v>6522419</v>
@@ -7305,7 +12534,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1963</v>
+        <v>3706</v>
       </c>
       <c r="C3">
         <v>6522419</v>
@@ -7323,7 +12552,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1964</v>
+        <v>3707</v>
       </c>
       <c r="C4">
         <v>6522419</v>
@@ -7341,7 +12570,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1965</v>
+        <v>3708</v>
       </c>
       <c r="C5">
         <v>6522419</v>
@@ -7359,7 +12588,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1966</v>
+        <v>3709</v>
       </c>
       <c r="C6">
         <v>6522419</v>
@@ -7377,7 +12606,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1967</v>
+        <v>3710</v>
       </c>
       <c r="C7">
         <v>6522419</v>
@@ -7395,7 +12624,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1968</v>
+        <v>3711</v>
       </c>
       <c r="C8">
         <v>6522419</v>
@@ -7413,7 +12642,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1969</v>
+        <v>3712</v>
       </c>
       <c r="C9">
         <v>6522419</v>
@@ -7431,7 +12660,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1970</v>
+        <v>3713</v>
       </c>
       <c r="C10">
         <v>6522419</v>
@@ -7449,7 +12678,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1971</v>
+        <v>3714</v>
       </c>
       <c r="C11">
         <v>6522419</v>
@@ -7475,22 +12704,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1976</v>
+        <v>3719</v>
       </c>
       <c r="B1" t="s">
-        <v>1977</v>
+        <v>3720</v>
       </c>
       <c r="C1" t="s">
-        <v>1988</v>
+        <v>3731</v>
       </c>
       <c r="D1" t="s">
-        <v>1989</v>
+        <v>3732</v>
       </c>
       <c r="E1" t="s">
-        <v>1990</v>
+        <v>3733</v>
       </c>
       <c r="F1" t="s">
-        <v>1991</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="2">
@@ -7498,7 +12727,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>1978</v>
+        <v>3721</v>
       </c>
       <c r="C2">
         <v>6581860</v>
@@ -7516,7 +12745,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1979</v>
+        <v>3722</v>
       </c>
       <c r="C3">
         <v>6581860</v>
@@ -7534,7 +12763,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1980</v>
+        <v>3723</v>
       </c>
       <c r="C4">
         <v>6581860</v>
@@ -7552,7 +12781,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1981</v>
+        <v>3724</v>
       </c>
       <c r="C5">
         <v>6581860</v>
@@ -7570,7 +12799,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1982</v>
+        <v>3725</v>
       </c>
       <c r="C6">
         <v>6581860</v>
@@ -7588,7 +12817,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1983</v>
+        <v>3726</v>
       </c>
       <c r="C7">
         <v>6581860</v>
@@ -7606,7 +12835,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1984</v>
+        <v>3727</v>
       </c>
       <c r="C8">
         <v>6581860</v>
@@ -7624,7 +12853,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1985</v>
+        <v>3728</v>
       </c>
       <c r="C9">
         <v>6581860</v>
@@ -7642,7 +12871,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1986</v>
+        <v>3729</v>
       </c>
       <c r="C10">
         <v>6581860</v>
@@ -7660,7 +12889,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1987</v>
+        <v>3730</v>
       </c>
       <c r="C11">
         <v>6581860</v>
@@ -7686,22 +12915,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1759</v>
+        <v>3502</v>
       </c>
       <c r="B1" t="s">
-        <v>1760</v>
+        <v>3503</v>
       </c>
       <c r="C1" t="s">
-        <v>1771</v>
+        <v>3514</v>
       </c>
       <c r="D1" t="s">
-        <v>1772</v>
+        <v>3515</v>
       </c>
       <c r="E1" t="s">
-        <v>1773</v>
+        <v>3516</v>
       </c>
       <c r="F1" t="s">
-        <v>1774</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="2">
@@ -7709,7 +12938,7 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>1761</v>
+        <v>3504</v>
       </c>
       <c r="C2">
         <v>6428672</v>
@@ -7727,7 +12956,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1762</v>
+        <v>3505</v>
       </c>
       <c r="C3">
         <v>6428672</v>
@@ -7745,7 +12974,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1763</v>
+        <v>3506</v>
       </c>
       <c r="C4">
         <v>6428672</v>
@@ -7763,7 +12992,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1764</v>
+        <v>3507</v>
       </c>
       <c r="C5">
         <v>6428672</v>
@@ -7781,7 +13010,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1765</v>
+        <v>3508</v>
       </c>
       <c r="C6">
         <v>6428672</v>
@@ -7799,7 +13028,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1766</v>
+        <v>3509</v>
       </c>
       <c r="C7">
         <v>6428672</v>
@@ -7817,7 +13046,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1767</v>
+        <v>3510</v>
       </c>
       <c r="C8">
         <v>6428672</v>
@@ -7835,7 +13064,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1768</v>
+        <v>3511</v>
       </c>
       <c r="C9">
         <v>6428672</v>
@@ -7853,7 +13082,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1769</v>
+        <v>3512</v>
       </c>
       <c r="C10">
         <v>6428672</v>
@@ -7871,7 +13100,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1770</v>
+        <v>3513</v>
       </c>
       <c r="C11">
         <v>6428672</v>
@@ -7897,22 +13126,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1775</v>
+        <v>3518</v>
       </c>
       <c r="B1" t="s">
-        <v>1776</v>
+        <v>3519</v>
       </c>
       <c r="C1" t="s">
-        <v>1786</v>
+        <v>3529</v>
       </c>
       <c r="D1" t="s">
-        <v>1787</v>
+        <v>3530</v>
       </c>
       <c r="E1" t="s">
-        <v>1788</v>
+        <v>3531</v>
       </c>
       <c r="F1" t="s">
-        <v>1789</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="2">
@@ -7920,7 +13149,7 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>1777</v>
+        <v>3520</v>
       </c>
       <c r="C2">
         <v>6510348</v>
@@ -7938,7 +13167,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1778</v>
+        <v>3521</v>
       </c>
       <c r="C3">
         <v>6510348</v>
@@ -7956,7 +13185,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1779</v>
+        <v>3522</v>
       </c>
       <c r="C4">
         <v>6510348</v>
@@ -7974,7 +13203,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1780</v>
+        <v>3523</v>
       </c>
       <c r="C5">
         <v>6510348</v>
@@ -7992,7 +13221,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1781</v>
+        <v>3524</v>
       </c>
       <c r="C6">
         <v>6510348</v>
@@ -8010,7 +13239,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1782</v>
+        <v>3525</v>
       </c>
       <c r="C7">
         <v>6510348</v>
@@ -8028,7 +13257,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1783</v>
+        <v>3526</v>
       </c>
       <c r="C8">
         <v>6510348</v>
@@ -8046,7 +13275,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1784</v>
+        <v>3527</v>
       </c>
       <c r="C9">
         <v>6510348</v>
@@ -8064,7 +13293,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1785</v>
+        <v>3528</v>
       </c>
       <c r="C10">
         <v>6510348</v>
@@ -8090,22 +13319,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1790</v>
+        <v>3533</v>
       </c>
       <c r="B1" t="s">
-        <v>1791</v>
+        <v>3534</v>
       </c>
       <c r="C1" t="s">
-        <v>1801</v>
+        <v>3544</v>
       </c>
       <c r="D1" t="s">
-        <v>1802</v>
+        <v>3545</v>
       </c>
       <c r="E1" t="s">
-        <v>1803</v>
+        <v>3546</v>
       </c>
       <c r="F1" t="s">
-        <v>1804</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="2">
@@ -8113,7 +13342,7 @@
         <v>2003</v>
       </c>
       <c r="B2" t="s">
-        <v>1792</v>
+        <v>3535</v>
       </c>
       <c r="C2">
         <v>6639010</v>
@@ -8131,7 +13360,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1793</v>
+        <v>3536</v>
       </c>
       <c r="C3">
         <v>6639010</v>
@@ -8149,7 +13378,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1794</v>
+        <v>3537</v>
       </c>
       <c r="C4">
         <v>6639010</v>
@@ -8167,7 +13396,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1795</v>
+        <v>3538</v>
       </c>
       <c r="C5">
         <v>6639010</v>
@@ -8185,7 +13414,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1796</v>
+        <v>3539</v>
       </c>
       <c r="C6">
         <v>6639010</v>
@@ -8203,7 +13432,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1797</v>
+        <v>3540</v>
       </c>
       <c r="C7">
         <v>6639010</v>
@@ -8221,7 +13450,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1798</v>
+        <v>3541</v>
       </c>
       <c r="C8">
         <v>6639010</v>
@@ -8239,7 +13468,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1799</v>
+        <v>3542</v>
       </c>
       <c r="C9">
         <v>6639010</v>
@@ -8257,7 +13486,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1800</v>
+        <v>3543</v>
       </c>
       <c r="C10">
         <v>6639010</v>
@@ -8283,22 +13512,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1805</v>
+        <v>3548</v>
       </c>
       <c r="B1" t="s">
-        <v>1806</v>
+        <v>3549</v>
       </c>
       <c r="C1" t="s">
-        <v>1816</v>
+        <v>3559</v>
       </c>
       <c r="D1" t="s">
-        <v>1817</v>
+        <v>3560</v>
       </c>
       <c r="E1" t="s">
-        <v>1818</v>
+        <v>3561</v>
       </c>
       <c r="F1" t="s">
-        <v>1819</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="2">
@@ -8306,7 +13535,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="s">
-        <v>1807</v>
+        <v>3550</v>
       </c>
       <c r="C2">
         <v>6756786</v>
@@ -8324,7 +13553,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1808</v>
+        <v>3551</v>
       </c>
       <c r="C3">
         <v>6756786</v>
@@ -8342,7 +13571,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1809</v>
+        <v>3552</v>
       </c>
       <c r="C4">
         <v>6756786</v>
@@ -8360,7 +13589,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1810</v>
+        <v>3553</v>
       </c>
       <c r="C5">
         <v>6756786</v>
@@ -8378,7 +13607,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1811</v>
+        <v>3554</v>
       </c>
       <c r="C6">
         <v>6756786</v>
@@ -8396,7 +13625,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1812</v>
+        <v>3555</v>
       </c>
       <c r="C7">
         <v>6756786</v>
@@ -8414,7 +13643,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1813</v>
+        <v>3556</v>
       </c>
       <c r="C8">
         <v>6756786</v>
@@ -8432,7 +13661,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1814</v>
+        <v>3557</v>
       </c>
       <c r="C9">
         <v>6756786</v>
@@ -8450,7 +13679,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1815</v>
+        <v>3558</v>
       </c>
       <c r="C10">
         <v>6756786</v>
@@ -8476,22 +13705,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1820</v>
+        <v>3563</v>
       </c>
       <c r="B1" t="s">
-        <v>1821</v>
+        <v>3564</v>
       </c>
       <c r="C1" t="s">
-        <v>1832</v>
+        <v>3575</v>
       </c>
       <c r="D1" t="s">
-        <v>1833</v>
+        <v>3576</v>
       </c>
       <c r="E1" t="s">
-        <v>1834</v>
+        <v>3577</v>
       </c>
       <c r="F1" t="s">
-        <v>1835</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="2">
@@ -8499,7 +13728,7 @@
         <v>2005</v>
       </c>
       <c r="B2" t="s">
-        <v>1822</v>
+        <v>3565</v>
       </c>
       <c r="C2">
         <v>6864080</v>
@@ -8517,7 +13746,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1823</v>
+        <v>3566</v>
       </c>
       <c r="C3">
         <v>6864080</v>
@@ -8535,7 +13764,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1824</v>
+        <v>3567</v>
       </c>
       <c r="C4">
         <v>6864080</v>
@@ -8553,7 +13782,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1825</v>
+        <v>3568</v>
       </c>
       <c r="C5">
         <v>6864080</v>
@@ -8571,7 +13800,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1826</v>
+        <v>3569</v>
       </c>
       <c r="C6">
         <v>6864080</v>
@@ -8589,7 +13818,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1827</v>
+        <v>3570</v>
       </c>
       <c r="C7">
         <v>6864080</v>
@@ -8607,7 +13836,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1828</v>
+        <v>3571</v>
       </c>
       <c r="C8">
         <v>6864080</v>
@@ -8625,7 +13854,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1829</v>
+        <v>3572</v>
       </c>
       <c r="C9">
         <v>6864080</v>
@@ -8643,7 +13872,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1830</v>
+        <v>3573</v>
       </c>
       <c r="C10">
         <v>6864080</v>
@@ -8661,7 +13890,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1831</v>
+        <v>3574</v>
       </c>
       <c r="C11">
         <v>6864080</v>
@@ -8687,22 +13916,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1836</v>
+        <v>3579</v>
       </c>
       <c r="B1" t="s">
-        <v>1837</v>
+        <v>3580</v>
       </c>
       <c r="C1" t="s">
-        <v>1848</v>
+        <v>3591</v>
       </c>
       <c r="D1" t="s">
-        <v>1849</v>
+        <v>3592</v>
       </c>
       <c r="E1" t="s">
-        <v>1850</v>
+        <v>3593</v>
       </c>
       <c r="F1" t="s">
-        <v>1851</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="2">
@@ -8710,7 +13939,7 @@
         <v>2006</v>
       </c>
       <c r="B2" t="s">
-        <v>1838</v>
+        <v>3581</v>
       </c>
       <c r="C2">
         <v>6980279</v>
@@ -8728,7 +13957,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1839</v>
+        <v>3582</v>
       </c>
       <c r="C3">
         <v>6980279</v>
@@ -8746,7 +13975,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1840</v>
+        <v>3583</v>
       </c>
       <c r="C4">
         <v>6980279</v>
@@ -8764,7 +13993,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1841</v>
+        <v>3584</v>
       </c>
       <c r="C5">
         <v>6980279</v>
@@ -8782,7 +14011,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1842</v>
+        <v>3585</v>
       </c>
       <c r="C6">
         <v>6980279</v>
@@ -8800,7 +14029,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1843</v>
+        <v>3586</v>
       </c>
       <c r="C7">
         <v>6980279</v>
@@ -8818,7 +14047,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1844</v>
+        <v>3587</v>
       </c>
       <c r="C8">
         <v>6980279</v>
@@ -8836,7 +14065,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1845</v>
+        <v>3588</v>
       </c>
       <c r="C9">
         <v>6980279</v>
@@ -8854,7 +14083,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1846</v>
+        <v>3589</v>
       </c>
       <c r="C10">
         <v>6980279</v>
@@ -8872,7 +14101,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1847</v>
+        <v>3590</v>
       </c>
       <c r="C11">
         <v>6980279</v>
@@ -8898,22 +14127,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1852</v>
+        <v>3595</v>
       </c>
       <c r="B1" t="s">
-        <v>1853</v>
+        <v>3596</v>
       </c>
       <c r="C1" t="s">
-        <v>1864</v>
+        <v>3607</v>
       </c>
       <c r="D1" t="s">
-        <v>1865</v>
+        <v>3608</v>
       </c>
       <c r="E1" t="s">
-        <v>1866</v>
+        <v>3609</v>
       </c>
       <c r="F1" t="s">
-        <v>1867</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="2">
@@ -8921,7 +14150,7 @@
         <v>2007</v>
       </c>
       <c r="B2" t="s">
-        <v>1854</v>
+        <v>3597</v>
       </c>
       <c r="C2">
         <v>5744575</v>
@@ -8939,7 +14168,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1855</v>
+        <v>3598</v>
       </c>
       <c r="C3">
         <v>5744575</v>
@@ -8957,7 +14186,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1856</v>
+        <v>3599</v>
       </c>
       <c r="C4">
         <v>5744575</v>
@@ -8975,7 +14204,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1857</v>
+        <v>3600</v>
       </c>
       <c r="C5">
         <v>5744575</v>
@@ -8993,7 +14222,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1858</v>
+        <v>3601</v>
       </c>
       <c r="C6">
         <v>5744575</v>
@@ -9011,7 +14240,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1859</v>
+        <v>3602</v>
       </c>
       <c r="C7">
         <v>5744575</v>
@@ -9029,7 +14258,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1860</v>
+        <v>3603</v>
       </c>
       <c r="C8">
         <v>5744575</v>
@@ -9047,7 +14276,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1861</v>
+        <v>3604</v>
       </c>
       <c r="C9">
         <v>5744575</v>
@@ -9065,7 +14294,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1862</v>
+        <v>3605</v>
       </c>
       <c r="C10">
         <v>5744575</v>
@@ -9083,7 +14312,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1863</v>
+        <v>3606</v>
       </c>
       <c r="C11">
         <v>5744575</v>
@@ -9109,22 +14338,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1868</v>
+        <v>3611</v>
       </c>
       <c r="B1" t="s">
-        <v>1869</v>
+        <v>3612</v>
       </c>
       <c r="C1" t="s">
-        <v>1879</v>
+        <v>3622</v>
       </c>
       <c r="D1" t="s">
-        <v>1880</v>
+        <v>3623</v>
       </c>
       <c r="E1" t="s">
-        <v>1881</v>
+        <v>3624</v>
       </c>
       <c r="F1" t="s">
-        <v>1882</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="2">
@@ -9132,7 +14361,7 @@
         <v>2009</v>
       </c>
       <c r="B2" t="s">
-        <v>1870</v>
+        <v>3613</v>
       </c>
       <c r="C2">
         <v>6150953</v>
@@ -9150,7 +14379,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1871</v>
+        <v>3614</v>
       </c>
       <c r="C3">
         <v>6150953</v>
@@ -9168,7 +14397,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1872</v>
+        <v>3615</v>
       </c>
       <c r="C4">
         <v>6150953</v>
@@ -9186,7 +14415,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1873</v>
+        <v>3616</v>
       </c>
       <c r="C5">
         <v>6150953</v>
@@ -9204,7 +14433,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1874</v>
+        <v>3617</v>
       </c>
       <c r="C6">
         <v>6150953</v>
@@ -9222,7 +14451,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1875</v>
+        <v>3618</v>
       </c>
       <c r="C7">
         <v>6150953</v>
@@ -9240,7 +14469,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1876</v>
+        <v>3619</v>
       </c>
       <c r="C8">
         <v>6150953</v>
@@ -9258,7 +14487,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1877</v>
+        <v>3620</v>
       </c>
       <c r="C9">
         <v>6150953</v>
@@ -9276,7 +14505,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1878</v>
+        <v>3621</v>
       </c>
       <c r="C10">
         <v>6150953</v>

--- a/input_data/admin_data/SLV/_clean/wages-SLV.xlsx
+++ b/input_data/admin_data/SLV/_clean/wages-SLV.xlsx
@@ -28,7 +28,2248 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3735" uniqueCount="3735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4482" uniqueCount="4482">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -11281,22 +13522,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3486</v>
+        <v>4233</v>
       </c>
       <c r="B1" t="s">
-        <v>3487</v>
+        <v>4234</v>
       </c>
       <c r="C1" t="s">
-        <v>3498</v>
+        <v>4245</v>
       </c>
       <c r="D1" t="s">
-        <v>3499</v>
+        <v>4246</v>
       </c>
       <c r="E1" t="s">
-        <v>3500</v>
+        <v>4247</v>
       </c>
       <c r="F1" t="s">
-        <v>3501</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="2">
@@ -11304,7 +13545,7 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>3488</v>
+        <v>4235</v>
       </c>
       <c r="C2">
         <v>6272353</v>
@@ -11322,7 +13563,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3489</v>
+        <v>4236</v>
       </c>
       <c r="C3">
         <v>6272353</v>
@@ -11340,7 +13581,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3490</v>
+        <v>4237</v>
       </c>
       <c r="C4">
         <v>6272353</v>
@@ -11358,7 +13599,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3491</v>
+        <v>4238</v>
       </c>
       <c r="C5">
         <v>6272353</v>
@@ -11376,7 +13617,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3492</v>
+        <v>4239</v>
       </c>
       <c r="C6">
         <v>6272353</v>
@@ -11394,7 +13635,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3493</v>
+        <v>4240</v>
       </c>
       <c r="C7">
         <v>6272353</v>
@@ -11412,7 +13653,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3494</v>
+        <v>4241</v>
       </c>
       <c r="C8">
         <v>6272353</v>
@@ -11430,7 +13671,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3495</v>
+        <v>4242</v>
       </c>
       <c r="C9">
         <v>6272353</v>
@@ -11448,7 +13689,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3496</v>
+        <v>4243</v>
       </c>
       <c r="C10">
         <v>6272353</v>
@@ -11466,7 +13707,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3497</v>
+        <v>4244</v>
       </c>
       <c r="C11">
         <v>6272353</v>
@@ -11492,22 +13733,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3626</v>
+        <v>4373</v>
       </c>
       <c r="B1" t="s">
-        <v>3627</v>
+        <v>4374</v>
       </c>
       <c r="C1" t="s">
-        <v>3638</v>
+        <v>4385</v>
       </c>
       <c r="D1" t="s">
-        <v>3639</v>
+        <v>4386</v>
       </c>
       <c r="E1" t="s">
-        <v>3640</v>
+        <v>4387</v>
       </c>
       <c r="F1" t="s">
-        <v>3641</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="2">
@@ -11515,7 +13756,7 @@
         <v>2010</v>
       </c>
       <c r="B2" t="s">
-        <v>3628</v>
+        <v>4375</v>
       </c>
       <c r="C2">
         <v>6181405</v>
@@ -11533,7 +13774,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3629</v>
+        <v>4376</v>
       </c>
       <c r="C3">
         <v>6181405</v>
@@ -11551,7 +13792,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3630</v>
+        <v>4377</v>
       </c>
       <c r="C4">
         <v>6181405</v>
@@ -11569,7 +13810,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3631</v>
+        <v>4378</v>
       </c>
       <c r="C5">
         <v>6181405</v>
@@ -11587,7 +13828,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3632</v>
+        <v>4379</v>
       </c>
       <c r="C6">
         <v>6181405</v>
@@ -11605,7 +13846,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3633</v>
+        <v>4380</v>
       </c>
       <c r="C7">
         <v>6181405</v>
@@ -11623,7 +13864,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3634</v>
+        <v>4381</v>
       </c>
       <c r="C8">
         <v>6181405</v>
@@ -11641,7 +13882,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3635</v>
+        <v>4382</v>
       </c>
       <c r="C9">
         <v>6181405</v>
@@ -11659,7 +13900,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3636</v>
+        <v>4383</v>
       </c>
       <c r="C10">
         <v>6181405</v>
@@ -11677,7 +13918,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3637</v>
+        <v>4384</v>
       </c>
       <c r="C11">
         <v>6181405</v>
@@ -11703,22 +13944,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3642</v>
+        <v>4389</v>
       </c>
       <c r="B1" t="s">
-        <v>3643</v>
+        <v>4390</v>
       </c>
       <c r="C1" t="s">
-        <v>3653</v>
+        <v>4400</v>
       </c>
       <c r="D1" t="s">
-        <v>3654</v>
+        <v>4401</v>
       </c>
       <c r="E1" t="s">
-        <v>3655</v>
+        <v>4402</v>
       </c>
       <c r="F1" t="s">
-        <v>3656</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="2">
@@ -11726,7 +13967,7 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>3644</v>
+        <v>4391</v>
       </c>
       <c r="C2">
         <v>6249262</v>
@@ -11744,7 +13985,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3645</v>
+        <v>4392</v>
       </c>
       <c r="C3">
         <v>6249262</v>
@@ -11762,7 +14003,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3646</v>
+        <v>4393</v>
       </c>
       <c r="C4">
         <v>6249262</v>
@@ -11780,7 +14021,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3647</v>
+        <v>4394</v>
       </c>
       <c r="C5">
         <v>6249262</v>
@@ -11798,7 +14039,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3648</v>
+        <v>4395</v>
       </c>
       <c r="C6">
         <v>6249262</v>
@@ -11816,7 +14057,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3649</v>
+        <v>4396</v>
       </c>
       <c r="C7">
         <v>6249262</v>
@@ -11834,7 +14075,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3650</v>
+        <v>4397</v>
       </c>
       <c r="C8">
         <v>6249262</v>
@@ -11852,7 +14093,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3651</v>
+        <v>4398</v>
       </c>
       <c r="C9">
         <v>6249262</v>
@@ -11870,7 +14111,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3652</v>
+        <v>4399</v>
       </c>
       <c r="C10">
         <v>6249262</v>
@@ -11896,22 +14137,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3657</v>
+        <v>4404</v>
       </c>
       <c r="B1" t="s">
-        <v>3658</v>
+        <v>4405</v>
       </c>
       <c r="C1" t="s">
-        <v>3668</v>
+        <v>4415</v>
       </c>
       <c r="D1" t="s">
-        <v>3669</v>
+        <v>4416</v>
       </c>
       <c r="E1" t="s">
-        <v>3670</v>
+        <v>4417</v>
       </c>
       <c r="F1" t="s">
-        <v>3671</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="2">
@@ -11919,7 +14160,7 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>3659</v>
+        <v>4406</v>
       </c>
       <c r="C2">
         <v>6290383</v>
@@ -11937,7 +14178,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3660</v>
+        <v>4407</v>
       </c>
       <c r="C3">
         <v>6290383</v>
@@ -11955,7 +14196,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3661</v>
+        <v>4408</v>
       </c>
       <c r="C4">
         <v>6290383</v>
@@ -11973,7 +14214,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3662</v>
+        <v>4409</v>
       </c>
       <c r="C5">
         <v>6290383</v>
@@ -11991,7 +14232,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3663</v>
+        <v>4410</v>
       </c>
       <c r="C6">
         <v>6290383</v>
@@ -12009,7 +14250,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3664</v>
+        <v>4411</v>
       </c>
       <c r="C7">
         <v>6290383</v>
@@ -12027,7 +14268,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3665</v>
+        <v>4412</v>
       </c>
       <c r="C8">
         <v>6290383</v>
@@ -12045,7 +14286,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3666</v>
+        <v>4413</v>
       </c>
       <c r="C9">
         <v>6290383</v>
@@ -12063,7 +14304,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3667</v>
+        <v>4414</v>
       </c>
       <c r="C10">
         <v>6290383</v>
@@ -12089,22 +14330,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3672</v>
+        <v>4419</v>
       </c>
       <c r="B1" t="s">
-        <v>3673</v>
+        <v>4420</v>
       </c>
       <c r="C1" t="s">
-        <v>3683</v>
+        <v>4430</v>
       </c>
       <c r="D1" t="s">
-        <v>3684</v>
+        <v>4431</v>
       </c>
       <c r="E1" t="s">
-        <v>3685</v>
+        <v>4432</v>
       </c>
       <c r="F1" t="s">
-        <v>3686</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="2">
@@ -12112,7 +14353,7 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>3674</v>
+        <v>4421</v>
       </c>
       <c r="C2">
         <v>6401415</v>
@@ -12130,7 +14371,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3675</v>
+        <v>4422</v>
       </c>
       <c r="C3">
         <v>6401415</v>
@@ -12148,7 +14389,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3676</v>
+        <v>4423</v>
       </c>
       <c r="C4">
         <v>6401415</v>
@@ -12166,7 +14407,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3677</v>
+        <v>4424</v>
       </c>
       <c r="C5">
         <v>6401415</v>
@@ -12184,7 +14425,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3678</v>
+        <v>4425</v>
       </c>
       <c r="C6">
         <v>6401415</v>
@@ -12202,7 +14443,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3679</v>
+        <v>4426</v>
       </c>
       <c r="C7">
         <v>6401415</v>
@@ -12220,7 +14461,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3680</v>
+        <v>4427</v>
       </c>
       <c r="C8">
         <v>6401415</v>
@@ -12238,7 +14479,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3681</v>
+        <v>4428</v>
       </c>
       <c r="C9">
         <v>6401415</v>
@@ -12256,7 +14497,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3682</v>
+        <v>4429</v>
       </c>
       <c r="C10">
         <v>6401415</v>
@@ -12282,22 +14523,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3687</v>
+        <v>4434</v>
       </c>
       <c r="B1" t="s">
-        <v>3688</v>
+        <v>4435</v>
       </c>
       <c r="C1" t="s">
-        <v>3699</v>
+        <v>4446</v>
       </c>
       <c r="D1" t="s">
-        <v>3700</v>
+        <v>4447</v>
       </c>
       <c r="E1" t="s">
-        <v>3701</v>
+        <v>4448</v>
       </c>
       <c r="F1" t="s">
-        <v>3702</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="2">
@@ -12305,7 +14546,7 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>3689</v>
+        <v>4436</v>
       </c>
       <c r="C2">
         <v>6459911</v>
@@ -12323,7 +14564,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3690</v>
+        <v>4437</v>
       </c>
       <c r="C3">
         <v>6459911</v>
@@ -12341,7 +14582,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3691</v>
+        <v>4438</v>
       </c>
       <c r="C4">
         <v>6459911</v>
@@ -12359,7 +14600,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3692</v>
+        <v>4439</v>
       </c>
       <c r="C5">
         <v>6459911</v>
@@ -12377,7 +14618,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3693</v>
+        <v>4440</v>
       </c>
       <c r="C6">
         <v>6459911</v>
@@ -12395,7 +14636,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3694</v>
+        <v>4441</v>
       </c>
       <c r="C7">
         <v>6459911</v>
@@ -12413,7 +14654,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3695</v>
+        <v>4442</v>
       </c>
       <c r="C8">
         <v>6459911</v>
@@ -12431,7 +14672,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3696</v>
+        <v>4443</v>
       </c>
       <c r="C9">
         <v>6459911</v>
@@ -12449,7 +14690,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3697</v>
+        <v>4444</v>
       </c>
       <c r="C10">
         <v>6459911</v>
@@ -12467,7 +14708,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3698</v>
+        <v>4445</v>
       </c>
       <c r="C11">
         <v>6459911</v>
@@ -12493,22 +14734,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3703</v>
+        <v>4450</v>
       </c>
       <c r="B1" t="s">
-        <v>3704</v>
+        <v>4451</v>
       </c>
       <c r="C1" t="s">
-        <v>3715</v>
+        <v>4462</v>
       </c>
       <c r="D1" t="s">
-        <v>3716</v>
+        <v>4463</v>
       </c>
       <c r="E1" t="s">
-        <v>3717</v>
+        <v>4464</v>
       </c>
       <c r="F1" t="s">
-        <v>3718</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="2">
@@ -12516,7 +14757,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>3705</v>
+        <v>4452</v>
       </c>
       <c r="C2">
         <v>6522419</v>
@@ -12534,7 +14775,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3706</v>
+        <v>4453</v>
       </c>
       <c r="C3">
         <v>6522419</v>
@@ -12552,7 +14793,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3707</v>
+        <v>4454</v>
       </c>
       <c r="C4">
         <v>6522419</v>
@@ -12570,7 +14811,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3708</v>
+        <v>4455</v>
       </c>
       <c r="C5">
         <v>6522419</v>
@@ -12588,7 +14829,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3709</v>
+        <v>4456</v>
       </c>
       <c r="C6">
         <v>6522419</v>
@@ -12606,7 +14847,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3710</v>
+        <v>4457</v>
       </c>
       <c r="C7">
         <v>6522419</v>
@@ -12624,7 +14865,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3711</v>
+        <v>4458</v>
       </c>
       <c r="C8">
         <v>6522419</v>
@@ -12642,7 +14883,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3712</v>
+        <v>4459</v>
       </c>
       <c r="C9">
         <v>6522419</v>
@@ -12660,7 +14901,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3713</v>
+        <v>4460</v>
       </c>
       <c r="C10">
         <v>6522419</v>
@@ -12678,7 +14919,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3714</v>
+        <v>4461</v>
       </c>
       <c r="C11">
         <v>6522419</v>
@@ -12704,22 +14945,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3719</v>
+        <v>4466</v>
       </c>
       <c r="B1" t="s">
-        <v>3720</v>
+        <v>4467</v>
       </c>
       <c r="C1" t="s">
-        <v>3731</v>
+        <v>4478</v>
       </c>
       <c r="D1" t="s">
-        <v>3732</v>
+        <v>4479</v>
       </c>
       <c r="E1" t="s">
-        <v>3733</v>
+        <v>4480</v>
       </c>
       <c r="F1" t="s">
-        <v>3734</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="2">
@@ -12727,7 +14968,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>3721</v>
+        <v>4468</v>
       </c>
       <c r="C2">
         <v>6581860</v>
@@ -12745,7 +14986,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3722</v>
+        <v>4469</v>
       </c>
       <c r="C3">
         <v>6581860</v>
@@ -12763,7 +15004,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3723</v>
+        <v>4470</v>
       </c>
       <c r="C4">
         <v>6581860</v>
@@ -12781,7 +15022,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3724</v>
+        <v>4471</v>
       </c>
       <c r="C5">
         <v>6581860</v>
@@ -12799,7 +15040,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3725</v>
+        <v>4472</v>
       </c>
       <c r="C6">
         <v>6581860</v>
@@ -12817,7 +15058,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3726</v>
+        <v>4473</v>
       </c>
       <c r="C7">
         <v>6581860</v>
@@ -12835,7 +15076,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3727</v>
+        <v>4474</v>
       </c>
       <c r="C8">
         <v>6581860</v>
@@ -12853,7 +15094,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3728</v>
+        <v>4475</v>
       </c>
       <c r="C9">
         <v>6581860</v>
@@ -12871,7 +15112,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3729</v>
+        <v>4476</v>
       </c>
       <c r="C10">
         <v>6581860</v>
@@ -12889,7 +15130,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3730</v>
+        <v>4477</v>
       </c>
       <c r="C11">
         <v>6581860</v>
@@ -12915,22 +15156,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3502</v>
+        <v>4249</v>
       </c>
       <c r="B1" t="s">
-        <v>3503</v>
+        <v>4250</v>
       </c>
       <c r="C1" t="s">
-        <v>3514</v>
+        <v>4261</v>
       </c>
       <c r="D1" t="s">
-        <v>3515</v>
+        <v>4262</v>
       </c>
       <c r="E1" t="s">
-        <v>3516</v>
+        <v>4263</v>
       </c>
       <c r="F1" t="s">
-        <v>3517</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="2">
@@ -12938,7 +15179,7 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>3504</v>
+        <v>4251</v>
       </c>
       <c r="C2">
         <v>6428672</v>
@@ -12956,7 +15197,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3505</v>
+        <v>4252</v>
       </c>
       <c r="C3">
         <v>6428672</v>
@@ -12974,7 +15215,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3506</v>
+        <v>4253</v>
       </c>
       <c r="C4">
         <v>6428672</v>
@@ -12992,7 +15233,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3507</v>
+        <v>4254</v>
       </c>
       <c r="C5">
         <v>6428672</v>
@@ -13010,7 +15251,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3508</v>
+        <v>4255</v>
       </c>
       <c r="C6">
         <v>6428672</v>
@@ -13028,7 +15269,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3509</v>
+        <v>4256</v>
       </c>
       <c r="C7">
         <v>6428672</v>
@@ -13046,7 +15287,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3510</v>
+        <v>4257</v>
       </c>
       <c r="C8">
         <v>6428672</v>
@@ -13064,7 +15305,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3511</v>
+        <v>4258</v>
       </c>
       <c r="C9">
         <v>6428672</v>
@@ -13082,7 +15323,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3512</v>
+        <v>4259</v>
       </c>
       <c r="C10">
         <v>6428672</v>
@@ -13100,7 +15341,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3513</v>
+        <v>4260</v>
       </c>
       <c r="C11">
         <v>6428672</v>
@@ -13126,22 +15367,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3518</v>
+        <v>4265</v>
       </c>
       <c r="B1" t="s">
-        <v>3519</v>
+        <v>4266</v>
       </c>
       <c r="C1" t="s">
-        <v>3529</v>
+        <v>4276</v>
       </c>
       <c r="D1" t="s">
-        <v>3530</v>
+        <v>4277</v>
       </c>
       <c r="E1" t="s">
-        <v>3531</v>
+        <v>4278</v>
       </c>
       <c r="F1" t="s">
-        <v>3532</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="2">
@@ -13149,7 +15390,7 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>3520</v>
+        <v>4267</v>
       </c>
       <c r="C2">
         <v>6510348</v>
@@ -13167,7 +15408,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3521</v>
+        <v>4268</v>
       </c>
       <c r="C3">
         <v>6510348</v>
@@ -13185,7 +15426,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3522</v>
+        <v>4269</v>
       </c>
       <c r="C4">
         <v>6510348</v>
@@ -13203,7 +15444,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3523</v>
+        <v>4270</v>
       </c>
       <c r="C5">
         <v>6510348</v>
@@ -13221,7 +15462,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3524</v>
+        <v>4271</v>
       </c>
       <c r="C6">
         <v>6510348</v>
@@ -13239,7 +15480,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3525</v>
+        <v>4272</v>
       </c>
       <c r="C7">
         <v>6510348</v>
@@ -13257,7 +15498,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3526</v>
+        <v>4273</v>
       </c>
       <c r="C8">
         <v>6510348</v>
@@ -13275,7 +15516,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3527</v>
+        <v>4274</v>
       </c>
       <c r="C9">
         <v>6510348</v>
@@ -13293,7 +15534,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3528</v>
+        <v>4275</v>
       </c>
       <c r="C10">
         <v>6510348</v>
@@ -13319,22 +15560,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3533</v>
+        <v>4280</v>
       </c>
       <c r="B1" t="s">
-        <v>3534</v>
+        <v>4281</v>
       </c>
       <c r="C1" t="s">
-        <v>3544</v>
+        <v>4291</v>
       </c>
       <c r="D1" t="s">
-        <v>3545</v>
+        <v>4292</v>
       </c>
       <c r="E1" t="s">
-        <v>3546</v>
+        <v>4293</v>
       </c>
       <c r="F1" t="s">
-        <v>3547</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="2">
@@ -13342,7 +15583,7 @@
         <v>2003</v>
       </c>
       <c r="B2" t="s">
-        <v>3535</v>
+        <v>4282</v>
       </c>
       <c r="C2">
         <v>6639010</v>
@@ -13360,7 +15601,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3536</v>
+        <v>4283</v>
       </c>
       <c r="C3">
         <v>6639010</v>
@@ -13378,7 +15619,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3537</v>
+        <v>4284</v>
       </c>
       <c r="C4">
         <v>6639010</v>
@@ -13396,7 +15637,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3538</v>
+        <v>4285</v>
       </c>
       <c r="C5">
         <v>6639010</v>
@@ -13414,7 +15655,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3539</v>
+        <v>4286</v>
       </c>
       <c r="C6">
         <v>6639010</v>
@@ -13432,7 +15673,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3540</v>
+        <v>4287</v>
       </c>
       <c r="C7">
         <v>6639010</v>
@@ -13450,7 +15691,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3541</v>
+        <v>4288</v>
       </c>
       <c r="C8">
         <v>6639010</v>
@@ -13468,7 +15709,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3542</v>
+        <v>4289</v>
       </c>
       <c r="C9">
         <v>6639010</v>
@@ -13486,7 +15727,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3543</v>
+        <v>4290</v>
       </c>
       <c r="C10">
         <v>6639010</v>
@@ -13512,22 +15753,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3548</v>
+        <v>4295</v>
       </c>
       <c r="B1" t="s">
-        <v>3549</v>
+        <v>4296</v>
       </c>
       <c r="C1" t="s">
-        <v>3559</v>
+        <v>4306</v>
       </c>
       <c r="D1" t="s">
-        <v>3560</v>
+        <v>4307</v>
       </c>
       <c r="E1" t="s">
-        <v>3561</v>
+        <v>4308</v>
       </c>
       <c r="F1" t="s">
-        <v>3562</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="2">
@@ -13535,7 +15776,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="s">
-        <v>3550</v>
+        <v>4297</v>
       </c>
       <c r="C2">
         <v>6756786</v>
@@ -13553,7 +15794,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3551</v>
+        <v>4298</v>
       </c>
       <c r="C3">
         <v>6756786</v>
@@ -13571,7 +15812,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3552</v>
+        <v>4299</v>
       </c>
       <c r="C4">
         <v>6756786</v>
@@ -13589,7 +15830,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3553</v>
+        <v>4300</v>
       </c>
       <c r="C5">
         <v>6756786</v>
@@ -13607,7 +15848,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3554</v>
+        <v>4301</v>
       </c>
       <c r="C6">
         <v>6756786</v>
@@ -13625,7 +15866,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3555</v>
+        <v>4302</v>
       </c>
       <c r="C7">
         <v>6756786</v>
@@ -13643,7 +15884,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3556</v>
+        <v>4303</v>
       </c>
       <c r="C8">
         <v>6756786</v>
@@ -13661,7 +15902,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3557</v>
+        <v>4304</v>
       </c>
       <c r="C9">
         <v>6756786</v>
@@ -13679,7 +15920,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3558</v>
+        <v>4305</v>
       </c>
       <c r="C10">
         <v>6756786</v>
@@ -13705,22 +15946,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3563</v>
+        <v>4310</v>
       </c>
       <c r="B1" t="s">
-        <v>3564</v>
+        <v>4311</v>
       </c>
       <c r="C1" t="s">
-        <v>3575</v>
+        <v>4322</v>
       </c>
       <c r="D1" t="s">
-        <v>3576</v>
+        <v>4323</v>
       </c>
       <c r="E1" t="s">
-        <v>3577</v>
+        <v>4324</v>
       </c>
       <c r="F1" t="s">
-        <v>3578</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="2">
@@ -13728,7 +15969,7 @@
         <v>2005</v>
       </c>
       <c r="B2" t="s">
-        <v>3565</v>
+        <v>4312</v>
       </c>
       <c r="C2">
         <v>6864080</v>
@@ -13746,7 +15987,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3566</v>
+        <v>4313</v>
       </c>
       <c r="C3">
         <v>6864080</v>
@@ -13764,7 +16005,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3567</v>
+        <v>4314</v>
       </c>
       <c r="C4">
         <v>6864080</v>
@@ -13782,7 +16023,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3568</v>
+        <v>4315</v>
       </c>
       <c r="C5">
         <v>6864080</v>
@@ -13800,7 +16041,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3569</v>
+        <v>4316</v>
       </c>
       <c r="C6">
         <v>6864080</v>
@@ -13818,7 +16059,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3570</v>
+        <v>4317</v>
       </c>
       <c r="C7">
         <v>6864080</v>
@@ -13836,7 +16077,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3571</v>
+        <v>4318</v>
       </c>
       <c r="C8">
         <v>6864080</v>
@@ -13854,7 +16095,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3572</v>
+        <v>4319</v>
       </c>
       <c r="C9">
         <v>6864080</v>
@@ -13872,7 +16113,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3573</v>
+        <v>4320</v>
       </c>
       <c r="C10">
         <v>6864080</v>
@@ -13890,7 +16131,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3574</v>
+        <v>4321</v>
       </c>
       <c r="C11">
         <v>6864080</v>
@@ -13916,22 +16157,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3579</v>
+        <v>4326</v>
       </c>
       <c r="B1" t="s">
-        <v>3580</v>
+        <v>4327</v>
       </c>
       <c r="C1" t="s">
-        <v>3591</v>
+        <v>4338</v>
       </c>
       <c r="D1" t="s">
-        <v>3592</v>
+        <v>4339</v>
       </c>
       <c r="E1" t="s">
-        <v>3593</v>
+        <v>4340</v>
       </c>
       <c r="F1" t="s">
-        <v>3594</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="2">
@@ -13939,7 +16180,7 @@
         <v>2006</v>
       </c>
       <c r="B2" t="s">
-        <v>3581</v>
+        <v>4328</v>
       </c>
       <c r="C2">
         <v>6980279</v>
@@ -13957,7 +16198,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3582</v>
+        <v>4329</v>
       </c>
       <c r="C3">
         <v>6980279</v>
@@ -13975,7 +16216,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3583</v>
+        <v>4330</v>
       </c>
       <c r="C4">
         <v>6980279</v>
@@ -13993,7 +16234,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3584</v>
+        <v>4331</v>
       </c>
       <c r="C5">
         <v>6980279</v>
@@ -14011,7 +16252,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3585</v>
+        <v>4332</v>
       </c>
       <c r="C6">
         <v>6980279</v>
@@ -14029,7 +16270,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3586</v>
+        <v>4333</v>
       </c>
       <c r="C7">
         <v>6980279</v>
@@ -14047,7 +16288,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3587</v>
+        <v>4334</v>
       </c>
       <c r="C8">
         <v>6980279</v>
@@ -14065,7 +16306,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3588</v>
+        <v>4335</v>
       </c>
       <c r="C9">
         <v>6980279</v>
@@ -14083,7 +16324,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3589</v>
+        <v>4336</v>
       </c>
       <c r="C10">
         <v>6980279</v>
@@ -14101,7 +16342,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3590</v>
+        <v>4337</v>
       </c>
       <c r="C11">
         <v>6980279</v>
@@ -14127,22 +16368,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3595</v>
+        <v>4342</v>
       </c>
       <c r="B1" t="s">
-        <v>3596</v>
+        <v>4343</v>
       </c>
       <c r="C1" t="s">
-        <v>3607</v>
+        <v>4354</v>
       </c>
       <c r="D1" t="s">
-        <v>3608</v>
+        <v>4355</v>
       </c>
       <c r="E1" t="s">
-        <v>3609</v>
+        <v>4356</v>
       </c>
       <c r="F1" t="s">
-        <v>3610</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="2">
@@ -14150,7 +16391,7 @@
         <v>2007</v>
       </c>
       <c r="B2" t="s">
-        <v>3597</v>
+        <v>4344</v>
       </c>
       <c r="C2">
         <v>5744575</v>
@@ -14168,7 +16409,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3598</v>
+        <v>4345</v>
       </c>
       <c r="C3">
         <v>5744575</v>
@@ -14186,7 +16427,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3599</v>
+        <v>4346</v>
       </c>
       <c r="C4">
         <v>5744575</v>
@@ -14204,7 +16445,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3600</v>
+        <v>4347</v>
       </c>
       <c r="C5">
         <v>5744575</v>
@@ -14222,7 +16463,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3601</v>
+        <v>4348</v>
       </c>
       <c r="C6">
         <v>5744575</v>
@@ -14240,7 +16481,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3602</v>
+        <v>4349</v>
       </c>
       <c r="C7">
         <v>5744575</v>
@@ -14258,7 +16499,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3603</v>
+        <v>4350</v>
       </c>
       <c r="C8">
         <v>5744575</v>
@@ -14276,7 +16517,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3604</v>
+        <v>4351</v>
       </c>
       <c r="C9">
         <v>5744575</v>
@@ -14294,7 +16535,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3605</v>
+        <v>4352</v>
       </c>
       <c r="C10">
         <v>5744575</v>
@@ -14312,7 +16553,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>3606</v>
+        <v>4353</v>
       </c>
       <c r="C11">
         <v>5744575</v>
@@ -14338,22 +16579,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3611</v>
+        <v>4358</v>
       </c>
       <c r="B1" t="s">
-        <v>3612</v>
+        <v>4359</v>
       </c>
       <c r="C1" t="s">
-        <v>3622</v>
+        <v>4369</v>
       </c>
       <c r="D1" t="s">
-        <v>3623</v>
+        <v>4370</v>
       </c>
       <c r="E1" t="s">
-        <v>3624</v>
+        <v>4371</v>
       </c>
       <c r="F1" t="s">
-        <v>3625</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="2">
@@ -14361,7 +16602,7 @@
         <v>2009</v>
       </c>
       <c r="B2" t="s">
-        <v>3613</v>
+        <v>4360</v>
       </c>
       <c r="C2">
         <v>6150953</v>
@@ -14379,7 +16620,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>3614</v>
+        <v>4361</v>
       </c>
       <c r="C3">
         <v>6150953</v>
@@ -14397,7 +16638,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>3615</v>
+        <v>4362</v>
       </c>
       <c r="C4">
         <v>6150953</v>
@@ -14415,7 +16656,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>3616</v>
+        <v>4363</v>
       </c>
       <c r="C5">
         <v>6150953</v>
@@ -14433,7 +16674,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>3617</v>
+        <v>4364</v>
       </c>
       <c r="C6">
         <v>6150953</v>
@@ -14451,7 +16692,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>3618</v>
+        <v>4365</v>
       </c>
       <c r="C7">
         <v>6150953</v>
@@ -14469,7 +16710,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>3619</v>
+        <v>4366</v>
       </c>
       <c r="C8">
         <v>6150953</v>
@@ -14487,7 +16728,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>3620</v>
+        <v>4367</v>
       </c>
       <c r="C9">
         <v>6150953</v>
@@ -14505,7 +16746,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>3621</v>
+        <v>4368</v>
       </c>
       <c r="C10">
         <v>6150953</v>

--- a/input_data/admin_data/SLV/_clean/wages-SLV.xlsx
+++ b/input_data/admin_data/SLV/_clean/wages-SLV.xlsx
@@ -28,7 +28,754 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4482" uniqueCount="4482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="4731">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -13522,22 +14269,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4233</v>
+        <v>4482</v>
       </c>
       <c r="B1" t="s">
-        <v>4234</v>
+        <v>4483</v>
       </c>
       <c r="C1" t="s">
-        <v>4245</v>
+        <v>4494</v>
       </c>
       <c r="D1" t="s">
-        <v>4246</v>
+        <v>4495</v>
       </c>
       <c r="E1" t="s">
-        <v>4247</v>
+        <v>4496</v>
       </c>
       <c r="F1" t="s">
-        <v>4248</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="2">
@@ -13545,7 +14292,7 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>4235</v>
+        <v>4484</v>
       </c>
       <c r="C2">
         <v>6272353</v>
@@ -13563,7 +14310,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4236</v>
+        <v>4485</v>
       </c>
       <c r="C3">
         <v>6272353</v>
@@ -13581,7 +14328,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4237</v>
+        <v>4486</v>
       </c>
       <c r="C4">
         <v>6272353</v>
@@ -13599,7 +14346,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4238</v>
+        <v>4487</v>
       </c>
       <c r="C5">
         <v>6272353</v>
@@ -13617,7 +14364,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4239</v>
+        <v>4488</v>
       </c>
       <c r="C6">
         <v>6272353</v>
@@ -13635,7 +14382,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4240</v>
+        <v>4489</v>
       </c>
       <c r="C7">
         <v>6272353</v>
@@ -13653,7 +14400,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4241</v>
+        <v>4490</v>
       </c>
       <c r="C8">
         <v>6272353</v>
@@ -13671,7 +14418,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4242</v>
+        <v>4491</v>
       </c>
       <c r="C9">
         <v>6272353</v>
@@ -13689,7 +14436,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4243</v>
+        <v>4492</v>
       </c>
       <c r="C10">
         <v>6272353</v>
@@ -13707,7 +14454,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4244</v>
+        <v>4493</v>
       </c>
       <c r="C11">
         <v>6272353</v>
@@ -13733,22 +14480,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4373</v>
+        <v>4622</v>
       </c>
       <c r="B1" t="s">
-        <v>4374</v>
+        <v>4623</v>
       </c>
       <c r="C1" t="s">
-        <v>4385</v>
+        <v>4634</v>
       </c>
       <c r="D1" t="s">
-        <v>4386</v>
+        <v>4635</v>
       </c>
       <c r="E1" t="s">
-        <v>4387</v>
+        <v>4636</v>
       </c>
       <c r="F1" t="s">
-        <v>4388</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="2">
@@ -13756,7 +14503,7 @@
         <v>2010</v>
       </c>
       <c r="B2" t="s">
-        <v>4375</v>
+        <v>4624</v>
       </c>
       <c r="C2">
         <v>6181405</v>
@@ -13774,7 +14521,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4376</v>
+        <v>4625</v>
       </c>
       <c r="C3">
         <v>6181405</v>
@@ -13792,7 +14539,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4377</v>
+        <v>4626</v>
       </c>
       <c r="C4">
         <v>6181405</v>
@@ -13810,7 +14557,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4378</v>
+        <v>4627</v>
       </c>
       <c r="C5">
         <v>6181405</v>
@@ -13828,7 +14575,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4379</v>
+        <v>4628</v>
       </c>
       <c r="C6">
         <v>6181405</v>
@@ -13846,7 +14593,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4380</v>
+        <v>4629</v>
       </c>
       <c r="C7">
         <v>6181405</v>
@@ -13864,7 +14611,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4381</v>
+        <v>4630</v>
       </c>
       <c r="C8">
         <v>6181405</v>
@@ -13882,7 +14629,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4382</v>
+        <v>4631</v>
       </c>
       <c r="C9">
         <v>6181405</v>
@@ -13900,7 +14647,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4383</v>
+        <v>4632</v>
       </c>
       <c r="C10">
         <v>6181405</v>
@@ -13918,7 +14665,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4384</v>
+        <v>4633</v>
       </c>
       <c r="C11">
         <v>6181405</v>
@@ -13944,22 +14691,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4389</v>
+        <v>4638</v>
       </c>
       <c r="B1" t="s">
-        <v>4390</v>
+        <v>4639</v>
       </c>
       <c r="C1" t="s">
-        <v>4400</v>
+        <v>4649</v>
       </c>
       <c r="D1" t="s">
-        <v>4401</v>
+        <v>4650</v>
       </c>
       <c r="E1" t="s">
-        <v>4402</v>
+        <v>4651</v>
       </c>
       <c r="F1" t="s">
-        <v>4403</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="2">
@@ -13967,7 +14714,7 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>4391</v>
+        <v>4640</v>
       </c>
       <c r="C2">
         <v>6249262</v>
@@ -13985,7 +14732,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4392</v>
+        <v>4641</v>
       </c>
       <c r="C3">
         <v>6249262</v>
@@ -14003,7 +14750,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4393</v>
+        <v>4642</v>
       </c>
       <c r="C4">
         <v>6249262</v>
@@ -14021,7 +14768,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4394</v>
+        <v>4643</v>
       </c>
       <c r="C5">
         <v>6249262</v>
@@ -14039,7 +14786,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4395</v>
+        <v>4644</v>
       </c>
       <c r="C6">
         <v>6249262</v>
@@ -14057,7 +14804,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4396</v>
+        <v>4645</v>
       </c>
       <c r="C7">
         <v>6249262</v>
@@ -14075,7 +14822,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4397</v>
+        <v>4646</v>
       </c>
       <c r="C8">
         <v>6249262</v>
@@ -14093,7 +14840,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4398</v>
+        <v>4647</v>
       </c>
       <c r="C9">
         <v>6249262</v>
@@ -14111,7 +14858,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4399</v>
+        <v>4648</v>
       </c>
       <c r="C10">
         <v>6249262</v>
@@ -14137,22 +14884,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4404</v>
+        <v>4653</v>
       </c>
       <c r="B1" t="s">
-        <v>4405</v>
+        <v>4654</v>
       </c>
       <c r="C1" t="s">
-        <v>4415</v>
+        <v>4664</v>
       </c>
       <c r="D1" t="s">
-        <v>4416</v>
+        <v>4665</v>
       </c>
       <c r="E1" t="s">
-        <v>4417</v>
+        <v>4666</v>
       </c>
       <c r="F1" t="s">
-        <v>4418</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="2">
@@ -14160,7 +14907,7 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>4406</v>
+        <v>4655</v>
       </c>
       <c r="C2">
         <v>6290383</v>
@@ -14178,7 +14925,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4407</v>
+        <v>4656</v>
       </c>
       <c r="C3">
         <v>6290383</v>
@@ -14196,7 +14943,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4408</v>
+        <v>4657</v>
       </c>
       <c r="C4">
         <v>6290383</v>
@@ -14214,7 +14961,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4409</v>
+        <v>4658</v>
       </c>
       <c r="C5">
         <v>6290383</v>
@@ -14232,7 +14979,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4410</v>
+        <v>4659</v>
       </c>
       <c r="C6">
         <v>6290383</v>
@@ -14250,7 +14997,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4411</v>
+        <v>4660</v>
       </c>
       <c r="C7">
         <v>6290383</v>
@@ -14268,7 +15015,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4412</v>
+        <v>4661</v>
       </c>
       <c r="C8">
         <v>6290383</v>
@@ -14286,7 +15033,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4413</v>
+        <v>4662</v>
       </c>
       <c r="C9">
         <v>6290383</v>
@@ -14304,7 +15051,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4414</v>
+        <v>4663</v>
       </c>
       <c r="C10">
         <v>6290383</v>
@@ -14330,22 +15077,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4419</v>
+        <v>4668</v>
       </c>
       <c r="B1" t="s">
-        <v>4420</v>
+        <v>4669</v>
       </c>
       <c r="C1" t="s">
-        <v>4430</v>
+        <v>4679</v>
       </c>
       <c r="D1" t="s">
-        <v>4431</v>
+        <v>4680</v>
       </c>
       <c r="E1" t="s">
-        <v>4432</v>
+        <v>4681</v>
       </c>
       <c r="F1" t="s">
-        <v>4433</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="2">
@@ -14353,7 +15100,7 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>4421</v>
+        <v>4670</v>
       </c>
       <c r="C2">
         <v>6401415</v>
@@ -14371,7 +15118,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4422</v>
+        <v>4671</v>
       </c>
       <c r="C3">
         <v>6401415</v>
@@ -14389,7 +15136,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4423</v>
+        <v>4672</v>
       </c>
       <c r="C4">
         <v>6401415</v>
@@ -14407,7 +15154,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4424</v>
+        <v>4673</v>
       </c>
       <c r="C5">
         <v>6401415</v>
@@ -14425,7 +15172,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4425</v>
+        <v>4674</v>
       </c>
       <c r="C6">
         <v>6401415</v>
@@ -14443,7 +15190,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4426</v>
+        <v>4675</v>
       </c>
       <c r="C7">
         <v>6401415</v>
@@ -14461,7 +15208,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4427</v>
+        <v>4676</v>
       </c>
       <c r="C8">
         <v>6401415</v>
@@ -14479,7 +15226,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4428</v>
+        <v>4677</v>
       </c>
       <c r="C9">
         <v>6401415</v>
@@ -14497,7 +15244,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4429</v>
+        <v>4678</v>
       </c>
       <c r="C10">
         <v>6401415</v>
@@ -14523,22 +15270,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4434</v>
+        <v>4683</v>
       </c>
       <c r="B1" t="s">
-        <v>4435</v>
+        <v>4684</v>
       </c>
       <c r="C1" t="s">
-        <v>4446</v>
+        <v>4695</v>
       </c>
       <c r="D1" t="s">
-        <v>4447</v>
+        <v>4696</v>
       </c>
       <c r="E1" t="s">
-        <v>4448</v>
+        <v>4697</v>
       </c>
       <c r="F1" t="s">
-        <v>4449</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="2">
@@ -14546,7 +15293,7 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>4436</v>
+        <v>4685</v>
       </c>
       <c r="C2">
         <v>6459911</v>
@@ -14564,7 +15311,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4437</v>
+        <v>4686</v>
       </c>
       <c r="C3">
         <v>6459911</v>
@@ -14582,7 +15329,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4438</v>
+        <v>4687</v>
       </c>
       <c r="C4">
         <v>6459911</v>
@@ -14600,7 +15347,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4439</v>
+        <v>4688</v>
       </c>
       <c r="C5">
         <v>6459911</v>
@@ -14618,7 +15365,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4440</v>
+        <v>4689</v>
       </c>
       <c r="C6">
         <v>6459911</v>
@@ -14636,7 +15383,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4441</v>
+        <v>4690</v>
       </c>
       <c r="C7">
         <v>6459911</v>
@@ -14654,7 +15401,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4442</v>
+        <v>4691</v>
       </c>
       <c r="C8">
         <v>6459911</v>
@@ -14672,7 +15419,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4443</v>
+        <v>4692</v>
       </c>
       <c r="C9">
         <v>6459911</v>
@@ -14690,7 +15437,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4444</v>
+        <v>4693</v>
       </c>
       <c r="C10">
         <v>6459911</v>
@@ -14708,7 +15455,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4445</v>
+        <v>4694</v>
       </c>
       <c r="C11">
         <v>6459911</v>
@@ -14734,22 +15481,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4450</v>
+        <v>4699</v>
       </c>
       <c r="B1" t="s">
-        <v>4451</v>
+        <v>4700</v>
       </c>
       <c r="C1" t="s">
-        <v>4462</v>
+        <v>4711</v>
       </c>
       <c r="D1" t="s">
-        <v>4463</v>
+        <v>4712</v>
       </c>
       <c r="E1" t="s">
-        <v>4464</v>
+        <v>4713</v>
       </c>
       <c r="F1" t="s">
-        <v>4465</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="2">
@@ -14757,7 +15504,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>4452</v>
+        <v>4701</v>
       </c>
       <c r="C2">
         <v>6522419</v>
@@ -14775,7 +15522,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4453</v>
+        <v>4702</v>
       </c>
       <c r="C3">
         <v>6522419</v>
@@ -14793,7 +15540,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4454</v>
+        <v>4703</v>
       </c>
       <c r="C4">
         <v>6522419</v>
@@ -14811,7 +15558,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4455</v>
+        <v>4704</v>
       </c>
       <c r="C5">
         <v>6522419</v>
@@ -14829,7 +15576,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4456</v>
+        <v>4705</v>
       </c>
       <c r="C6">
         <v>6522419</v>
@@ -14847,7 +15594,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4457</v>
+        <v>4706</v>
       </c>
       <c r="C7">
         <v>6522419</v>
@@ -14865,7 +15612,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4458</v>
+        <v>4707</v>
       </c>
       <c r="C8">
         <v>6522419</v>
@@ -14883,7 +15630,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4459</v>
+        <v>4708</v>
       </c>
       <c r="C9">
         <v>6522419</v>
@@ -14901,7 +15648,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4460</v>
+        <v>4709</v>
       </c>
       <c r="C10">
         <v>6522419</v>
@@ -14919,7 +15666,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4461</v>
+        <v>4710</v>
       </c>
       <c r="C11">
         <v>6522419</v>
@@ -14945,22 +15692,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4466</v>
+        <v>4715</v>
       </c>
       <c r="B1" t="s">
-        <v>4467</v>
+        <v>4716</v>
       </c>
       <c r="C1" t="s">
-        <v>4478</v>
+        <v>4727</v>
       </c>
       <c r="D1" t="s">
-        <v>4479</v>
+        <v>4728</v>
       </c>
       <c r="E1" t="s">
-        <v>4480</v>
+        <v>4729</v>
       </c>
       <c r="F1" t="s">
-        <v>4481</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="2">
@@ -14968,7 +15715,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>4468</v>
+        <v>4717</v>
       </c>
       <c r="C2">
         <v>6581860</v>
@@ -14986,7 +15733,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4469</v>
+        <v>4718</v>
       </c>
       <c r="C3">
         <v>6581860</v>
@@ -15004,7 +15751,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4470</v>
+        <v>4719</v>
       </c>
       <c r="C4">
         <v>6581860</v>
@@ -15022,7 +15769,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4471</v>
+        <v>4720</v>
       </c>
       <c r="C5">
         <v>6581860</v>
@@ -15040,7 +15787,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4472</v>
+        <v>4721</v>
       </c>
       <c r="C6">
         <v>6581860</v>
@@ -15058,7 +15805,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4473</v>
+        <v>4722</v>
       </c>
       <c r="C7">
         <v>6581860</v>
@@ -15076,7 +15823,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4474</v>
+        <v>4723</v>
       </c>
       <c r="C8">
         <v>6581860</v>
@@ -15094,7 +15841,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4475</v>
+        <v>4724</v>
       </c>
       <c r="C9">
         <v>6581860</v>
@@ -15112,7 +15859,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4476</v>
+        <v>4725</v>
       </c>
       <c r="C10">
         <v>6581860</v>
@@ -15130,7 +15877,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4477</v>
+        <v>4726</v>
       </c>
       <c r="C11">
         <v>6581860</v>
@@ -15156,22 +15903,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4249</v>
+        <v>4498</v>
       </c>
       <c r="B1" t="s">
-        <v>4250</v>
+        <v>4499</v>
       </c>
       <c r="C1" t="s">
-        <v>4261</v>
+        <v>4510</v>
       </c>
       <c r="D1" t="s">
-        <v>4262</v>
+        <v>4511</v>
       </c>
       <c r="E1" t="s">
-        <v>4263</v>
+        <v>4512</v>
       </c>
       <c r="F1" t="s">
-        <v>4264</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="2">
@@ -15179,7 +15926,7 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>4251</v>
+        <v>4500</v>
       </c>
       <c r="C2">
         <v>6428672</v>
@@ -15197,7 +15944,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4252</v>
+        <v>4501</v>
       </c>
       <c r="C3">
         <v>6428672</v>
@@ -15215,7 +15962,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4253</v>
+        <v>4502</v>
       </c>
       <c r="C4">
         <v>6428672</v>
@@ -15233,7 +15980,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4254</v>
+        <v>4503</v>
       </c>
       <c r="C5">
         <v>6428672</v>
@@ -15251,7 +15998,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4255</v>
+        <v>4504</v>
       </c>
       <c r="C6">
         <v>6428672</v>
@@ -15269,7 +16016,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4256</v>
+        <v>4505</v>
       </c>
       <c r="C7">
         <v>6428672</v>
@@ -15287,7 +16034,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4257</v>
+        <v>4506</v>
       </c>
       <c r="C8">
         <v>6428672</v>
@@ -15305,7 +16052,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4258</v>
+        <v>4507</v>
       </c>
       <c r="C9">
         <v>6428672</v>
@@ -15323,7 +16070,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4259</v>
+        <v>4508</v>
       </c>
       <c r="C10">
         <v>6428672</v>
@@ -15341,7 +16088,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4260</v>
+        <v>4509</v>
       </c>
       <c r="C11">
         <v>6428672</v>
@@ -15367,22 +16114,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4265</v>
+        <v>4514</v>
       </c>
       <c r="B1" t="s">
-        <v>4266</v>
+        <v>4515</v>
       </c>
       <c r="C1" t="s">
-        <v>4276</v>
+        <v>4525</v>
       </c>
       <c r="D1" t="s">
-        <v>4277</v>
+        <v>4526</v>
       </c>
       <c r="E1" t="s">
-        <v>4278</v>
+        <v>4527</v>
       </c>
       <c r="F1" t="s">
-        <v>4279</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="2">
@@ -15390,7 +16137,7 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>4267</v>
+        <v>4516</v>
       </c>
       <c r="C2">
         <v>6510348</v>
@@ -15408,7 +16155,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4268</v>
+        <v>4517</v>
       </c>
       <c r="C3">
         <v>6510348</v>
@@ -15426,7 +16173,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4269</v>
+        <v>4518</v>
       </c>
       <c r="C4">
         <v>6510348</v>
@@ -15444,7 +16191,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4270</v>
+        <v>4519</v>
       </c>
       <c r="C5">
         <v>6510348</v>
@@ -15462,7 +16209,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4271</v>
+        <v>4520</v>
       </c>
       <c r="C6">
         <v>6510348</v>
@@ -15480,7 +16227,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4272</v>
+        <v>4521</v>
       </c>
       <c r="C7">
         <v>6510348</v>
@@ -15498,7 +16245,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4273</v>
+        <v>4522</v>
       </c>
       <c r="C8">
         <v>6510348</v>
@@ -15516,7 +16263,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4274</v>
+        <v>4523</v>
       </c>
       <c r="C9">
         <v>6510348</v>
@@ -15534,7 +16281,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4275</v>
+        <v>4524</v>
       </c>
       <c r="C10">
         <v>6510348</v>
@@ -15560,22 +16307,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4280</v>
+        <v>4529</v>
       </c>
       <c r="B1" t="s">
-        <v>4281</v>
+        <v>4530</v>
       </c>
       <c r="C1" t="s">
-        <v>4291</v>
+        <v>4540</v>
       </c>
       <c r="D1" t="s">
-        <v>4292</v>
+        <v>4541</v>
       </c>
       <c r="E1" t="s">
-        <v>4293</v>
+        <v>4542</v>
       </c>
       <c r="F1" t="s">
-        <v>4294</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="2">
@@ -15583,7 +16330,7 @@
         <v>2003</v>
       </c>
       <c r="B2" t="s">
-        <v>4282</v>
+        <v>4531</v>
       </c>
       <c r="C2">
         <v>6639010</v>
@@ -15601,7 +16348,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4283</v>
+        <v>4532</v>
       </c>
       <c r="C3">
         <v>6639010</v>
@@ -15619,7 +16366,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4284</v>
+        <v>4533</v>
       </c>
       <c r="C4">
         <v>6639010</v>
@@ -15637,7 +16384,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4285</v>
+        <v>4534</v>
       </c>
       <c r="C5">
         <v>6639010</v>
@@ -15655,7 +16402,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4286</v>
+        <v>4535</v>
       </c>
       <c r="C6">
         <v>6639010</v>
@@ -15673,7 +16420,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4287</v>
+        <v>4536</v>
       </c>
       <c r="C7">
         <v>6639010</v>
@@ -15691,7 +16438,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4288</v>
+        <v>4537</v>
       </c>
       <c r="C8">
         <v>6639010</v>
@@ -15709,7 +16456,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4289</v>
+        <v>4538</v>
       </c>
       <c r="C9">
         <v>6639010</v>
@@ -15727,7 +16474,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4290</v>
+        <v>4539</v>
       </c>
       <c r="C10">
         <v>6639010</v>
@@ -15753,22 +16500,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4295</v>
+        <v>4544</v>
       </c>
       <c r="B1" t="s">
-        <v>4296</v>
+        <v>4545</v>
       </c>
       <c r="C1" t="s">
-        <v>4306</v>
+        <v>4555</v>
       </c>
       <c r="D1" t="s">
-        <v>4307</v>
+        <v>4556</v>
       </c>
       <c r="E1" t="s">
-        <v>4308</v>
+        <v>4557</v>
       </c>
       <c r="F1" t="s">
-        <v>4309</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="2">
@@ -15776,7 +16523,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="s">
-        <v>4297</v>
+        <v>4546</v>
       </c>
       <c r="C2">
         <v>6756786</v>
@@ -15794,7 +16541,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4298</v>
+        <v>4547</v>
       </c>
       <c r="C3">
         <v>6756786</v>
@@ -15812,7 +16559,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4299</v>
+        <v>4548</v>
       </c>
       <c r="C4">
         <v>6756786</v>
@@ -15830,7 +16577,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4300</v>
+        <v>4549</v>
       </c>
       <c r="C5">
         <v>6756786</v>
@@ -15848,7 +16595,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4301</v>
+        <v>4550</v>
       </c>
       <c r="C6">
         <v>6756786</v>
@@ -15866,7 +16613,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4302</v>
+        <v>4551</v>
       </c>
       <c r="C7">
         <v>6756786</v>
@@ -15884,7 +16631,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4303</v>
+        <v>4552</v>
       </c>
       <c r="C8">
         <v>6756786</v>
@@ -15902,7 +16649,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4304</v>
+        <v>4553</v>
       </c>
       <c r="C9">
         <v>6756786</v>
@@ -15920,7 +16667,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4305</v>
+        <v>4554</v>
       </c>
       <c r="C10">
         <v>6756786</v>
@@ -15946,22 +16693,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4310</v>
+        <v>4559</v>
       </c>
       <c r="B1" t="s">
-        <v>4311</v>
+        <v>4560</v>
       </c>
       <c r="C1" t="s">
-        <v>4322</v>
+        <v>4571</v>
       </c>
       <c r="D1" t="s">
-        <v>4323</v>
+        <v>4572</v>
       </c>
       <c r="E1" t="s">
-        <v>4324</v>
+        <v>4573</v>
       </c>
       <c r="F1" t="s">
-        <v>4325</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="2">
@@ -15969,7 +16716,7 @@
         <v>2005</v>
       </c>
       <c r="B2" t="s">
-        <v>4312</v>
+        <v>4561</v>
       </c>
       <c r="C2">
         <v>6864080</v>
@@ -15987,7 +16734,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4313</v>
+        <v>4562</v>
       </c>
       <c r="C3">
         <v>6864080</v>
@@ -16005,7 +16752,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4314</v>
+        <v>4563</v>
       </c>
       <c r="C4">
         <v>6864080</v>
@@ -16023,7 +16770,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4315</v>
+        <v>4564</v>
       </c>
       <c r="C5">
         <v>6864080</v>
@@ -16041,7 +16788,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4316</v>
+        <v>4565</v>
       </c>
       <c r="C6">
         <v>6864080</v>
@@ -16059,7 +16806,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4317</v>
+        <v>4566</v>
       </c>
       <c r="C7">
         <v>6864080</v>
@@ -16077,7 +16824,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4318</v>
+        <v>4567</v>
       </c>
       <c r="C8">
         <v>6864080</v>
@@ -16095,7 +16842,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4319</v>
+        <v>4568</v>
       </c>
       <c r="C9">
         <v>6864080</v>
@@ -16113,7 +16860,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4320</v>
+        <v>4569</v>
       </c>
       <c r="C10">
         <v>6864080</v>
@@ -16131,7 +16878,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4321</v>
+        <v>4570</v>
       </c>
       <c r="C11">
         <v>6864080</v>
@@ -16157,22 +16904,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4326</v>
+        <v>4575</v>
       </c>
       <c r="B1" t="s">
-        <v>4327</v>
+        <v>4576</v>
       </c>
       <c r="C1" t="s">
-        <v>4338</v>
+        <v>4587</v>
       </c>
       <c r="D1" t="s">
-        <v>4339</v>
+        <v>4588</v>
       </c>
       <c r="E1" t="s">
-        <v>4340</v>
+        <v>4589</v>
       </c>
       <c r="F1" t="s">
-        <v>4341</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="2">
@@ -16180,7 +16927,7 @@
         <v>2006</v>
       </c>
       <c r="B2" t="s">
-        <v>4328</v>
+        <v>4577</v>
       </c>
       <c r="C2">
         <v>6980279</v>
@@ -16198,7 +16945,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4329</v>
+        <v>4578</v>
       </c>
       <c r="C3">
         <v>6980279</v>
@@ -16216,7 +16963,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4330</v>
+        <v>4579</v>
       </c>
       <c r="C4">
         <v>6980279</v>
@@ -16234,7 +16981,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4331</v>
+        <v>4580</v>
       </c>
       <c r="C5">
         <v>6980279</v>
@@ -16252,7 +16999,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4332</v>
+        <v>4581</v>
       </c>
       <c r="C6">
         <v>6980279</v>
@@ -16270,7 +17017,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4333</v>
+        <v>4582</v>
       </c>
       <c r="C7">
         <v>6980279</v>
@@ -16288,7 +17035,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4334</v>
+        <v>4583</v>
       </c>
       <c r="C8">
         <v>6980279</v>
@@ -16306,7 +17053,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4335</v>
+        <v>4584</v>
       </c>
       <c r="C9">
         <v>6980279</v>
@@ -16324,7 +17071,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4336</v>
+        <v>4585</v>
       </c>
       <c r="C10">
         <v>6980279</v>
@@ -16342,7 +17089,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4337</v>
+        <v>4586</v>
       </c>
       <c r="C11">
         <v>6980279</v>
@@ -16368,22 +17115,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4342</v>
+        <v>4591</v>
       </c>
       <c r="B1" t="s">
-        <v>4343</v>
+        <v>4592</v>
       </c>
       <c r="C1" t="s">
-        <v>4354</v>
+        <v>4603</v>
       </c>
       <c r="D1" t="s">
-        <v>4355</v>
+        <v>4604</v>
       </c>
       <c r="E1" t="s">
-        <v>4356</v>
+        <v>4605</v>
       </c>
       <c r="F1" t="s">
-        <v>4357</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="2">
@@ -16391,7 +17138,7 @@
         <v>2007</v>
       </c>
       <c r="B2" t="s">
-        <v>4344</v>
+        <v>4593</v>
       </c>
       <c r="C2">
         <v>5744575</v>
@@ -16409,7 +17156,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4345</v>
+        <v>4594</v>
       </c>
       <c r="C3">
         <v>5744575</v>
@@ -16427,7 +17174,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4346</v>
+        <v>4595</v>
       </c>
       <c r="C4">
         <v>5744575</v>
@@ -16445,7 +17192,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4347</v>
+        <v>4596</v>
       </c>
       <c r="C5">
         <v>5744575</v>
@@ -16463,7 +17210,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4348</v>
+        <v>4597</v>
       </c>
       <c r="C6">
         <v>5744575</v>
@@ -16481,7 +17228,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4349</v>
+        <v>4598</v>
       </c>
       <c r="C7">
         <v>5744575</v>
@@ -16499,7 +17246,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4350</v>
+        <v>4599</v>
       </c>
       <c r="C8">
         <v>5744575</v>
@@ -16517,7 +17264,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4351</v>
+        <v>4600</v>
       </c>
       <c r="C9">
         <v>5744575</v>
@@ -16535,7 +17282,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4352</v>
+        <v>4601</v>
       </c>
       <c r="C10">
         <v>5744575</v>
@@ -16553,7 +17300,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4353</v>
+        <v>4602</v>
       </c>
       <c r="C11">
         <v>5744575</v>
@@ -16579,22 +17326,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4358</v>
+        <v>4607</v>
       </c>
       <c r="B1" t="s">
-        <v>4359</v>
+        <v>4608</v>
       </c>
       <c r="C1" t="s">
-        <v>4369</v>
+        <v>4618</v>
       </c>
       <c r="D1" t="s">
-        <v>4370</v>
+        <v>4619</v>
       </c>
       <c r="E1" t="s">
-        <v>4371</v>
+        <v>4620</v>
       </c>
       <c r="F1" t="s">
-        <v>4372</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="2">
@@ -16602,7 +17349,7 @@
         <v>2009</v>
       </c>
       <c r="B2" t="s">
-        <v>4360</v>
+        <v>4609</v>
       </c>
       <c r="C2">
         <v>6150953</v>
@@ -16620,7 +17367,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4361</v>
+        <v>4610</v>
       </c>
       <c r="C3">
         <v>6150953</v>
@@ -16638,7 +17385,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4362</v>
+        <v>4611</v>
       </c>
       <c r="C4">
         <v>6150953</v>
@@ -16656,7 +17403,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4363</v>
+        <v>4612</v>
       </c>
       <c r="C5">
         <v>6150953</v>
@@ -16674,7 +17421,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4364</v>
+        <v>4613</v>
       </c>
       <c r="C6">
         <v>6150953</v>
@@ -16692,7 +17439,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4365</v>
+        <v>4614</v>
       </c>
       <c r="C7">
         <v>6150953</v>
@@ -16710,7 +17457,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4366</v>
+        <v>4615</v>
       </c>
       <c r="C8">
         <v>6150953</v>
@@ -16728,7 +17475,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4367</v>
+        <v>4616</v>
       </c>
       <c r="C9">
         <v>6150953</v>
@@ -16746,7 +17493,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4368</v>
+        <v>4617</v>
       </c>
       <c r="C10">
         <v>6150953</v>

--- a/input_data/admin_data/SLV/_clean/wages-SLV.xlsx
+++ b/input_data/admin_data/SLV/_clean/wages-SLV.xlsx
@@ -28,7 +28,2995 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="4731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5727" uniqueCount="5727">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>totalpop</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bracketavg</t>
+  </si>
   <si>
     <t>year</t>
   </si>
@@ -14269,22 +17257,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4482</v>
+        <v>5478</v>
       </c>
       <c r="B1" t="s">
-        <v>4483</v>
+        <v>5479</v>
       </c>
       <c r="C1" t="s">
-        <v>4494</v>
+        <v>5490</v>
       </c>
       <c r="D1" t="s">
-        <v>4495</v>
+        <v>5491</v>
       </c>
       <c r="E1" t="s">
-        <v>4496</v>
+        <v>5492</v>
       </c>
       <c r="F1" t="s">
-        <v>4497</v>
+        <v>5493</v>
       </c>
     </row>
     <row r="2">
@@ -14292,7 +17280,7 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>4484</v>
+        <v>5480</v>
       </c>
       <c r="C2">
         <v>6272353</v>
@@ -14310,7 +17298,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4485</v>
+        <v>5481</v>
       </c>
       <c r="C3">
         <v>6272353</v>
@@ -14328,7 +17316,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4486</v>
+        <v>5482</v>
       </c>
       <c r="C4">
         <v>6272353</v>
@@ -14346,7 +17334,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4487</v>
+        <v>5483</v>
       </c>
       <c r="C5">
         <v>6272353</v>
@@ -14364,7 +17352,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4488</v>
+        <v>5484</v>
       </c>
       <c r="C6">
         <v>6272353</v>
@@ -14382,7 +17370,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4489</v>
+        <v>5485</v>
       </c>
       <c r="C7">
         <v>6272353</v>
@@ -14400,7 +17388,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4490</v>
+        <v>5486</v>
       </c>
       <c r="C8">
         <v>6272353</v>
@@ -14418,7 +17406,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4491</v>
+        <v>5487</v>
       </c>
       <c r="C9">
         <v>6272353</v>
@@ -14436,7 +17424,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4492</v>
+        <v>5488</v>
       </c>
       <c r="C10">
         <v>6272353</v>
@@ -14454,7 +17442,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4493</v>
+        <v>5489</v>
       </c>
       <c r="C11">
         <v>6272353</v>
@@ -14480,22 +17468,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4622</v>
+        <v>5618</v>
       </c>
       <c r="B1" t="s">
-        <v>4623</v>
+        <v>5619</v>
       </c>
       <c r="C1" t="s">
-        <v>4634</v>
+        <v>5630</v>
       </c>
       <c r="D1" t="s">
-        <v>4635</v>
+        <v>5631</v>
       </c>
       <c r="E1" t="s">
-        <v>4636</v>
+        <v>5632</v>
       </c>
       <c r="F1" t="s">
-        <v>4637</v>
+        <v>5633</v>
       </c>
     </row>
     <row r="2">
@@ -14503,7 +17491,7 @@
         <v>2010</v>
       </c>
       <c r="B2" t="s">
-        <v>4624</v>
+        <v>5620</v>
       </c>
       <c r="C2">
         <v>6181405</v>
@@ -14521,7 +17509,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4625</v>
+        <v>5621</v>
       </c>
       <c r="C3">
         <v>6181405</v>
@@ -14539,7 +17527,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4626</v>
+        <v>5622</v>
       </c>
       <c r="C4">
         <v>6181405</v>
@@ -14557,7 +17545,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4627</v>
+        <v>5623</v>
       </c>
       <c r="C5">
         <v>6181405</v>
@@ -14575,7 +17563,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4628</v>
+        <v>5624</v>
       </c>
       <c r="C6">
         <v>6181405</v>
@@ -14593,7 +17581,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4629</v>
+        <v>5625</v>
       </c>
       <c r="C7">
         <v>6181405</v>
@@ -14611,7 +17599,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4630</v>
+        <v>5626</v>
       </c>
       <c r="C8">
         <v>6181405</v>
@@ -14629,7 +17617,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4631</v>
+        <v>5627</v>
       </c>
       <c r="C9">
         <v>6181405</v>
@@ -14647,7 +17635,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4632</v>
+        <v>5628</v>
       </c>
       <c r="C10">
         <v>6181405</v>
@@ -14665,7 +17653,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4633</v>
+        <v>5629</v>
       </c>
       <c r="C11">
         <v>6181405</v>
@@ -14691,22 +17679,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4638</v>
+        <v>5634</v>
       </c>
       <c r="B1" t="s">
-        <v>4639</v>
+        <v>5635</v>
       </c>
       <c r="C1" t="s">
-        <v>4649</v>
+        <v>5645</v>
       </c>
       <c r="D1" t="s">
-        <v>4650</v>
+        <v>5646</v>
       </c>
       <c r="E1" t="s">
-        <v>4651</v>
+        <v>5647</v>
       </c>
       <c r="F1" t="s">
-        <v>4652</v>
+        <v>5648</v>
       </c>
     </row>
     <row r="2">
@@ -14714,7 +17702,7 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>4640</v>
+        <v>5636</v>
       </c>
       <c r="C2">
         <v>6249262</v>
@@ -14732,7 +17720,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4641</v>
+        <v>5637</v>
       </c>
       <c r="C3">
         <v>6249262</v>
@@ -14750,7 +17738,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4642</v>
+        <v>5638</v>
       </c>
       <c r="C4">
         <v>6249262</v>
@@ -14768,7 +17756,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4643</v>
+        <v>5639</v>
       </c>
       <c r="C5">
         <v>6249262</v>
@@ -14786,7 +17774,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4644</v>
+        <v>5640</v>
       </c>
       <c r="C6">
         <v>6249262</v>
@@ -14804,7 +17792,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4645</v>
+        <v>5641</v>
       </c>
       <c r="C7">
         <v>6249262</v>
@@ -14822,7 +17810,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4646</v>
+        <v>5642</v>
       </c>
       <c r="C8">
         <v>6249262</v>
@@ -14840,7 +17828,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4647</v>
+        <v>5643</v>
       </c>
       <c r="C9">
         <v>6249262</v>
@@ -14858,7 +17846,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4648</v>
+        <v>5644</v>
       </c>
       <c r="C10">
         <v>6249262</v>
@@ -14884,22 +17872,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4653</v>
+        <v>5649</v>
       </c>
       <c r="B1" t="s">
-        <v>4654</v>
+        <v>5650</v>
       </c>
       <c r="C1" t="s">
-        <v>4664</v>
+        <v>5660</v>
       </c>
       <c r="D1" t="s">
-        <v>4665</v>
+        <v>5661</v>
       </c>
       <c r="E1" t="s">
-        <v>4666</v>
+        <v>5662</v>
       </c>
       <c r="F1" t="s">
-        <v>4667</v>
+        <v>5663</v>
       </c>
     </row>
     <row r="2">
@@ -14907,7 +17895,7 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>4655</v>
+        <v>5651</v>
       </c>
       <c r="C2">
         <v>6290383</v>
@@ -14925,7 +17913,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4656</v>
+        <v>5652</v>
       </c>
       <c r="C3">
         <v>6290383</v>
@@ -14943,7 +17931,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4657</v>
+        <v>5653</v>
       </c>
       <c r="C4">
         <v>6290383</v>
@@ -14961,7 +17949,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4658</v>
+        <v>5654</v>
       </c>
       <c r="C5">
         <v>6290383</v>
@@ -14979,7 +17967,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4659</v>
+        <v>5655</v>
       </c>
       <c r="C6">
         <v>6290383</v>
@@ -14997,7 +17985,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4660</v>
+        <v>5656</v>
       </c>
       <c r="C7">
         <v>6290383</v>
@@ -15015,7 +18003,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4661</v>
+        <v>5657</v>
       </c>
       <c r="C8">
         <v>6290383</v>
@@ -15033,7 +18021,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4662</v>
+        <v>5658</v>
       </c>
       <c r="C9">
         <v>6290383</v>
@@ -15051,7 +18039,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4663</v>
+        <v>5659</v>
       </c>
       <c r="C10">
         <v>6290383</v>
@@ -15077,22 +18065,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4668</v>
+        <v>5664</v>
       </c>
       <c r="B1" t="s">
-        <v>4669</v>
+        <v>5665</v>
       </c>
       <c r="C1" t="s">
-        <v>4679</v>
+        <v>5675</v>
       </c>
       <c r="D1" t="s">
-        <v>4680</v>
+        <v>5676</v>
       </c>
       <c r="E1" t="s">
-        <v>4681</v>
+        <v>5677</v>
       </c>
       <c r="F1" t="s">
-        <v>4682</v>
+        <v>5678</v>
       </c>
     </row>
     <row r="2">
@@ -15100,7 +18088,7 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>4670</v>
+        <v>5666</v>
       </c>
       <c r="C2">
         <v>6401415</v>
@@ -15118,7 +18106,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4671</v>
+        <v>5667</v>
       </c>
       <c r="C3">
         <v>6401415</v>
@@ -15136,7 +18124,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4672</v>
+        <v>5668</v>
       </c>
       <c r="C4">
         <v>6401415</v>
@@ -15154,7 +18142,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4673</v>
+        <v>5669</v>
       </c>
       <c r="C5">
         <v>6401415</v>
@@ -15172,7 +18160,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4674</v>
+        <v>5670</v>
       </c>
       <c r="C6">
         <v>6401415</v>
@@ -15190,7 +18178,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4675</v>
+        <v>5671</v>
       </c>
       <c r="C7">
         <v>6401415</v>
@@ -15208,7 +18196,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4676</v>
+        <v>5672</v>
       </c>
       <c r="C8">
         <v>6401415</v>
@@ -15226,7 +18214,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4677</v>
+        <v>5673</v>
       </c>
       <c r="C9">
         <v>6401415</v>
@@ -15244,7 +18232,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4678</v>
+        <v>5674</v>
       </c>
       <c r="C10">
         <v>6401415</v>
@@ -15270,22 +18258,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4683</v>
+        <v>5679</v>
       </c>
       <c r="B1" t="s">
-        <v>4684</v>
+        <v>5680</v>
       </c>
       <c r="C1" t="s">
-        <v>4695</v>
+        <v>5691</v>
       </c>
       <c r="D1" t="s">
-        <v>4696</v>
+        <v>5692</v>
       </c>
       <c r="E1" t="s">
-        <v>4697</v>
+        <v>5693</v>
       </c>
       <c r="F1" t="s">
-        <v>4698</v>
+        <v>5694</v>
       </c>
     </row>
     <row r="2">
@@ -15293,7 +18281,7 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>4685</v>
+        <v>5681</v>
       </c>
       <c r="C2">
         <v>6459911</v>
@@ -15311,7 +18299,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4686</v>
+        <v>5682</v>
       </c>
       <c r="C3">
         <v>6459911</v>
@@ -15329,7 +18317,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4687</v>
+        <v>5683</v>
       </c>
       <c r="C4">
         <v>6459911</v>
@@ -15347,7 +18335,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4688</v>
+        <v>5684</v>
       </c>
       <c r="C5">
         <v>6459911</v>
@@ -15365,7 +18353,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4689</v>
+        <v>5685</v>
       </c>
       <c r="C6">
         <v>6459911</v>
@@ -15383,7 +18371,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4690</v>
+        <v>5686</v>
       </c>
       <c r="C7">
         <v>6459911</v>
@@ -15401,7 +18389,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4691</v>
+        <v>5687</v>
       </c>
       <c r="C8">
         <v>6459911</v>
@@ -15419,7 +18407,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4692</v>
+        <v>5688</v>
       </c>
       <c r="C9">
         <v>6459911</v>
@@ -15437,7 +18425,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4693</v>
+        <v>5689</v>
       </c>
       <c r="C10">
         <v>6459911</v>
@@ -15455,7 +18443,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4694</v>
+        <v>5690</v>
       </c>
       <c r="C11">
         <v>6459911</v>
@@ -15481,22 +18469,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4699</v>
+        <v>5695</v>
       </c>
       <c r="B1" t="s">
-        <v>4700</v>
+        <v>5696</v>
       </c>
       <c r="C1" t="s">
-        <v>4711</v>
+        <v>5707</v>
       </c>
       <c r="D1" t="s">
-        <v>4712</v>
+        <v>5708</v>
       </c>
       <c r="E1" t="s">
-        <v>4713</v>
+        <v>5709</v>
       </c>
       <c r="F1" t="s">
-        <v>4714</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="2">
@@ -15504,7 +18492,7 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>4701</v>
+        <v>5697</v>
       </c>
       <c r="C2">
         <v>6522419</v>
@@ -15522,7 +18510,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4702</v>
+        <v>5698</v>
       </c>
       <c r="C3">
         <v>6522419</v>
@@ -15540,7 +18528,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4703</v>
+        <v>5699</v>
       </c>
       <c r="C4">
         <v>6522419</v>
@@ -15558,7 +18546,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4704</v>
+        <v>5700</v>
       </c>
       <c r="C5">
         <v>6522419</v>
@@ -15576,7 +18564,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4705</v>
+        <v>5701</v>
       </c>
       <c r="C6">
         <v>6522419</v>
@@ -15594,7 +18582,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4706</v>
+        <v>5702</v>
       </c>
       <c r="C7">
         <v>6522419</v>
@@ -15612,7 +18600,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4707</v>
+        <v>5703</v>
       </c>
       <c r="C8">
         <v>6522419</v>
@@ -15630,7 +18618,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4708</v>
+        <v>5704</v>
       </c>
       <c r="C9">
         <v>6522419</v>
@@ -15648,7 +18636,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4709</v>
+        <v>5705</v>
       </c>
       <c r="C10">
         <v>6522419</v>
@@ -15666,7 +18654,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4710</v>
+        <v>5706</v>
       </c>
       <c r="C11">
         <v>6522419</v>
@@ -15692,22 +18680,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4715</v>
+        <v>5711</v>
       </c>
       <c r="B1" t="s">
-        <v>4716</v>
+        <v>5712</v>
       </c>
       <c r="C1" t="s">
-        <v>4727</v>
+        <v>5723</v>
       </c>
       <c r="D1" t="s">
-        <v>4728</v>
+        <v>5724</v>
       </c>
       <c r="E1" t="s">
-        <v>4729</v>
+        <v>5725</v>
       </c>
       <c r="F1" t="s">
-        <v>4730</v>
+        <v>5726</v>
       </c>
     </row>
     <row r="2">
@@ -15715,7 +18703,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>4717</v>
+        <v>5713</v>
       </c>
       <c r="C2">
         <v>6581860</v>
@@ -15733,7 +18721,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4718</v>
+        <v>5714</v>
       </c>
       <c r="C3">
         <v>6581860</v>
@@ -15751,7 +18739,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4719</v>
+        <v>5715</v>
       </c>
       <c r="C4">
         <v>6581860</v>
@@ -15769,7 +18757,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4720</v>
+        <v>5716</v>
       </c>
       <c r="C5">
         <v>6581860</v>
@@ -15787,7 +18775,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4721</v>
+        <v>5717</v>
       </c>
       <c r="C6">
         <v>6581860</v>
@@ -15805,7 +18793,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4722</v>
+        <v>5718</v>
       </c>
       <c r="C7">
         <v>6581860</v>
@@ -15823,7 +18811,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4723</v>
+        <v>5719</v>
       </c>
       <c r="C8">
         <v>6581860</v>
@@ -15841,7 +18829,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4724</v>
+        <v>5720</v>
       </c>
       <c r="C9">
         <v>6581860</v>
@@ -15859,7 +18847,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4725</v>
+        <v>5721</v>
       </c>
       <c r="C10">
         <v>6581860</v>
@@ -15877,7 +18865,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4726</v>
+        <v>5722</v>
       </c>
       <c r="C11">
         <v>6581860</v>
@@ -15903,22 +18891,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4498</v>
+        <v>5494</v>
       </c>
       <c r="B1" t="s">
-        <v>4499</v>
+        <v>5495</v>
       </c>
       <c r="C1" t="s">
-        <v>4510</v>
+        <v>5506</v>
       </c>
       <c r="D1" t="s">
-        <v>4511</v>
+        <v>5507</v>
       </c>
       <c r="E1" t="s">
-        <v>4512</v>
+        <v>5508</v>
       </c>
       <c r="F1" t="s">
-        <v>4513</v>
+        <v>5509</v>
       </c>
     </row>
     <row r="2">
@@ -15926,7 +18914,7 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>4500</v>
+        <v>5496</v>
       </c>
       <c r="C2">
         <v>6428672</v>
@@ -15944,7 +18932,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4501</v>
+        <v>5497</v>
       </c>
       <c r="C3">
         <v>6428672</v>
@@ -15962,7 +18950,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4502</v>
+        <v>5498</v>
       </c>
       <c r="C4">
         <v>6428672</v>
@@ -15980,7 +18968,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4503</v>
+        <v>5499</v>
       </c>
       <c r="C5">
         <v>6428672</v>
@@ -15998,7 +18986,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4504</v>
+        <v>5500</v>
       </c>
       <c r="C6">
         <v>6428672</v>
@@ -16016,7 +19004,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4505</v>
+        <v>5501</v>
       </c>
       <c r="C7">
         <v>6428672</v>
@@ -16034,7 +19022,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4506</v>
+        <v>5502</v>
       </c>
       <c r="C8">
         <v>6428672</v>
@@ -16052,7 +19040,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4507</v>
+        <v>5503</v>
       </c>
       <c r="C9">
         <v>6428672</v>
@@ -16070,7 +19058,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4508</v>
+        <v>5504</v>
       </c>
       <c r="C10">
         <v>6428672</v>
@@ -16088,7 +19076,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4509</v>
+        <v>5505</v>
       </c>
       <c r="C11">
         <v>6428672</v>
@@ -16114,22 +19102,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4514</v>
+        <v>5510</v>
       </c>
       <c r="B1" t="s">
-        <v>4515</v>
+        <v>5511</v>
       </c>
       <c r="C1" t="s">
-        <v>4525</v>
+        <v>5521</v>
       </c>
       <c r="D1" t="s">
-        <v>4526</v>
+        <v>5522</v>
       </c>
       <c r="E1" t="s">
-        <v>4527</v>
+        <v>5523</v>
       </c>
       <c r="F1" t="s">
-        <v>4528</v>
+        <v>5524</v>
       </c>
     </row>
     <row r="2">
@@ -16137,7 +19125,7 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>4516</v>
+        <v>5512</v>
       </c>
       <c r="C2">
         <v>6510348</v>
@@ -16155,7 +19143,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4517</v>
+        <v>5513</v>
       </c>
       <c r="C3">
         <v>6510348</v>
@@ -16173,7 +19161,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4518</v>
+        <v>5514</v>
       </c>
       <c r="C4">
         <v>6510348</v>
@@ -16191,7 +19179,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4519</v>
+        <v>5515</v>
       </c>
       <c r="C5">
         <v>6510348</v>
@@ -16209,7 +19197,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4520</v>
+        <v>5516</v>
       </c>
       <c r="C6">
         <v>6510348</v>
@@ -16227,7 +19215,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4521</v>
+        <v>5517</v>
       </c>
       <c r="C7">
         <v>6510348</v>
@@ -16245,7 +19233,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4522</v>
+        <v>5518</v>
       </c>
       <c r="C8">
         <v>6510348</v>
@@ -16263,7 +19251,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4523</v>
+        <v>5519</v>
       </c>
       <c r="C9">
         <v>6510348</v>
@@ -16281,7 +19269,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4524</v>
+        <v>5520</v>
       </c>
       <c r="C10">
         <v>6510348</v>
@@ -16307,22 +19295,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4529</v>
+        <v>5525</v>
       </c>
       <c r="B1" t="s">
-        <v>4530</v>
+        <v>5526</v>
       </c>
       <c r="C1" t="s">
-        <v>4540</v>
+        <v>5536</v>
       </c>
       <c r="D1" t="s">
-        <v>4541</v>
+        <v>5537</v>
       </c>
       <c r="E1" t="s">
-        <v>4542</v>
+        <v>5538</v>
       </c>
       <c r="F1" t="s">
-        <v>4543</v>
+        <v>5539</v>
       </c>
     </row>
     <row r="2">
@@ -16330,7 +19318,7 @@
         <v>2003</v>
       </c>
       <c r="B2" t="s">
-        <v>4531</v>
+        <v>5527</v>
       </c>
       <c r="C2">
         <v>6639010</v>
@@ -16348,7 +19336,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4532</v>
+        <v>5528</v>
       </c>
       <c r="C3">
         <v>6639010</v>
@@ -16366,7 +19354,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4533</v>
+        <v>5529</v>
       </c>
       <c r="C4">
         <v>6639010</v>
@@ -16384,7 +19372,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4534</v>
+        <v>5530</v>
       </c>
       <c r="C5">
         <v>6639010</v>
@@ -16402,7 +19390,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4535</v>
+        <v>5531</v>
       </c>
       <c r="C6">
         <v>6639010</v>
@@ -16420,7 +19408,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4536</v>
+        <v>5532</v>
       </c>
       <c r="C7">
         <v>6639010</v>
@@ -16438,7 +19426,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4537</v>
+        <v>5533</v>
       </c>
       <c r="C8">
         <v>6639010</v>
@@ -16456,7 +19444,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4538</v>
+        <v>5534</v>
       </c>
       <c r="C9">
         <v>6639010</v>
@@ -16474,7 +19462,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4539</v>
+        <v>5535</v>
       </c>
       <c r="C10">
         <v>6639010</v>
@@ -16500,22 +19488,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4544</v>
+        <v>5540</v>
       </c>
       <c r="B1" t="s">
-        <v>4545</v>
+        <v>5541</v>
       </c>
       <c r="C1" t="s">
-        <v>4555</v>
+        <v>5551</v>
       </c>
       <c r="D1" t="s">
-        <v>4556</v>
+        <v>5552</v>
       </c>
       <c r="E1" t="s">
-        <v>4557</v>
+        <v>5553</v>
       </c>
       <c r="F1" t="s">
-        <v>4558</v>
+        <v>5554</v>
       </c>
     </row>
     <row r="2">
@@ -16523,7 +19511,7 @@
         <v>2004</v>
       </c>
       <c r="B2" t="s">
-        <v>4546</v>
+        <v>5542</v>
       </c>
       <c r="C2">
         <v>6756786</v>
@@ -16541,7 +19529,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4547</v>
+        <v>5543</v>
       </c>
       <c r="C3">
         <v>6756786</v>
@@ -16559,7 +19547,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4548</v>
+        <v>5544</v>
       </c>
       <c r="C4">
         <v>6756786</v>
@@ -16577,7 +19565,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4549</v>
+        <v>5545</v>
       </c>
       <c r="C5">
         <v>6756786</v>
@@ -16595,7 +19583,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4550</v>
+        <v>5546</v>
       </c>
       <c r="C6">
         <v>6756786</v>
@@ -16613,7 +19601,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4551</v>
+        <v>5547</v>
       </c>
       <c r="C7">
         <v>6756786</v>
@@ -16631,7 +19619,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4552</v>
+        <v>5548</v>
       </c>
       <c r="C8">
         <v>6756786</v>
@@ -16649,7 +19637,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4553</v>
+        <v>5549</v>
       </c>
       <c r="C9">
         <v>6756786</v>
@@ -16667,7 +19655,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4554</v>
+        <v>5550</v>
       </c>
       <c r="C10">
         <v>6756786</v>
@@ -16693,22 +19681,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4559</v>
+        <v>5555</v>
       </c>
       <c r="B1" t="s">
-        <v>4560</v>
+        <v>5556</v>
       </c>
       <c r="C1" t="s">
-        <v>4571</v>
+        <v>5567</v>
       </c>
       <c r="D1" t="s">
-        <v>4572</v>
+        <v>5568</v>
       </c>
       <c r="E1" t="s">
-        <v>4573</v>
+        <v>5569</v>
       </c>
       <c r="F1" t="s">
-        <v>4574</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="2">
@@ -16716,7 +19704,7 @@
         <v>2005</v>
       </c>
       <c r="B2" t="s">
-        <v>4561</v>
+        <v>5557</v>
       </c>
       <c r="C2">
         <v>6864080</v>
@@ -16734,7 +19722,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4562</v>
+        <v>5558</v>
       </c>
       <c r="C3">
         <v>6864080</v>
@@ -16752,7 +19740,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4563</v>
+        <v>5559</v>
       </c>
       <c r="C4">
         <v>6864080</v>
@@ -16770,7 +19758,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4564</v>
+        <v>5560</v>
       </c>
       <c r="C5">
         <v>6864080</v>
@@ -16788,7 +19776,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4565</v>
+        <v>5561</v>
       </c>
       <c r="C6">
         <v>6864080</v>
@@ -16806,7 +19794,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4566</v>
+        <v>5562</v>
       </c>
       <c r="C7">
         <v>6864080</v>
@@ -16824,7 +19812,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4567</v>
+        <v>5563</v>
       </c>
       <c r="C8">
         <v>6864080</v>
@@ -16842,7 +19830,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4568</v>
+        <v>5564</v>
       </c>
       <c r="C9">
         <v>6864080</v>
@@ -16860,7 +19848,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4569</v>
+        <v>5565</v>
       </c>
       <c r="C10">
         <v>6864080</v>
@@ -16878,7 +19866,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4570</v>
+        <v>5566</v>
       </c>
       <c r="C11">
         <v>6864080</v>
@@ -16904,22 +19892,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4575</v>
+        <v>5571</v>
       </c>
       <c r="B1" t="s">
-        <v>4576</v>
+        <v>5572</v>
       </c>
       <c r="C1" t="s">
-        <v>4587</v>
+        <v>5583</v>
       </c>
       <c r="D1" t="s">
-        <v>4588</v>
+        <v>5584</v>
       </c>
       <c r="E1" t="s">
-        <v>4589</v>
+        <v>5585</v>
       </c>
       <c r="F1" t="s">
-        <v>4590</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="2">
@@ -16927,7 +19915,7 @@
         <v>2006</v>
       </c>
       <c r="B2" t="s">
-        <v>4577</v>
+        <v>5573</v>
       </c>
       <c r="C2">
         <v>6980279</v>
@@ -16945,7 +19933,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4578</v>
+        <v>5574</v>
       </c>
       <c r="C3">
         <v>6980279</v>
@@ -16963,7 +19951,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4579</v>
+        <v>5575</v>
       </c>
       <c r="C4">
         <v>6980279</v>
@@ -16981,7 +19969,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4580</v>
+        <v>5576</v>
       </c>
       <c r="C5">
         <v>6980279</v>
@@ -16999,7 +19987,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4581</v>
+        <v>5577</v>
       </c>
       <c r="C6">
         <v>6980279</v>
@@ -17017,7 +20005,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4582</v>
+        <v>5578</v>
       </c>
       <c r="C7">
         <v>6980279</v>
@@ -17035,7 +20023,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4583</v>
+        <v>5579</v>
       </c>
       <c r="C8">
         <v>6980279</v>
@@ -17053,7 +20041,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4584</v>
+        <v>5580</v>
       </c>
       <c r="C9">
         <v>6980279</v>
@@ -17071,7 +20059,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4585</v>
+        <v>5581</v>
       </c>
       <c r="C10">
         <v>6980279</v>
@@ -17089,7 +20077,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4586</v>
+        <v>5582</v>
       </c>
       <c r="C11">
         <v>6980279</v>
@@ -17115,22 +20103,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4591</v>
+        <v>5587</v>
       </c>
       <c r="B1" t="s">
-        <v>4592</v>
+        <v>5588</v>
       </c>
       <c r="C1" t="s">
-        <v>4603</v>
+        <v>5599</v>
       </c>
       <c r="D1" t="s">
-        <v>4604</v>
+        <v>5600</v>
       </c>
       <c r="E1" t="s">
-        <v>4605</v>
+        <v>5601</v>
       </c>
       <c r="F1" t="s">
-        <v>4606</v>
+        <v>5602</v>
       </c>
     </row>
     <row r="2">
@@ -17138,7 +20126,7 @@
         <v>2007</v>
       </c>
       <c r="B2" t="s">
-        <v>4593</v>
+        <v>5589</v>
       </c>
       <c r="C2">
         <v>5744575</v>
@@ -17156,7 +20144,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4594</v>
+        <v>5590</v>
       </c>
       <c r="C3">
         <v>5744575</v>
@@ -17174,7 +20162,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4595</v>
+        <v>5591</v>
       </c>
       <c r="C4">
         <v>5744575</v>
@@ -17192,7 +20180,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4596</v>
+        <v>5592</v>
       </c>
       <c r="C5">
         <v>5744575</v>
@@ -17210,7 +20198,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4597</v>
+        <v>5593</v>
       </c>
       <c r="C6">
         <v>5744575</v>
@@ -17228,7 +20216,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4598</v>
+        <v>5594</v>
       </c>
       <c r="C7">
         <v>5744575</v>
@@ -17246,7 +20234,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4599</v>
+        <v>5595</v>
       </c>
       <c r="C8">
         <v>5744575</v>
@@ -17264,7 +20252,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4600</v>
+        <v>5596</v>
       </c>
       <c r="C9">
         <v>5744575</v>
@@ -17282,7 +20270,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4601</v>
+        <v>5597</v>
       </c>
       <c r="C10">
         <v>5744575</v>
@@ -17300,7 +20288,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4602</v>
+        <v>5598</v>
       </c>
       <c r="C11">
         <v>5744575</v>
@@ -17326,22 +20314,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4607</v>
+        <v>5603</v>
       </c>
       <c r="B1" t="s">
-        <v>4608</v>
+        <v>5604</v>
       </c>
       <c r="C1" t="s">
-        <v>4618</v>
+        <v>5614</v>
       </c>
       <c r="D1" t="s">
-        <v>4619</v>
+        <v>5615</v>
       </c>
       <c r="E1" t="s">
-        <v>4620</v>
+        <v>5616</v>
       </c>
       <c r="F1" t="s">
-        <v>4621</v>
+        <v>5617</v>
       </c>
     </row>
     <row r="2">
@@ -17349,7 +20337,7 @@
         <v>2009</v>
       </c>
       <c r="B2" t="s">
-        <v>4609</v>
+        <v>5605</v>
       </c>
       <c r="C2">
         <v>6150953</v>
@@ -17367,7 +20355,7 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4610</v>
+        <v>5606</v>
       </c>
       <c r="C3">
         <v>6150953</v>
@@ -17385,7 +20373,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4611</v>
+        <v>5607</v>
       </c>
       <c r="C4">
         <v>6150953</v>
@@ -17403,7 +20391,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4612</v>
+        <v>5608</v>
       </c>
       <c r="C5">
         <v>6150953</v>
@@ -17421,7 +20409,7 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4613</v>
+        <v>5609</v>
       </c>
       <c r="C6">
         <v>6150953</v>
@@ -17439,7 +20427,7 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4614</v>
+        <v>5610</v>
       </c>
       <c r="C7">
         <v>6150953</v>
@@ -17457,7 +20445,7 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4615</v>
+        <v>5611</v>
       </c>
       <c r="C8">
         <v>6150953</v>
@@ -17475,7 +20463,7 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4616</v>
+        <v>5612</v>
       </c>
       <c r="C9">
         <v>6150953</v>
@@ -17493,7 +20481,7 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4617</v>
+        <v>5613</v>
       </c>
       <c r="C10">
         <v>6150953</v>
